--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1152,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D2">
         <v>723</v>
       </c>
       <c r="E2">
-        <v>8981714</v>
+        <v>8991714</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1187,13 +1187,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>14534</v>
+        <v>14542</v>
       </c>
       <c r="D3">
         <v>3050</v>
       </c>
       <c r="E3">
-        <v>57712612</v>
+        <v>57762041</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1222,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D4">
         <v>1166</v>
       </c>
       <c r="E4">
-        <v>31805879</v>
+        <v>31815879</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1257,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="D5">
         <v>348</v>
       </c>
       <c r="E5">
-        <v>13193511</v>
+        <v>13211929</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1292,13 +1292,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>12044760</v>
+        <v>12120277</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1397,13 +1397,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="D9">
         <v>721</v>
       </c>
       <c r="E9">
-        <v>6962364</v>
+        <v>6972110</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1432,13 +1432,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="D10">
         <v>593</v>
       </c>
       <c r="E10">
-        <v>9081785</v>
+        <v>9087914</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1467,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>8927</v>
+        <v>8931</v>
       </c>
       <c r="D11">
         <v>1868</v>
       </c>
       <c r="E11">
-        <v>33385165</v>
+        <v>33397682</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1537,13 +1537,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D13">
         <v>174</v>
       </c>
       <c r="E13">
-        <v>5874320</v>
+        <v>5908095</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1572,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D14">
         <v>77</v>
       </c>
       <c r="E14">
-        <v>4910979</v>
+        <v>4934827</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1607,13 +1607,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>32</v>
       </c>
       <c r="E15">
-        <v>5238159</v>
+        <v>5337144</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1677,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4895</v>
+        <v>4897</v>
       </c>
       <c r="D17">
         <v>1234</v>
       </c>
       <c r="E17">
-        <v>8333782</v>
+        <v>8336782</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1712,13 +1712,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>7185</v>
+        <v>7196</v>
       </c>
       <c r="D18">
         <v>1192</v>
       </c>
       <c r="E18">
-        <v>28011820</v>
+        <v>28087469</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1747,13 +1747,13 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>10789</v>
+        <v>10798</v>
       </c>
       <c r="D19">
         <v>2135</v>
       </c>
       <c r="E19">
-        <v>46519788</v>
+        <v>46607104</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1782,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="D20">
         <v>666</v>
       </c>
       <c r="E20">
-        <v>16094406</v>
+        <v>16097406</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1817,13 +1817,13 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D21">
         <v>162</v>
       </c>
       <c r="E21">
-        <v>5909196</v>
+        <v>5919000</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1852,13 +1852,13 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D22">
         <v>56</v>
       </c>
       <c r="E22">
-        <v>5581540</v>
+        <v>5591540</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1887,13 +1887,13 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>4165301</v>
+        <v>4265911</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1957,13 +1957,13 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="D25">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E25">
-        <v>7286900</v>
+        <v>7288400</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1992,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="D26">
         <v>353</v>
       </c>
       <c r="E26">
-        <v>6264529</v>
+        <v>6278213</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2027,13 +2027,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>5105</v>
+        <v>5108</v>
       </c>
       <c r="D27">
         <v>1030</v>
       </c>
       <c r="E27">
-        <v>20982019</v>
+        <v>20995019</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2062,13 +2062,13 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D28">
         <v>305</v>
       </c>
       <c r="E28">
-        <v>7970861</v>
+        <v>7972361</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -2097,13 +2097,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D29">
         <v>101</v>
       </c>
       <c r="E29">
-        <v>3051313</v>
+        <v>3071313</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2132,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30">
         <v>37</v>
       </c>
       <c r="E30">
-        <v>2470181</v>
+        <v>2470681</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -2202,13 +2202,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>5373</v>
+        <v>5386</v>
       </c>
       <c r="D32">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E32">
-        <v>9116319</v>
+        <v>9134153</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2237,13 +2237,13 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>7901</v>
+        <v>7908</v>
       </c>
       <c r="D33">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="E33">
-        <v>25323601</v>
+        <v>25347085</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -2272,13 +2272,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>16148</v>
+        <v>16159</v>
       </c>
       <c r="D34">
         <v>3367</v>
       </c>
       <c r="E34">
-        <v>64706027</v>
+        <v>64783028</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2307,13 +2307,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>5607</v>
+        <v>5609</v>
       </c>
       <c r="D35">
         <v>1166</v>
       </c>
       <c r="E35">
-        <v>29873034</v>
+        <v>29885416</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2342,13 +2342,13 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D36">
         <v>363</v>
       </c>
       <c r="E36">
-        <v>13252557</v>
+        <v>13255557</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -2377,13 +2377,13 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D37">
         <v>160</v>
       </c>
       <c r="E37">
-        <v>9986739</v>
+        <v>9994479</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -2412,13 +2412,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>73</v>
       </c>
       <c r="E38">
-        <v>11770282</v>
+        <v>11858930</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2517,13 +2517,13 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>5470</v>
+        <v>5472</v>
       </c>
       <c r="D41">
         <v>1170</v>
       </c>
       <c r="E41">
-        <v>9705246</v>
+        <v>9707879</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2552,13 +2552,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="D42">
         <v>580</v>
       </c>
       <c r="E42">
-        <v>9978457</v>
+        <v>9999467</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2587,13 +2587,13 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>6804</v>
+        <v>6809</v>
       </c>
       <c r="D43">
         <v>1407</v>
       </c>
       <c r="E43">
-        <v>26732632</v>
+        <v>26756031</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2622,13 +2622,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D44">
         <v>449</v>
       </c>
       <c r="E44">
-        <v>11010076</v>
+        <v>11020076</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2762,13 +2762,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="D48">
         <v>696</v>
       </c>
       <c r="E48">
-        <v>5664320</v>
+        <v>5668276</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2797,13 +2797,13 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>11409</v>
+        <v>11425</v>
       </c>
       <c r="D49">
         <v>2181</v>
       </c>
       <c r="E49">
-        <v>43236287</v>
+        <v>43370796</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2832,13 +2832,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>25972</v>
+        <v>26009</v>
       </c>
       <c r="D50">
         <v>5056</v>
       </c>
       <c r="E50">
-        <v>123421247</v>
+        <v>123659120</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2867,13 +2867,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>13411</v>
+        <v>13431</v>
       </c>
       <c r="D51">
         <v>2376</v>
       </c>
       <c r="E51">
-        <v>90743961</v>
+        <v>90948342</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2902,13 +2902,13 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>6005</v>
+        <v>6017</v>
       </c>
       <c r="D52">
         <v>1003</v>
       </c>
       <c r="E52">
-        <v>61303219</v>
+        <v>61567445</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2937,13 +2937,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>3514</v>
+        <v>3519</v>
       </c>
       <c r="D53">
         <v>592</v>
       </c>
       <c r="E53">
-        <v>63348936</v>
+        <v>63466151</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2972,13 +2972,13 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="D54">
         <v>220</v>
       </c>
       <c r="E54">
-        <v>48018131</v>
+        <v>48324627</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55">
         <v>34</v>
       </c>
       <c r="E55">
-        <v>14709957</v>
+        <v>14857401</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -3147,13 +3147,13 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>14278</v>
+        <v>14314</v>
       </c>
       <c r="D59">
         <v>2612</v>
       </c>
       <c r="E59">
-        <v>35740144</v>
+        <v>35888640</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -3182,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>13738</v>
+        <v>13760</v>
       </c>
       <c r="D60">
         <v>2901</v>
       </c>
       <c r="E60">
-        <v>42075342</v>
+        <v>42178351</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -3217,13 +3217,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>33641</v>
+        <v>33676</v>
       </c>
       <c r="D61">
         <v>6989</v>
       </c>
       <c r="E61">
-        <v>138111992</v>
+        <v>138335850</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3252,13 +3252,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>13510</v>
+        <v>13531</v>
       </c>
       <c r="D62">
         <v>2703</v>
       </c>
       <c r="E62">
-        <v>80037189</v>
+        <v>80226557</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3287,13 +3287,13 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>4797</v>
+        <v>4802</v>
       </c>
       <c r="D63">
         <v>903</v>
       </c>
       <c r="E63">
-        <v>40139151</v>
+        <v>40209573</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -3322,13 +3322,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D64">
         <v>382</v>
       </c>
       <c r="E64">
-        <v>31778263</v>
+        <v>31825436</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3357,13 +3357,13 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D65">
         <v>137</v>
       </c>
       <c r="E65">
-        <v>27434467</v>
+        <v>27588367</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -3392,13 +3392,13 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D66">
         <v>26</v>
       </c>
       <c r="E66">
-        <v>6978129</v>
+        <v>7178129</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -3497,13 +3497,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>13154</v>
+        <v>13175</v>
       </c>
       <c r="D69">
         <v>2712</v>
       </c>
       <c r="E69">
-        <v>30132765</v>
+        <v>30248303</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3532,13 +3532,13 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>7351</v>
+        <v>7356</v>
       </c>
       <c r="D70">
         <v>1545</v>
       </c>
       <c r="E70">
-        <v>21697439</v>
+        <v>21723516</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>19079</v>
+        <v>19097</v>
       </c>
       <c r="D71">
         <v>4043</v>
       </c>
       <c r="E71">
-        <v>73517753</v>
+        <v>73622147</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -3602,13 +3602,13 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>6723</v>
+        <v>6725</v>
       </c>
       <c r="D72">
         <v>1510</v>
       </c>
       <c r="E72">
-        <v>34511936</v>
+        <v>34531936</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -3637,13 +3637,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="D73">
         <v>473</v>
       </c>
       <c r="E73">
-        <v>15927125</v>
+        <v>15952345</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3672,13 +3672,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D74">
         <v>222</v>
       </c>
       <c r="E74">
-        <v>13620081</v>
+        <v>13621213</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -3742,13 +3742,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
       <c r="E76">
-        <v>4408840</v>
+        <v>4808840</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3812,13 +3812,13 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>7175</v>
+        <v>7180</v>
       </c>
       <c r="D78">
         <v>1594</v>
       </c>
       <c r="E78">
-        <v>13553395</v>
+        <v>13563857</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -3847,13 +3847,13 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>6526</v>
+        <v>6533</v>
       </c>
       <c r="D79">
         <v>1280</v>
       </c>
       <c r="E79">
-        <v>19954750</v>
+        <v>19977712</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -3882,13 +3882,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>17500</v>
+        <v>17517</v>
       </c>
       <c r="D80">
         <v>3516</v>
       </c>
       <c r="E80">
-        <v>69878034</v>
+        <v>70001480</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -3917,13 +3917,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>6902</v>
+        <v>6905</v>
       </c>
       <c r="D81">
         <v>1393</v>
       </c>
       <c r="E81">
-        <v>40357450</v>
+        <v>40380963</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -3952,13 +3952,13 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>2320</v>
+        <v>2325</v>
       </c>
       <c r="D82">
         <v>457</v>
       </c>
       <c r="E82">
-        <v>17703733</v>
+        <v>17779588</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -3987,13 +3987,13 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D83">
         <v>222</v>
       </c>
       <c r="E83">
-        <v>17611877</v>
+        <v>17625331</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4022,13 +4022,13 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D84">
         <v>70</v>
       </c>
       <c r="E84">
-        <v>9895037</v>
+        <v>9916884</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>6638</v>
+        <v>6641</v>
       </c>
       <c r="D87">
         <v>1430</v>
       </c>
       <c r="E87">
-        <v>13191027</v>
+        <v>13211023</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4162,13 +4162,13 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>21490</v>
+        <v>21524</v>
       </c>
       <c r="D88">
         <v>4508</v>
       </c>
       <c r="E88">
-        <v>63166003</v>
+        <v>63366694</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4197,13 +4197,13 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>54694</v>
+        <v>54747</v>
       </c>
       <c r="D89">
-        <v>11336</v>
+        <v>11338</v>
       </c>
       <c r="E89">
-        <v>216457230</v>
+        <v>216782543</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4232,13 +4232,13 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>22555</v>
+        <v>22576</v>
       </c>
       <c r="D90">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="E90">
-        <v>132110222</v>
+        <v>132317276</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4267,13 +4267,13 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>8525</v>
+        <v>8548</v>
       </c>
       <c r="D91">
         <v>1562</v>
       </c>
       <c r="E91">
-        <v>72199753</v>
+        <v>72476214</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -4302,13 +4302,13 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>4158</v>
+        <v>4163</v>
       </c>
       <c r="D92">
         <v>743</v>
       </c>
       <c r="E92">
-        <v>71235611</v>
+        <v>71292874</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -4337,13 +4337,13 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D93">
         <v>287</v>
       </c>
       <c r="E93">
-        <v>51115007</v>
+        <v>51258986</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4547,13 +4547,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>15936</v>
+        <v>15953</v>
       </c>
       <c r="D99">
         <v>3452</v>
       </c>
       <c r="E99">
-        <v>33146659</v>
+        <v>33218828</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4582,13 +4582,13 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>8300</v>
+        <v>8316</v>
       </c>
       <c r="D100">
         <v>1554</v>
       </c>
       <c r="E100">
-        <v>30419620</v>
+        <v>30527002</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -4617,13 +4617,13 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>20278</v>
+        <v>20317</v>
       </c>
       <c r="D101">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E101">
-        <v>100960355</v>
+        <v>101261383</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -4652,13 +4652,13 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>11595</v>
+        <v>11617</v>
       </c>
       <c r="D102">
         <v>1849</v>
       </c>
       <c r="E102">
-        <v>86703295</v>
+        <v>87177299</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -4687,13 +4687,13 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>5753</v>
+        <v>5761</v>
       </c>
       <c r="D103">
         <v>929</v>
       </c>
       <c r="E103">
-        <v>66168801</v>
+        <v>66409141</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4722,13 +4722,13 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>3324</v>
+        <v>3331</v>
       </c>
       <c r="D104">
         <v>558</v>
       </c>
       <c r="E104">
-        <v>71913061</v>
+        <v>72171991</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -4757,13 +4757,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D105">
         <v>202</v>
       </c>
       <c r="E105">
-        <v>51651217</v>
+        <v>51698002</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4792,13 +4792,13 @@
         <v>12</v>
       </c>
       <c r="C106">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D106">
         <v>46</v>
       </c>
       <c r="E106">
-        <v>19536903</v>
+        <v>19696235</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -4897,13 +4897,13 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>22499</v>
+        <v>22556</v>
       </c>
       <c r="D109">
         <v>3187</v>
       </c>
       <c r="E109">
-        <v>65838266</v>
+        <v>66087427</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -4932,13 +4932,13 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="D110">
         <v>977</v>
       </c>
       <c r="E110">
-        <v>15231935</v>
+        <v>15240006</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -4967,13 +4967,13 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>12462</v>
+        <v>12472</v>
       </c>
       <c r="D111">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="E111">
-        <v>54116762</v>
+        <v>54178644</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -5002,13 +5002,13 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>5310</v>
+        <v>5313</v>
       </c>
       <c r="D112">
         <v>1071</v>
       </c>
       <c r="E112">
-        <v>32103869</v>
+        <v>32128185</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -5037,13 +5037,13 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="D113">
         <v>358</v>
       </c>
       <c r="E113">
-        <v>18951494</v>
+        <v>18962994</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -5072,13 +5072,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D114">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E114">
-        <v>18770277</v>
+        <v>18780277</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -5177,13 +5177,13 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>4210</v>
+        <v>4215</v>
       </c>
       <c r="D117">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E117">
-        <v>8898048</v>
+        <v>8909233</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -5212,13 +5212,13 @@
         <v>12</v>
       </c>
       <c r="C118">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="D118">
         <v>833</v>
       </c>
       <c r="E118">
-        <v>13625874</v>
+        <v>13627374</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -5247,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>10977</v>
+        <v>10990</v>
       </c>
       <c r="D119">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="E119">
-        <v>43582941</v>
+        <v>43666992</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -5282,13 +5282,13 @@
         <v>12</v>
       </c>
       <c r="C120">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="D120">
         <v>893</v>
       </c>
       <c r="E120">
-        <v>26503710</v>
+        <v>26515210</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -5352,13 +5352,13 @@
         <v>12</v>
       </c>
       <c r="C122">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D122">
         <v>146</v>
       </c>
       <c r="E122">
-        <v>9109380</v>
+        <v>9126562</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -5492,13 +5492,13 @@
         <v>12</v>
       </c>
       <c r="C126">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D126">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E126">
-        <v>4327073</v>
+        <v>4328573</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -5527,13 +5527,13 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>4123</v>
+        <v>4127</v>
       </c>
       <c r="D127">
         <v>935</v>
       </c>
       <c r="E127">
-        <v>16006212</v>
+        <v>16022157</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -5562,13 +5562,13 @@
         <v>12</v>
       </c>
       <c r="C128">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D128">
         <v>312</v>
       </c>
       <c r="E128">
-        <v>6393306</v>
+        <v>6403306</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -5702,13 +5702,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D132">
         <v>418</v>
       </c>
       <c r="E132">
-        <v>3182330</v>
+        <v>3182630</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5737,13 +5737,13 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="D133">
         <v>576</v>
       </c>
       <c r="E133">
-        <v>8098643</v>
+        <v>8106963</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -5772,13 +5772,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>6830</v>
+        <v>6842</v>
       </c>
       <c r="D134">
         <v>1402</v>
       </c>
       <c r="E134">
-        <v>28166008</v>
+        <v>28261369</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5807,13 +5807,13 @@
         <v>12</v>
       </c>
       <c r="C135">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="D135">
         <v>507</v>
       </c>
       <c r="E135">
-        <v>13874468</v>
+        <v>13937994</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -5842,13 +5842,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D136">
         <v>171</v>
       </c>
       <c r="E136">
-        <v>6593936</v>
+        <v>6611838</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -5912,13 +5912,13 @@
         <v>12</v>
       </c>
       <c r="C138">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D138">
         <v>28</v>
       </c>
       <c r="E138">
-        <v>4155002</v>
+        <v>4159759</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -5982,13 +5982,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D140">
         <v>485</v>
       </c>
       <c r="E140">
-        <v>4719147</v>
+        <v>4730442</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6017,13 +6017,13 @@
         <v>12</v>
       </c>
       <c r="C141">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="D141">
         <v>352</v>
       </c>
       <c r="E141">
-        <v>6291715</v>
+        <v>6294592</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -6052,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>4740</v>
+        <v>4741</v>
       </c>
       <c r="D142">
         <v>1013</v>
       </c>
       <c r="E142">
-        <v>19428624</v>
+        <v>19438624</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -6157,13 +6157,13 @@
         <v>12</v>
       </c>
       <c r="C145">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D145">
         <v>47</v>
       </c>
       <c r="E145">
-        <v>2812330</v>
+        <v>2829487</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
@@ -6227,13 +6227,13 @@
         <v>12</v>
       </c>
       <c r="C147">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="D147">
         <v>426</v>
       </c>
       <c r="E147">
-        <v>3854651</v>
+        <v>3858096</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6262,13 +6262,13 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="D148">
         <v>986</v>
       </c>
       <c r="E148">
-        <v>16783101</v>
+        <v>16784601</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -6297,13 +6297,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>14480</v>
+        <v>14495</v>
       </c>
       <c r="D149">
         <v>2988</v>
       </c>
       <c r="E149">
-        <v>59453552</v>
+        <v>59528935</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6332,13 +6332,13 @@
         <v>12</v>
       </c>
       <c r="C150">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D150">
         <v>1035</v>
       </c>
       <c r="E150">
-        <v>28034982</v>
+        <v>28043729</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -6367,13 +6367,13 @@
         <v>12</v>
       </c>
       <c r="C151">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D151">
         <v>295</v>
       </c>
       <c r="E151">
-        <v>9928354</v>
+        <v>9946811</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
@@ -6402,13 +6402,13 @@
         <v>12</v>
       </c>
       <c r="C152">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D152">
         <v>141</v>
       </c>
       <c r="E152">
-        <v>11829683</v>
+        <v>11845146</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -6507,13 +6507,13 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>5594</v>
+        <v>5595</v>
       </c>
       <c r="D155">
         <v>1269</v>
       </c>
       <c r="E155">
-        <v>11817518</v>
+        <v>11826524</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -6822,13 +6822,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>7795</v>
+        <v>7800</v>
       </c>
       <c r="D164">
         <v>1704</v>
       </c>
       <c r="E164">
-        <v>31386299</v>
+        <v>31410636</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6857,13 +6857,13 @@
         <v>12</v>
       </c>
       <c r="C165">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="D165">
         <v>562</v>
       </c>
       <c r="E165">
-        <v>15403703</v>
+        <v>15413703</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -7032,13 +7032,13 @@
         <v>12</v>
       </c>
       <c r="C170">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="D170">
         <v>568</v>
       </c>
       <c r="E170">
-        <v>5337610</v>
+        <v>5341228</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7067,13 +7067,13 @@
         <v>12</v>
       </c>
       <c r="C171">
-        <v>6818</v>
+        <v>6824</v>
       </c>
       <c r="D171">
         <v>1266</v>
       </c>
       <c r="E171">
-        <v>26126726</v>
+        <v>26152904</v>
       </c>
       <c r="F171" t="s">
         <v>15</v>
@@ -7102,13 +7102,13 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>15364</v>
+        <v>15369</v>
       </c>
       <c r="D172">
         <v>3128</v>
       </c>
       <c r="E172">
-        <v>66627204</v>
+        <v>66674028</v>
       </c>
       <c r="F172" t="s">
         <v>15</v>
@@ -7137,13 +7137,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="D173">
         <v>1047</v>
       </c>
       <c r="E173">
-        <v>30002344</v>
+        <v>30018772</v>
       </c>
       <c r="F173" t="s">
         <v>15</v>
@@ -7172,13 +7172,13 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D174">
         <v>349</v>
       </c>
       <c r="E174">
-        <v>12062173</v>
+        <v>12072460</v>
       </c>
       <c r="F174" t="s">
         <v>15</v>
@@ -7207,13 +7207,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D175">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E175">
-        <v>9944714</v>
+        <v>9972609</v>
       </c>
       <c r="F175" t="s">
         <v>15</v>
@@ -7312,13 +7312,13 @@
         <v>12</v>
       </c>
       <c r="C178">
-        <v>5055</v>
+        <v>5058</v>
       </c>
       <c r="D178">
         <v>1188</v>
       </c>
       <c r="E178">
-        <v>9983743</v>
+        <v>9988816</v>
       </c>
       <c r="F178" t="s">
         <v>15</v>
@@ -7347,13 +7347,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>8899</v>
+        <v>8905</v>
       </c>
       <c r="D179">
         <v>1749</v>
       </c>
       <c r="E179">
-        <v>32906592</v>
+        <v>32944637</v>
       </c>
       <c r="F179" t="s">
         <v>15</v>
@@ -7382,13 +7382,13 @@
         <v>12</v>
       </c>
       <c r="C180">
-        <v>21326</v>
+        <v>21336</v>
       </c>
       <c r="D180">
         <v>4274</v>
       </c>
       <c r="E180">
-        <v>94779076</v>
+        <v>94848588</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -7417,13 +7417,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>8776</v>
+        <v>8782</v>
       </c>
       <c r="D181">
         <v>1772</v>
       </c>
       <c r="E181">
-        <v>52716054</v>
+        <v>52785606</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -7452,13 +7452,13 @@
         <v>12</v>
       </c>
       <c r="C182">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="D182">
         <v>557</v>
       </c>
       <c r="E182">
-        <v>24283173</v>
+        <v>24371097</v>
       </c>
       <c r="F182" t="s">
         <v>15</v>
@@ -7487,13 +7487,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="D183">
         <v>258</v>
       </c>
       <c r="E183">
-        <v>18254441</v>
+        <v>18315910</v>
       </c>
       <c r="F183" t="s">
         <v>15</v>
@@ -7522,13 +7522,13 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D184">
         <v>91</v>
       </c>
       <c r="E184">
-        <v>17367421</v>
+        <v>17380024</v>
       </c>
       <c r="F184" t="s">
         <v>15</v>
@@ -7627,13 +7627,13 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>6461</v>
+        <v>6466</v>
       </c>
       <c r="D187">
         <v>1525</v>
       </c>
       <c r="E187">
-        <v>12838372</v>
+        <v>12845910</v>
       </c>
       <c r="F187" t="s">
         <v>15</v>
@@ -7662,13 +7662,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8450</v>
+        <v>8457</v>
       </c>
       <c r="D188">
         <v>1662</v>
       </c>
       <c r="E188">
-        <v>29194931</v>
+        <v>29221526</v>
       </c>
       <c r="F188" t="s">
         <v>15</v>
@@ -7697,13 +7697,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>23929</v>
+        <v>23950</v>
       </c>
       <c r="D189">
         <v>4882</v>
       </c>
       <c r="E189">
-        <v>104474171</v>
+        <v>104643950</v>
       </c>
       <c r="F189" t="s">
         <v>15</v>
@@ -7732,13 +7732,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>9945</v>
+        <v>9963</v>
       </c>
       <c r="D190">
         <v>2046</v>
       </c>
       <c r="E190">
-        <v>60565957</v>
+        <v>60746858</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -7767,13 +7767,13 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>3990</v>
+        <v>4002</v>
       </c>
       <c r="D191">
         <v>785</v>
       </c>
       <c r="E191">
-        <v>34526556</v>
+        <v>34673221</v>
       </c>
       <c r="F191" t="s">
         <v>15</v>
@@ -7802,13 +7802,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="D192">
         <v>407</v>
       </c>
       <c r="E192">
-        <v>32009438</v>
+        <v>32081307</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7837,13 +7837,13 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D193">
         <v>122</v>
       </c>
       <c r="E193">
-        <v>23541959</v>
+        <v>23598784</v>
       </c>
       <c r="F193" t="s">
         <v>15</v>
@@ -7977,13 +7977,13 @@
         <v>12</v>
       </c>
       <c r="C197">
-        <v>6529</v>
+        <v>6531</v>
       </c>
       <c r="D197">
         <v>1484</v>
       </c>
       <c r="E197">
-        <v>13798921</v>
+        <v>13810593</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
@@ -8012,13 +8012,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>9758</v>
+        <v>9762</v>
       </c>
       <c r="D198">
         <v>1803</v>
       </c>
       <c r="E198">
-        <v>38112300</v>
+        <v>38132078</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8047,13 +8047,13 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>20223</v>
+        <v>20233</v>
       </c>
       <c r="D199">
         <v>4151</v>
       </c>
       <c r="E199">
-        <v>90191597</v>
+        <v>90242619</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
@@ -8082,13 +8082,13 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>7834</v>
+        <v>7836</v>
       </c>
       <c r="D200">
         <v>1607</v>
       </c>
       <c r="E200">
-        <v>46529152</v>
+        <v>46547652</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -8117,13 +8117,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="D201">
         <v>542</v>
       </c>
       <c r="E201">
-        <v>22352654</v>
+        <v>22389837</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -8152,13 +8152,13 @@
         <v>12</v>
       </c>
       <c r="C202">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D202">
         <v>203</v>
       </c>
       <c r="E202">
-        <v>15923133</v>
+        <v>15981076</v>
       </c>
       <c r="F202" t="s">
         <v>15</v>
@@ -8257,13 +8257,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>6230</v>
+        <v>6232</v>
       </c>
       <c r="D205">
         <v>1403</v>
       </c>
       <c r="E205">
-        <v>13047153</v>
+        <v>13049988</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8292,13 +8292,13 @@
         <v>12</v>
       </c>
       <c r="C206">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D206">
         <v>416</v>
       </c>
       <c r="E206">
-        <v>6767116</v>
+        <v>6776528</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -8362,13 +8362,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D208">
         <v>508</v>
       </c>
       <c r="E208">
-        <v>13227358</v>
+        <v>13237358</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -8502,13 +8502,13 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="D212">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E212">
-        <v>4678383</v>
+        <v>4683660</v>
       </c>
       <c r="F212" t="s">
         <v>16</v>
@@ -8537,13 +8537,13 @@
         <v>12</v>
       </c>
       <c r="C213">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D213">
         <v>566</v>
       </c>
       <c r="E213">
-        <v>7301570</v>
+        <v>7304570</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
@@ -8572,13 +8572,13 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>7967</v>
+        <v>7972</v>
       </c>
       <c r="D214">
         <v>1791</v>
       </c>
       <c r="E214">
-        <v>29346714</v>
+        <v>29376749</v>
       </c>
       <c r="F214" t="s">
         <v>16</v>
@@ -8607,13 +8607,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D215">
         <v>692</v>
       </c>
       <c r="E215">
-        <v>15704303</v>
+        <v>15714303</v>
       </c>
       <c r="F215" t="s">
         <v>16</v>
@@ -8782,13 +8782,13 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="D220">
         <v>533</v>
       </c>
       <c r="E220">
-        <v>4429448</v>
+        <v>4435595</v>
       </c>
       <c r="F220" t="s">
         <v>16</v>
@@ -8817,13 +8817,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D221">
         <v>285</v>
       </c>
       <c r="E221">
-        <v>4581711</v>
+        <v>4583211</v>
       </c>
       <c r="F221" t="s">
         <v>16</v>
@@ -8852,13 +8852,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>4599</v>
+        <v>4604</v>
       </c>
       <c r="D222">
         <v>972</v>
       </c>
       <c r="E222">
-        <v>17188521</v>
+        <v>17223697</v>
       </c>
       <c r="F222" t="s">
         <v>16</v>
@@ -8887,13 +8887,13 @@
         <v>12</v>
       </c>
       <c r="C223">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D223">
         <v>407</v>
       </c>
       <c r="E223">
-        <v>9729441</v>
+        <v>9740668</v>
       </c>
       <c r="F223" t="s">
         <v>16</v>
@@ -9062,13 +9062,13 @@
         <v>12</v>
       </c>
       <c r="C228">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D228">
         <v>405</v>
       </c>
       <c r="E228">
-        <v>3528642</v>
+        <v>3530483</v>
       </c>
       <c r="F228" t="s">
         <v>16</v>
@@ -9097,13 +9097,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>5475</v>
+        <v>5477</v>
       </c>
       <c r="D229">
         <v>1073</v>
       </c>
       <c r="E229">
-        <v>18463951</v>
+        <v>18482119</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -9132,13 +9132,13 @@
         <v>12</v>
       </c>
       <c r="C230">
-        <v>14250</v>
+        <v>14259</v>
       </c>
       <c r="D230">
         <v>3031</v>
       </c>
       <c r="E230">
-        <v>59740977</v>
+        <v>59766527</v>
       </c>
       <c r="F230" t="s">
         <v>16</v>
@@ -9167,13 +9167,13 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>5914</v>
+        <v>5915</v>
       </c>
       <c r="D231">
         <v>1184</v>
       </c>
       <c r="E231">
-        <v>33763159</v>
+        <v>33773159</v>
       </c>
       <c r="F231" t="s">
         <v>16</v>
@@ -9237,13 +9237,13 @@
         <v>12</v>
       </c>
       <c r="C233">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D233">
         <v>175</v>
       </c>
       <c r="E233">
-        <v>16284720</v>
+        <v>16306150</v>
       </c>
       <c r="F233" t="s">
         <v>16</v>
@@ -9272,13 +9272,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D234">
         <v>63</v>
       </c>
       <c r="E234">
-        <v>8654576</v>
+        <v>8664576</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9342,13 +9342,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>4521</v>
+        <v>4523</v>
       </c>
       <c r="D236">
         <v>1007</v>
       </c>
       <c r="E236">
-        <v>9723337</v>
+        <v>9727713</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9377,13 +9377,13 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="D237">
         <v>926</v>
       </c>
       <c r="E237">
-        <v>12819409</v>
+        <v>12820584</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
@@ -9412,13 +9412,13 @@
         <v>12</v>
       </c>
       <c r="C238">
-        <v>12998</v>
+        <v>13011</v>
       </c>
       <c r="D238">
         <v>2893</v>
       </c>
       <c r="E238">
-        <v>49523858</v>
+        <v>49602912</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
@@ -9447,13 +9447,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="D239">
         <v>1217</v>
       </c>
       <c r="E239">
-        <v>32281983</v>
+        <v>32298823</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9482,13 +9482,13 @@
         <v>12</v>
       </c>
       <c r="C240">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D240">
         <v>352</v>
       </c>
       <c r="E240">
-        <v>13423979</v>
+        <v>13432479</v>
       </c>
       <c r="F240" t="s">
         <v>16</v>
@@ -9622,13 +9622,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D244">
         <v>510</v>
       </c>
       <c r="E244">
-        <v>8717469</v>
+        <v>8718969</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9657,13 +9657,13 @@
         <v>12</v>
       </c>
       <c r="C245">
-        <v>7673</v>
+        <v>7678</v>
       </c>
       <c r="D245">
         <v>1678</v>
       </c>
       <c r="E245">
-        <v>31046779</v>
+        <v>31072812</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -9692,13 +9692,13 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="D246">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E246">
-        <v>15633902</v>
+        <v>15652341</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -9727,13 +9727,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D247">
         <v>172</v>
       </c>
       <c r="E247">
-        <v>4856601</v>
+        <v>4866601</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9762,13 +9762,13 @@
         <v>12</v>
       </c>
       <c r="C248">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D248">
         <v>89</v>
       </c>
       <c r="E248">
-        <v>6400337</v>
+        <v>6425958</v>
       </c>
       <c r="F248" t="s">
         <v>16</v>
@@ -9902,13 +9902,13 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="D252">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E252">
-        <v>10083619</v>
+        <v>10085747</v>
       </c>
       <c r="F252" t="s">
         <v>17</v>
@@ -9937,13 +9937,13 @@
         <v>12</v>
       </c>
       <c r="C253">
-        <v>11065</v>
+        <v>11070</v>
       </c>
       <c r="D253">
         <v>1886</v>
       </c>
       <c r="E253">
-        <v>46716969</v>
+        <v>46752247</v>
       </c>
       <c r="F253" t="s">
         <v>17</v>
@@ -9972,13 +9972,13 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>6530</v>
+        <v>6540</v>
       </c>
       <c r="D254">
         <v>1049</v>
       </c>
       <c r="E254">
-        <v>40032021</v>
+        <v>40118609</v>
       </c>
       <c r="F254" t="s">
         <v>17</v>
@@ -10007,13 +10007,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D255">
         <v>377</v>
       </c>
       <c r="E255">
-        <v>19205390</v>
+        <v>19215390</v>
       </c>
       <c r="F255" t="s">
         <v>17</v>
@@ -10042,13 +10042,13 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D256">
         <v>180</v>
       </c>
       <c r="E256">
-        <v>20205883</v>
+        <v>20225573</v>
       </c>
       <c r="F256" t="s">
         <v>17</v>
@@ -10077,13 +10077,13 @@
         <v>12</v>
       </c>
       <c r="C257">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D257">
         <v>49</v>
       </c>
       <c r="E257">
-        <v>10182897</v>
+        <v>10262025</v>
       </c>
       <c r="F257" t="s">
         <v>17</v>
@@ -10112,13 +10112,13 @@
         <v>12</v>
       </c>
       <c r="C258">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D258">
         <v>10</v>
       </c>
       <c r="E258">
-        <v>3952501</v>
+        <v>4133086</v>
       </c>
       <c r="F258" t="s">
         <v>17</v>
@@ -10147,13 +10147,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="D259">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E259">
-        <v>4462043</v>
+        <v>4463543</v>
       </c>
       <c r="F259" t="s">
         <v>17</v>
@@ -10182,13 +10182,13 @@
         <v>12</v>
       </c>
       <c r="C260">
-        <v>7114</v>
+        <v>7119</v>
       </c>
       <c r="D260">
         <v>1048</v>
       </c>
       <c r="E260">
-        <v>30545327</v>
+        <v>30563579</v>
       </c>
       <c r="F260" t="s">
         <v>17</v>
@@ -10217,13 +10217,13 @@
         <v>12</v>
       </c>
       <c r="C261">
-        <v>11206</v>
+        <v>11214</v>
       </c>
       <c r="D261">
         <v>1961</v>
       </c>
       <c r="E261">
-        <v>47972020</v>
+        <v>48029138</v>
       </c>
       <c r="F261" t="s">
         <v>17</v>
@@ -10252,13 +10252,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>3789</v>
+        <v>3793</v>
       </c>
       <c r="D262">
         <v>721</v>
       </c>
       <c r="E262">
-        <v>22533329</v>
+        <v>22560252</v>
       </c>
       <c r="F262" t="s">
         <v>17</v>
@@ -10287,13 +10287,13 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D263">
         <v>224</v>
       </c>
       <c r="E263">
-        <v>10437776</v>
+        <v>10465577</v>
       </c>
       <c r="F263" t="s">
         <v>17</v>
@@ -10322,13 +10322,13 @@
         <v>12</v>
       </c>
       <c r="C264">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D264">
         <v>101</v>
       </c>
       <c r="E264">
-        <v>7828490</v>
+        <v>7879284</v>
       </c>
       <c r="F264" t="s">
         <v>17</v>
@@ -10392,13 +10392,13 @@
         <v>12</v>
       </c>
       <c r="C266">
-        <v>3852</v>
+        <v>3856</v>
       </c>
       <c r="D266">
         <v>713</v>
       </c>
       <c r="E266">
-        <v>7202381</v>
+        <v>7212936</v>
       </c>
       <c r="F266" t="s">
         <v>17</v>
@@ -10427,13 +10427,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="D267">
         <v>365</v>
       </c>
       <c r="E267">
-        <v>4826343</v>
+        <v>4878376</v>
       </c>
       <c r="F267" t="s">
         <v>18</v>
@@ -10462,13 +10462,13 @@
         <v>12</v>
       </c>
       <c r="C268">
-        <v>5435</v>
+        <v>5438</v>
       </c>
       <c r="D268">
         <v>1186</v>
       </c>
       <c r="E268">
-        <v>19472923</v>
+        <v>19494249</v>
       </c>
       <c r="F268" t="s">
         <v>18</v>
@@ -10637,13 +10637,13 @@
         <v>12</v>
       </c>
       <c r="C273">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="D273">
         <v>465</v>
       </c>
       <c r="E273">
-        <v>4236706</v>
+        <v>4239157</v>
       </c>
       <c r="F273" t="s">
         <v>18</v>
@@ -10672,13 +10672,13 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>2750</v>
+        <v>2757</v>
       </c>
       <c r="D274">
         <v>652</v>
       </c>
       <c r="E274">
-        <v>10036786</v>
+        <v>10088305</v>
       </c>
       <c r="F274" t="s">
         <v>18</v>
@@ -10707,13 +10707,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>8354</v>
+        <v>8360</v>
       </c>
       <c r="D275">
         <v>1815</v>
       </c>
       <c r="E275">
-        <v>40964486</v>
+        <v>41011119</v>
       </c>
       <c r="F275" t="s">
         <v>18</v>
@@ -10742,13 +10742,13 @@
         <v>12</v>
       </c>
       <c r="C276">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="D276">
         <v>659</v>
       </c>
       <c r="E276">
-        <v>20122558</v>
+        <v>20162558</v>
       </c>
       <c r="F276" t="s">
         <v>18</v>
@@ -10777,13 +10777,13 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D277">
         <v>204</v>
       </c>
       <c r="E277">
-        <v>7339616</v>
+        <v>7358668</v>
       </c>
       <c r="F277" t="s">
         <v>18</v>
@@ -10882,13 +10882,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>4087</v>
+        <v>4101</v>
       </c>
       <c r="D280">
         <v>1030</v>
       </c>
       <c r="E280">
-        <v>15167542</v>
+        <v>15216257</v>
       </c>
       <c r="F280" t="s">
         <v>18</v>
@@ -10917,13 +10917,13 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>10621</v>
+        <v>10639</v>
       </c>
       <c r="D281">
         <v>2116</v>
       </c>
       <c r="E281">
-        <v>34337514</v>
+        <v>34429131</v>
       </c>
       <c r="F281" t="s">
         <v>18</v>
@@ -10952,13 +10952,13 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>31367</v>
+        <v>31410</v>
       </c>
       <c r="D282">
         <v>6746</v>
       </c>
       <c r="E282">
-        <v>121181089</v>
+        <v>121473560</v>
       </c>
       <c r="F282" t="s">
         <v>18</v>
@@ -10987,13 +10987,13 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>13926</v>
+        <v>13938</v>
       </c>
       <c r="D283">
         <v>2801</v>
       </c>
       <c r="E283">
-        <v>78838656</v>
+        <v>79010841</v>
       </c>
       <c r="F283" t="s">
         <v>18</v>
@@ -11022,13 +11022,13 @@
         <v>12</v>
       </c>
       <c r="C284">
-        <v>6079</v>
+        <v>6087</v>
       </c>
       <c r="D284">
         <v>1063</v>
       </c>
       <c r="E284">
-        <v>49134403</v>
+        <v>49209872</v>
       </c>
       <c r="F284" t="s">
         <v>18</v>
@@ -11057,13 +11057,13 @@
         <v>12</v>
       </c>
       <c r="C285">
-        <v>2994</v>
+        <v>3003</v>
       </c>
       <c r="D285">
         <v>503</v>
       </c>
       <c r="E285">
-        <v>46182119</v>
+        <v>46330201</v>
       </c>
       <c r="F285" t="s">
         <v>18</v>
@@ -11092,13 +11092,13 @@
         <v>12</v>
       </c>
       <c r="C286">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D286">
         <v>181</v>
       </c>
       <c r="E286">
-        <v>38441620</v>
+        <v>38568325</v>
       </c>
       <c r="F286" t="s">
         <v>18</v>
@@ -11197,13 +11197,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>9357</v>
+        <v>9364</v>
       </c>
       <c r="D289">
         <v>1955</v>
       </c>
       <c r="E289">
-        <v>18766865</v>
+        <v>18792728</v>
       </c>
       <c r="F289" t="s">
         <v>18</v>
@@ -11267,13 +11267,13 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="D291">
         <v>708</v>
       </c>
       <c r="E291">
-        <v>11558604</v>
+        <v>11576568</v>
       </c>
       <c r="F291" t="s">
         <v>18</v>
@@ -11302,13 +11302,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D292">
         <v>260</v>
       </c>
       <c r="E292">
-        <v>5980293</v>
+        <v>5988293</v>
       </c>
       <c r="F292" t="s">
         <v>18</v>
@@ -11442,13 +11442,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D296">
         <v>296</v>
       </c>
       <c r="E296">
-        <v>2546174</v>
+        <v>2546801</v>
       </c>
       <c r="F296" t="s">
         <v>18</v>
@@ -11477,13 +11477,13 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>7025</v>
+        <v>7029</v>
       </c>
       <c r="D297">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E297">
-        <v>25689338</v>
+        <v>25709807</v>
       </c>
       <c r="F297" t="s">
         <v>18</v>
@@ -11512,13 +11512,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>19747</v>
+        <v>19769</v>
       </c>
       <c r="D298">
         <v>4156</v>
       </c>
       <c r="E298">
-        <v>83018529</v>
+        <v>83169152</v>
       </c>
       <c r="F298" t="s">
         <v>18</v>
@@ -11547,13 +11547,13 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>9330</v>
+        <v>9339</v>
       </c>
       <c r="D299">
         <v>1845</v>
       </c>
       <c r="E299">
-        <v>53506663</v>
+        <v>53574281</v>
       </c>
       <c r="F299" t="s">
         <v>18</v>
@@ -11582,13 +11582,13 @@
         <v>12</v>
       </c>
       <c r="C300">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="D300">
         <v>614</v>
       </c>
       <c r="E300">
-        <v>28126177</v>
+        <v>28136177</v>
       </c>
       <c r="F300" t="s">
         <v>18</v>
@@ -11617,13 +11617,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="D301">
         <v>315</v>
       </c>
       <c r="E301">
-        <v>29822809</v>
+        <v>29852867</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11652,13 +11652,13 @@
         <v>12</v>
       </c>
       <c r="C302">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D302">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E302">
-        <v>23680182</v>
+        <v>23681682</v>
       </c>
       <c r="F302" t="s">
         <v>18</v>
@@ -11757,13 +11757,13 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>4784</v>
+        <v>4789</v>
       </c>
       <c r="D305">
         <v>1086</v>
       </c>
       <c r="E305">
-        <v>9488560</v>
+        <v>9504060</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -11792,13 +11792,13 @@
         <v>12</v>
       </c>
       <c r="C306">
-        <v>5905</v>
+        <v>5913</v>
       </c>
       <c r="D306">
         <v>1396</v>
       </c>
       <c r="E306">
-        <v>24667705</v>
+        <v>24728485</v>
       </c>
       <c r="F306" t="s">
         <v>18</v>
@@ -11827,13 +11827,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>18139</v>
+        <v>18164</v>
       </c>
       <c r="D307">
         <v>4212</v>
       </c>
       <c r="E307">
-        <v>97865923</v>
+        <v>98097156</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11862,13 +11862,13 @@
         <v>12</v>
       </c>
       <c r="C308">
-        <v>6987</v>
+        <v>6997</v>
       </c>
       <c r="D308">
         <v>1607</v>
       </c>
       <c r="E308">
-        <v>50953538</v>
+        <v>51047152</v>
       </c>
       <c r="F308" t="s">
         <v>18</v>
@@ -11932,13 +11932,13 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D310">
         <v>204</v>
       </c>
       <c r="E310">
-        <v>21162449</v>
+        <v>21181174</v>
       </c>
       <c r="F310" t="s">
         <v>18</v>
@@ -12037,13 +12037,13 @@
         <v>12</v>
       </c>
       <c r="C313">
-        <v>12338</v>
+        <v>12358</v>
       </c>
       <c r="D313">
         <v>3353</v>
       </c>
       <c r="E313">
-        <v>47642093</v>
+        <v>47707433</v>
       </c>
       <c r="F313" t="s">
         <v>18</v>
@@ -12072,13 +12072,13 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>4181</v>
+        <v>4184</v>
       </c>
       <c r="D314">
         <v>909</v>
       </c>
       <c r="E314">
-        <v>12601698</v>
+        <v>12630158</v>
       </c>
       <c r="F314" t="s">
         <v>18</v>
@@ -12107,13 +12107,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>13161</v>
+        <v>13167</v>
       </c>
       <c r="D315">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="E315">
-        <v>51139319</v>
+        <v>51174307</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12142,13 +12142,13 @@
         <v>12</v>
       </c>
       <c r="C316">
-        <v>4887</v>
+        <v>4890</v>
       </c>
       <c r="D316">
         <v>1066</v>
       </c>
       <c r="E316">
-        <v>24871901</v>
+        <v>24893401</v>
       </c>
       <c r="F316" t="s">
         <v>18</v>
@@ -12177,13 +12177,13 @@
         <v>12</v>
       </c>
       <c r="C317">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="D317">
         <v>392</v>
       </c>
       <c r="E317">
-        <v>14221356</v>
+        <v>14241356</v>
       </c>
       <c r="F317" t="s">
         <v>18</v>
@@ -12212,13 +12212,13 @@
         <v>12</v>
       </c>
       <c r="C318">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D318">
         <v>185</v>
       </c>
       <c r="E318">
-        <v>14691847</v>
+        <v>14693347</v>
       </c>
       <c r="F318" t="s">
         <v>18</v>
@@ -12317,13 +12317,13 @@
         <v>12</v>
       </c>
       <c r="C321">
-        <v>4741</v>
+        <v>4743</v>
       </c>
       <c r="D321">
         <v>1005</v>
       </c>
       <c r="E321">
-        <v>8886504</v>
+        <v>8891896</v>
       </c>
       <c r="F321" t="s">
         <v>18</v>
@@ -12387,13 +12387,13 @@
         <v>12</v>
       </c>
       <c r="C323">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D323">
         <v>709</v>
       </c>
       <c r="E323">
-        <v>12629531</v>
+        <v>12633631</v>
       </c>
       <c r="F323" t="s">
         <v>18</v>
@@ -12492,13 +12492,13 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D326">
         <v>28</v>
       </c>
       <c r="E326">
-        <v>1863088</v>
+        <v>1873088</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
@@ -12527,13 +12527,13 @@
         <v>12</v>
       </c>
       <c r="C327">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D327">
         <v>10</v>
       </c>
       <c r="E327">
-        <v>1907660</v>
+        <v>1909160</v>
       </c>
       <c r="F327" t="s">
         <v>18</v>
@@ -12562,13 +12562,13 @@
         <v>12</v>
       </c>
       <c r="C328">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D328">
         <v>298</v>
       </c>
       <c r="E328">
-        <v>2386014</v>
+        <v>2396014</v>
       </c>
       <c r="F328" t="s">
         <v>18</v>
@@ -12632,13 +12632,13 @@
         <v>12</v>
       </c>
       <c r="C330">
-        <v>19746</v>
+        <v>19759</v>
       </c>
       <c r="D330">
         <v>4301</v>
       </c>
       <c r="E330">
-        <v>71409879</v>
+        <v>71484352</v>
       </c>
       <c r="F330" t="s">
         <v>18</v>
@@ -12667,13 +12667,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>9431</v>
+        <v>9435</v>
       </c>
       <c r="D331">
         <v>1976</v>
       </c>
       <c r="E331">
-        <v>50510843</v>
+        <v>50568197</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12702,13 +12702,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="D332">
         <v>727</v>
       </c>
       <c r="E332">
-        <v>26670737</v>
+        <v>26708913</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12737,13 +12737,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D333">
         <v>258</v>
       </c>
       <c r="E333">
-        <v>21583125</v>
+        <v>21596404</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12912,13 +12912,13 @@
         <v>12</v>
       </c>
       <c r="C338">
-        <v>3738</v>
+        <v>3741</v>
       </c>
       <c r="D338">
         <v>757</v>
       </c>
       <c r="E338">
-        <v>11732134</v>
+        <v>11740689</v>
       </c>
       <c r="F338" t="s">
         <v>18</v>
@@ -12947,13 +12947,13 @@
         <v>12</v>
       </c>
       <c r="C339">
-        <v>9600</v>
+        <v>9602</v>
       </c>
       <c r="D339">
         <v>1996</v>
       </c>
       <c r="E339">
-        <v>39646178</v>
+        <v>39657366</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
@@ -13017,13 +13017,13 @@
         <v>12</v>
       </c>
       <c r="C341">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D341">
         <v>238</v>
       </c>
       <c r="E341">
-        <v>8203584</v>
+        <v>8217630</v>
       </c>
       <c r="F341" t="s">
         <v>18</v>
@@ -13192,13 +13192,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="D346">
         <v>781</v>
       </c>
       <c r="E346">
-        <v>7693814</v>
+        <v>7703174</v>
       </c>
       <c r="F346" t="s">
         <v>19</v>
@@ -13227,13 +13227,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>11931</v>
+        <v>11937</v>
       </c>
       <c r="D347">
         <v>2775</v>
       </c>
       <c r="E347">
-        <v>29023648</v>
+        <v>29037906</v>
       </c>
       <c r="F347" t="s">
         <v>19</v>
@@ -13262,13 +13262,13 @@
         <v>12</v>
       </c>
       <c r="C348">
-        <v>4095</v>
+        <v>4100</v>
       </c>
       <c r="D348">
         <v>1032</v>
       </c>
       <c r="E348">
-        <v>13851290</v>
+        <v>13885109</v>
       </c>
       <c r="F348" t="s">
         <v>19</v>
@@ -13297,13 +13297,13 @@
         <v>12</v>
       </c>
       <c r="C349">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D349">
         <v>386</v>
       </c>
       <c r="E349">
-        <v>7515794</v>
+        <v>7524294</v>
       </c>
       <c r="F349" t="s">
         <v>19</v>
@@ -13332,13 +13332,13 @@
         <v>12</v>
       </c>
       <c r="C350">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D350">
         <v>122</v>
       </c>
       <c r="E350">
-        <v>4864224</v>
+        <v>4878730</v>
       </c>
       <c r="F350" t="s">
         <v>19</v>
@@ -13472,13 +13472,13 @@
         <v>12</v>
       </c>
       <c r="C354">
-        <v>13323</v>
+        <v>13349</v>
       </c>
       <c r="D354">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="E354">
-        <v>21414016</v>
+        <v>21456548</v>
       </c>
       <c r="F354" t="s">
         <v>19</v>
@@ -13507,13 +13507,13 @@
         <v>12</v>
       </c>
       <c r="C355">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="D355">
         <v>372</v>
       </c>
       <c r="E355">
-        <v>5376629</v>
+        <v>5384415</v>
       </c>
       <c r="F355" t="s">
         <v>20</v>
@@ -13542,13 +13542,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>5537</v>
+        <v>5540</v>
       </c>
       <c r="D356">
         <v>950</v>
       </c>
       <c r="E356">
-        <v>13561631</v>
+        <v>13572022</v>
       </c>
       <c r="F356" t="s">
         <v>20</v>
@@ -13577,13 +13577,13 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D357">
         <v>410</v>
       </c>
       <c r="E357">
-        <v>6164048</v>
+        <v>6174048</v>
       </c>
       <c r="F357" t="s">
         <v>20</v>
@@ -13612,13 +13612,13 @@
         <v>12</v>
       </c>
       <c r="C358">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D358">
         <v>145</v>
       </c>
       <c r="E358">
-        <v>2603623</v>
+        <v>2615325</v>
       </c>
       <c r="F358" t="s">
         <v>20</v>
@@ -13717,13 +13717,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D361">
         <v>554</v>
       </c>
       <c r="E361">
-        <v>7182690</v>
+        <v>7184190</v>
       </c>
       <c r="F361" t="s">
         <v>20</v>
@@ -13787,13 +13787,13 @@
         <v>12</v>
       </c>
       <c r="C363">
-        <v>8936</v>
+        <v>8940</v>
       </c>
       <c r="D363">
         <v>1956</v>
       </c>
       <c r="E363">
-        <v>36507439</v>
+        <v>36521278</v>
       </c>
       <c r="F363" t="s">
         <v>21</v>
@@ -13822,13 +13822,13 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="D364">
         <v>816</v>
       </c>
       <c r="E364">
-        <v>20470778</v>
+        <v>20499023</v>
       </c>
       <c r="F364" t="s">
         <v>21</v>
@@ -13892,13 +13892,13 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D366">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E366">
-        <v>6672227</v>
+        <v>6673727</v>
       </c>
       <c r="F366" t="s">
         <v>21</v>
@@ -13997,13 +13997,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="D369">
         <v>825</v>
       </c>
       <c r="E369">
-        <v>9652572</v>
+        <v>9653692</v>
       </c>
       <c r="F369" t="s">
         <v>21</v>
@@ -14032,13 +14032,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>16739</v>
+        <v>16760</v>
       </c>
       <c r="D370">
         <v>3313</v>
       </c>
       <c r="E370">
-        <v>48555583</v>
+        <v>48736716</v>
       </c>
       <c r="F370" t="s">
         <v>21</v>
@@ -14067,13 +14067,13 @@
         <v>12</v>
       </c>
       <c r="C371">
-        <v>49118</v>
+        <v>49176</v>
       </c>
       <c r="D371">
         <v>9842</v>
       </c>
       <c r="E371">
-        <v>190627922</v>
+        <v>191049469</v>
       </c>
       <c r="F371" t="s">
         <v>21</v>
@@ -14102,13 +14102,13 @@
         <v>12</v>
       </c>
       <c r="C372">
-        <v>20683</v>
+        <v>20704</v>
       </c>
       <c r="D372">
         <v>3970</v>
       </c>
       <c r="E372">
-        <v>120095125</v>
+        <v>120284233</v>
       </c>
       <c r="F372" t="s">
         <v>21</v>
@@ -14137,13 +14137,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>7714</v>
+        <v>7726</v>
       </c>
       <c r="D373">
         <v>1479</v>
       </c>
       <c r="E373">
-        <v>59591026</v>
+        <v>59713018</v>
       </c>
       <c r="F373" t="s">
         <v>21</v>
@@ -14172,13 +14172,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="D374">
         <v>657</v>
       </c>
       <c r="E374">
-        <v>51919963</v>
+        <v>51995108</v>
       </c>
       <c r="F374" t="s">
         <v>21</v>
@@ -14207,13 +14207,13 @@
         <v>12</v>
       </c>
       <c r="C375">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="D375">
         <v>271</v>
       </c>
       <c r="E375">
-        <v>41059656</v>
+        <v>41256750</v>
       </c>
       <c r="F375" t="s">
         <v>21</v>
@@ -14452,13 +14452,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>13148</v>
+        <v>13154</v>
       </c>
       <c r="D382">
         <v>2861</v>
       </c>
       <c r="E382">
-        <v>24771971</v>
+        <v>24786774</v>
       </c>
       <c r="F382" t="s">
         <v>21</v>
@@ -14487,13 +14487,13 @@
         <v>12</v>
       </c>
       <c r="C383">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="D383">
         <v>1045</v>
       </c>
       <c r="E383">
-        <v>14375058</v>
+        <v>14381970</v>
       </c>
       <c r="F383" t="s">
         <v>21</v>
@@ -14522,13 +14522,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>15023</v>
+        <v>15034</v>
       </c>
       <c r="D384">
         <v>3282</v>
       </c>
       <c r="E384">
-        <v>54670770</v>
+        <v>54715515</v>
       </c>
       <c r="F384" t="s">
         <v>21</v>
@@ -14557,13 +14557,13 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>6043</v>
+        <v>6045</v>
       </c>
       <c r="D385">
         <v>1313</v>
       </c>
       <c r="E385">
-        <v>32597584</v>
+        <v>32617584</v>
       </c>
       <c r="F385" t="s">
         <v>21</v>
@@ -14592,13 +14592,13 @@
         <v>12</v>
       </c>
       <c r="C386">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="D386">
         <v>419</v>
       </c>
       <c r="E386">
-        <v>13165688</v>
+        <v>13185688</v>
       </c>
       <c r="F386" t="s">
         <v>21</v>
@@ -14662,13 +14662,13 @@
         <v>12</v>
       </c>
       <c r="C388">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D388">
         <v>66</v>
       </c>
       <c r="E388">
-        <v>12738745</v>
+        <v>12840340</v>
       </c>
       <c r="F388" t="s">
         <v>21</v>
@@ -14767,13 +14767,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>4132</v>
+        <v>4135</v>
       </c>
       <c r="D391">
         <v>976</v>
       </c>
       <c r="E391">
-        <v>8019563</v>
+        <v>8027175</v>
       </c>
       <c r="F391" t="s">
         <v>21</v>
@@ -14802,13 +14802,13 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>8454</v>
+        <v>8460</v>
       </c>
       <c r="D392">
         <v>1725</v>
       </c>
       <c r="E392">
-        <v>23666941</v>
+        <v>23691255</v>
       </c>
       <c r="F392" t="s">
         <v>21</v>
@@ -14837,13 +14837,13 @@
         <v>12</v>
       </c>
       <c r="C393">
-        <v>25983</v>
+        <v>25991</v>
       </c>
       <c r="D393">
         <v>5474</v>
       </c>
       <c r="E393">
-        <v>98915993</v>
+        <v>98934564</v>
       </c>
       <c r="F393" t="s">
         <v>21</v>
@@ -14872,13 +14872,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>9766</v>
+        <v>9767</v>
       </c>
       <c r="D394">
         <v>2043</v>
       </c>
       <c r="E394">
-        <v>53707957</v>
+        <v>53717957</v>
       </c>
       <c r="F394" t="s">
         <v>21</v>
@@ -14907,13 +14907,13 @@
         <v>12</v>
       </c>
       <c r="C395">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="D395">
         <v>751</v>
       </c>
       <c r="E395">
-        <v>27358894</v>
+        <v>27440826</v>
       </c>
       <c r="F395" t="s">
         <v>21</v>
@@ -14942,13 +14942,13 @@
         <v>12</v>
       </c>
       <c r="C396">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="D396">
         <v>326</v>
       </c>
       <c r="E396">
-        <v>25429224</v>
+        <v>25455057</v>
       </c>
       <c r="F396" t="s">
         <v>21</v>
@@ -15047,13 +15047,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>8217</v>
+        <v>8223</v>
       </c>
       <c r="D399">
         <v>1760</v>
       </c>
       <c r="E399">
-        <v>15212943</v>
+        <v>15220644</v>
       </c>
       <c r="F399" t="s">
         <v>21</v>
@@ -15082,13 +15082,13 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="D400">
         <v>729</v>
       </c>
       <c r="E400">
-        <v>11339432</v>
+        <v>11362864</v>
       </c>
       <c r="F400" t="s">
         <v>21</v>
@@ -15117,13 +15117,13 @@
         <v>12</v>
       </c>
       <c r="C401">
-        <v>10242</v>
+        <v>10245</v>
       </c>
       <c r="D401">
         <v>2152</v>
       </c>
       <c r="E401">
-        <v>40186253</v>
+        <v>40193685</v>
       </c>
       <c r="F401" t="s">
         <v>21</v>
@@ -15152,13 +15152,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>4337</v>
+        <v>4340</v>
       </c>
       <c r="D402">
         <v>897</v>
       </c>
       <c r="E402">
-        <v>23150788</v>
+        <v>23172438</v>
       </c>
       <c r="F402" t="s">
         <v>21</v>
@@ -15187,13 +15187,13 @@
         <v>12</v>
       </c>
       <c r="C403">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D403">
         <v>297</v>
       </c>
       <c r="E403">
-        <v>12051651</v>
+        <v>12129802</v>
       </c>
       <c r="F403" t="s">
         <v>21</v>
@@ -15222,13 +15222,13 @@
         <v>12</v>
       </c>
       <c r="C404">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D404">
         <v>126</v>
       </c>
       <c r="E404">
-        <v>9733119</v>
+        <v>9736199</v>
       </c>
       <c r="F404" t="s">
         <v>21</v>
@@ -15327,13 +15327,13 @@
         <v>12</v>
       </c>
       <c r="C407">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="D407">
         <v>780</v>
       </c>
       <c r="E407">
-        <v>6733509</v>
+        <v>6737757</v>
       </c>
       <c r="F407" t="s">
         <v>21</v>
@@ -15362,13 +15362,13 @@
         <v>12</v>
       </c>
       <c r="C408">
-        <v>8825</v>
+        <v>8831</v>
       </c>
       <c r="D408">
         <v>1705</v>
       </c>
       <c r="E408">
-        <v>24610548</v>
+        <v>24623152</v>
       </c>
       <c r="F408" t="s">
         <v>22</v>
@@ -15397,13 +15397,13 @@
         <v>12</v>
       </c>
       <c r="C409">
-        <v>23664</v>
+        <v>23680</v>
       </c>
       <c r="D409">
-        <v>5173</v>
+        <v>5175</v>
       </c>
       <c r="E409">
-        <v>80852192</v>
+        <v>80927574</v>
       </c>
       <c r="F409" t="s">
         <v>22</v>
@@ -15432,13 +15432,13 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>10124</v>
+        <v>10132</v>
       </c>
       <c r="D410">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="E410">
-        <v>54080864</v>
+        <v>54137977</v>
       </c>
       <c r="F410" t="s">
         <v>22</v>
@@ -15467,13 +15467,13 @@
         <v>12</v>
       </c>
       <c r="C411">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="D411">
         <v>792</v>
       </c>
       <c r="E411">
-        <v>28420111</v>
+        <v>28461725</v>
       </c>
       <c r="F411" t="s">
         <v>22</v>
@@ -15712,13 +15712,13 @@
         <v>12</v>
       </c>
       <c r="C418">
-        <v>7309</v>
+        <v>7310</v>
       </c>
       <c r="D418">
         <v>1561</v>
       </c>
       <c r="E418">
-        <v>15008887</v>
+        <v>15010387</v>
       </c>
       <c r="F418" t="s">
         <v>22</v>
@@ -15747,13 +15747,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>17925</v>
+        <v>17953</v>
       </c>
       <c r="D419">
         <v>3122</v>
       </c>
       <c r="E419">
-        <v>56040049</v>
+        <v>56216007</v>
       </c>
       <c r="F419" t="s">
         <v>22</v>
@@ -15782,13 +15782,13 @@
         <v>12</v>
       </c>
       <c r="C420">
-        <v>41885</v>
+        <v>41919</v>
       </c>
       <c r="D420">
-        <v>7667</v>
+        <v>7668</v>
       </c>
       <c r="E420">
-        <v>163683567</v>
+        <v>163886047</v>
       </c>
       <c r="F420" t="s">
         <v>22</v>
@@ -15817,13 +15817,13 @@
         <v>12</v>
       </c>
       <c r="C421">
-        <v>21356</v>
+        <v>21388</v>
       </c>
       <c r="D421">
         <v>3763</v>
       </c>
       <c r="E421">
-        <v>132175196</v>
+        <v>132478173</v>
       </c>
       <c r="F421" t="s">
         <v>22</v>
@@ -15852,13 +15852,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>8685</v>
+        <v>8701</v>
       </c>
       <c r="D422">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="E422">
-        <v>79901869</v>
+        <v>80046822</v>
       </c>
       <c r="F422" t="s">
         <v>22</v>
@@ -15887,13 +15887,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>3985</v>
+        <v>3991</v>
       </c>
       <c r="D423">
         <v>698</v>
       </c>
       <c r="E423">
-        <v>70086617</v>
+        <v>70168349</v>
       </c>
       <c r="F423" t="s">
         <v>22</v>
@@ -15922,13 +15922,13 @@
         <v>12</v>
       </c>
       <c r="C424">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="D424">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E424">
-        <v>52199226</v>
+        <v>52563639</v>
       </c>
       <c r="F424" t="s">
         <v>22</v>
@@ -16202,13 +16202,13 @@
         <v>12</v>
       </c>
       <c r="C432">
-        <v>13715</v>
+        <v>13726</v>
       </c>
       <c r="D432">
         <v>2588</v>
       </c>
       <c r="E432">
-        <v>26813647</v>
+        <v>26843940</v>
       </c>
       <c r="F432" t="s">
         <v>22</v>
@@ -16237,13 +16237,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>55273</v>
+        <v>55319</v>
       </c>
       <c r="D433">
-        <v>9555</v>
+        <v>9556</v>
       </c>
       <c r="E433">
-        <v>194029119</v>
+        <v>194244633</v>
       </c>
       <c r="F433" t="s">
         <v>22</v>
@@ -16272,13 +16272,13 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <v>146740</v>
+        <v>146892</v>
       </c>
       <c r="D434">
         <v>25339</v>
       </c>
       <c r="E434">
-        <v>615102064</v>
+        <v>616124443</v>
       </c>
       <c r="F434" t="s">
         <v>22</v>
@@ -16307,13 +16307,13 @@
         <v>12</v>
       </c>
       <c r="C435">
-        <v>82434</v>
+        <v>82508</v>
       </c>
       <c r="D435">
         <v>12780</v>
       </c>
       <c r="E435">
-        <v>539446358</v>
+        <v>540419396</v>
       </c>
       <c r="F435" t="s">
         <v>22</v>
@@ -16342,13 +16342,13 @@
         <v>12</v>
       </c>
       <c r="C436">
-        <v>42239</v>
+        <v>42285</v>
       </c>
       <c r="D436">
         <v>6134</v>
       </c>
       <c r="E436">
-        <v>419995209</v>
+        <v>420665069</v>
       </c>
       <c r="F436" t="s">
         <v>22</v>
@@ -16377,13 +16377,13 @@
         <v>12</v>
       </c>
       <c r="C437">
-        <v>24781</v>
+        <v>24808</v>
       </c>
       <c r="D437">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="E437">
-        <v>446637269</v>
+        <v>447362449</v>
       </c>
       <c r="F437" t="s">
         <v>22</v>
@@ -16412,13 +16412,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>7529</v>
+        <v>7540</v>
       </c>
       <c r="D438">
         <v>1362</v>
       </c>
       <c r="E438">
-        <v>331574271</v>
+        <v>332096989</v>
       </c>
       <c r="F438" t="s">
         <v>22</v>
@@ -16447,13 +16447,13 @@
         <v>12</v>
       </c>
       <c r="C439">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D439">
         <v>222</v>
       </c>
       <c r="E439">
-        <v>91579026</v>
+        <v>92195192</v>
       </c>
       <c r="F439" t="s">
         <v>22</v>
@@ -16482,13 +16482,13 @@
         <v>12</v>
       </c>
       <c r="C440">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D440">
         <v>90</v>
       </c>
       <c r="E440">
-        <v>48526987</v>
+        <v>49410419</v>
       </c>
       <c r="F440" t="s">
         <v>22</v>
@@ -16517,13 +16517,13 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D441">
         <v>19</v>
       </c>
       <c r="E441">
-        <v>10973409</v>
+        <v>11173409</v>
       </c>
       <c r="F441" t="s">
         <v>22</v>
@@ -16552,13 +16552,13 @@
         <v>12</v>
       </c>
       <c r="C442">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D442">
         <v>54</v>
       </c>
       <c r="E442">
-        <v>28812234</v>
+        <v>29012234</v>
       </c>
       <c r="F442" t="s">
         <v>22</v>
@@ -16692,13 +16692,13 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <v>48635</v>
+        <v>48679</v>
       </c>
       <c r="D446">
         <v>8681</v>
       </c>
       <c r="E446">
-        <v>107002579</v>
+        <v>107147696</v>
       </c>
       <c r="F446" t="s">
         <v>22</v>
@@ -16727,13 +16727,13 @@
         <v>12</v>
       </c>
       <c r="C447">
-        <v>10838</v>
+        <v>10848</v>
       </c>
       <c r="D447">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E447">
-        <v>31736476</v>
+        <v>31778453</v>
       </c>
       <c r="F447" t="s">
         <v>22</v>
@@ -16762,13 +16762,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>28878</v>
+        <v>28906</v>
       </c>
       <c r="D448">
         <v>6201</v>
       </c>
       <c r="E448">
-        <v>103052153</v>
+        <v>103233588</v>
       </c>
       <c r="F448" t="s">
         <v>22</v>
@@ -16797,13 +16797,13 @@
         <v>12</v>
       </c>
       <c r="C449">
-        <v>11978</v>
+        <v>11994</v>
       </c>
       <c r="D449">
         <v>2656</v>
       </c>
       <c r="E449">
-        <v>65726279</v>
+        <v>65877679</v>
       </c>
       <c r="F449" t="s">
         <v>22</v>
@@ -16832,13 +16832,13 @@
         <v>12</v>
       </c>
       <c r="C450">
-        <v>4711</v>
+        <v>4715</v>
       </c>
       <c r="D450">
         <v>946</v>
       </c>
       <c r="E450">
-        <v>35655316</v>
+        <v>35700865</v>
       </c>
       <c r="F450" t="s">
         <v>22</v>
@@ -16867,13 +16867,13 @@
         <v>12</v>
       </c>
       <c r="C451">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="D451">
         <v>381</v>
       </c>
       <c r="E451">
-        <v>31752219</v>
+        <v>31865563</v>
       </c>
       <c r="F451" t="s">
         <v>22</v>
@@ -16902,13 +16902,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D452">
         <v>138</v>
       </c>
       <c r="E452">
-        <v>25437045</v>
+        <v>25483713</v>
       </c>
       <c r="F452" t="s">
         <v>22</v>
@@ -17007,13 +17007,13 @@
         <v>12</v>
       </c>
       <c r="C455">
-        <v>10466</v>
+        <v>10476</v>
       </c>
       <c r="D455">
         <v>1944</v>
       </c>
       <c r="E455">
-        <v>19457998</v>
+        <v>19467818</v>
       </c>
       <c r="F455" t="s">
         <v>22</v>
@@ -17042,13 +17042,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>14166</v>
+        <v>14177</v>
       </c>
       <c r="D456">
         <v>2351</v>
       </c>
       <c r="E456">
-        <v>38005060</v>
+        <v>38062876</v>
       </c>
       <c r="F456" t="s">
         <v>22</v>
@@ -17077,13 +17077,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>45176</v>
+        <v>45224</v>
       </c>
       <c r="D457">
         <v>8555</v>
       </c>
       <c r="E457">
-        <v>149243351</v>
+        <v>149575395</v>
       </c>
       <c r="F457" t="s">
         <v>22</v>
@@ -17112,13 +17112,13 @@
         <v>12</v>
       </c>
       <c r="C458">
-        <v>21931</v>
+        <v>21956</v>
       </c>
       <c r="D458">
         <v>4630</v>
       </c>
       <c r="E458">
-        <v>115111139</v>
+        <v>115315929</v>
       </c>
       <c r="F458" t="s">
         <v>22</v>
@@ -17147,13 +17147,13 @@
         <v>12</v>
       </c>
       <c r="C459">
-        <v>6971</v>
+        <v>6976</v>
       </c>
       <c r="D459">
         <v>1525</v>
       </c>
       <c r="E459">
-        <v>52730487</v>
+        <v>52808876</v>
       </c>
       <c r="F459" t="s">
         <v>22</v>
@@ -17182,13 +17182,13 @@
         <v>12</v>
       </c>
       <c r="C460">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="D460">
         <v>595</v>
       </c>
       <c r="E460">
-        <v>40367782</v>
+        <v>40466396</v>
       </c>
       <c r="F460" t="s">
         <v>22</v>
@@ -17217,13 +17217,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="D461">
         <v>198</v>
       </c>
       <c r="E461">
-        <v>33967910</v>
+        <v>34282510</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -17392,13 +17392,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>14516</v>
+        <v>14525</v>
       </c>
       <c r="D466">
         <v>2255</v>
       </c>
       <c r="E466">
-        <v>26703816</v>
+        <v>26732082</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17427,13 +17427,13 @@
         <v>12</v>
       </c>
       <c r="C467">
-        <v>12473</v>
+        <v>12483</v>
       </c>
       <c r="D467">
         <v>2224</v>
       </c>
       <c r="E467">
-        <v>37263069</v>
+        <v>37332940</v>
       </c>
       <c r="F467" t="s">
         <v>22</v>
@@ -17462,13 +17462,13 @@
         <v>12</v>
       </c>
       <c r="C468">
-        <v>34420</v>
+        <v>34453</v>
       </c>
       <c r="D468">
-        <v>6628</v>
+        <v>6629</v>
       </c>
       <c r="E468">
-        <v>120426269</v>
+        <v>120610005</v>
       </c>
       <c r="F468" t="s">
         <v>22</v>
@@ -17497,13 +17497,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>15050</v>
+        <v>15074</v>
       </c>
       <c r="D469">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="E469">
-        <v>78893398</v>
+        <v>79110245</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17532,13 +17532,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>5587</v>
+        <v>5593</v>
       </c>
       <c r="D470">
         <v>1074</v>
       </c>
       <c r="E470">
-        <v>46765430</v>
+        <v>46821033</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17567,13 +17567,13 @@
         <v>12</v>
       </c>
       <c r="C471">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="D471">
         <v>432</v>
       </c>
       <c r="E471">
-        <v>35612078</v>
+        <v>35759715</v>
       </c>
       <c r="F471" t="s">
         <v>22</v>
@@ -17602,13 +17602,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D472">
         <v>182</v>
       </c>
       <c r="E472">
-        <v>38885042</v>
+        <v>39104708</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17812,13 +17812,13 @@
         <v>12</v>
       </c>
       <c r="C478">
-        <v>12618</v>
+        <v>12624</v>
       </c>
       <c r="D478">
         <v>2154</v>
       </c>
       <c r="E478">
-        <v>23374712</v>
+        <v>23400103</v>
       </c>
       <c r="F478" t="s">
         <v>22</v>
@@ -17847,13 +17847,13 @@
         <v>12</v>
       </c>
       <c r="C479">
-        <v>9062</v>
+        <v>9067</v>
       </c>
       <c r="D479">
         <v>1663</v>
       </c>
       <c r="E479">
-        <v>23442377</v>
+        <v>23474174</v>
       </c>
       <c r="F479" t="s">
         <v>22</v>
@@ -17882,13 +17882,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>26752</v>
+        <v>26784</v>
       </c>
       <c r="D480">
         <v>5506</v>
       </c>
       <c r="E480">
-        <v>87731458</v>
+        <v>87897808</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17917,13 +17917,13 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>11624</v>
+        <v>11632</v>
       </c>
       <c r="D481">
         <v>2578</v>
       </c>
       <c r="E481">
-        <v>57375037</v>
+        <v>57455024</v>
       </c>
       <c r="F481" t="s">
         <v>22</v>
@@ -17952,13 +17952,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>4138</v>
+        <v>4141</v>
       </c>
       <c r="D482">
         <v>877</v>
       </c>
       <c r="E482">
-        <v>27656903</v>
+        <v>27688750</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -17987,13 +17987,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="D483">
         <v>364</v>
       </c>
       <c r="E483">
-        <v>24046591</v>
+        <v>24051332</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18022,13 +18022,13 @@
         <v>12</v>
       </c>
       <c r="C484">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D484">
         <v>120</v>
       </c>
       <c r="E484">
-        <v>22176165</v>
+        <v>22231842</v>
       </c>
       <c r="F484" t="s">
         <v>22</v>
@@ -18127,13 +18127,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>8859</v>
+        <v>8863</v>
       </c>
       <c r="D487">
         <v>1633</v>
       </c>
       <c r="E487">
-        <v>16049867</v>
+        <v>16068475</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18162,13 +18162,13 @@
         <v>12</v>
       </c>
       <c r="C488">
-        <v>9748</v>
+        <v>9754</v>
       </c>
       <c r="D488">
         <v>2033</v>
       </c>
       <c r="E488">
-        <v>28076029</v>
+        <v>28115648</v>
       </c>
       <c r="F488" t="s">
         <v>22</v>
@@ -18197,13 +18197,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>25920</v>
+        <v>25944</v>
       </c>
       <c r="D489">
         <v>5728</v>
       </c>
       <c r="E489">
-        <v>96828699</v>
+        <v>96984444</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18232,13 +18232,13 @@
         <v>12</v>
       </c>
       <c r="C490">
-        <v>12034</v>
+        <v>12045</v>
       </c>
       <c r="D490">
         <v>2479</v>
       </c>
       <c r="E490">
-        <v>69385527</v>
+        <v>69527494</v>
       </c>
       <c r="F490" t="s">
         <v>22</v>
@@ -18267,13 +18267,13 @@
         <v>12</v>
       </c>
       <c r="C491">
-        <v>4789</v>
+        <v>4794</v>
       </c>
       <c r="D491">
         <v>914</v>
       </c>
       <c r="E491">
-        <v>37595508</v>
+        <v>37647304</v>
       </c>
       <c r="F491" t="s">
         <v>22</v>
@@ -18302,13 +18302,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="D492">
         <v>383</v>
       </c>
       <c r="E492">
-        <v>34080359</v>
+        <v>34090359</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18337,13 +18337,13 @@
         <v>12</v>
       </c>
       <c r="C493">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D493">
         <v>137</v>
       </c>
       <c r="E493">
-        <v>26404101</v>
+        <v>26412601</v>
       </c>
       <c r="F493" t="s">
         <v>22</v>
@@ -18442,13 +18442,13 @@
         <v>12</v>
       </c>
       <c r="C496">
-        <v>8598</v>
+        <v>8604</v>
       </c>
       <c r="D496">
         <v>1931</v>
       </c>
       <c r="E496">
-        <v>16642560</v>
+        <v>16656600</v>
       </c>
       <c r="F496" t="s">
         <v>22</v>
@@ -18477,13 +18477,13 @@
         <v>12</v>
       </c>
       <c r="C497">
-        <v>7443</v>
+        <v>7444</v>
       </c>
       <c r="D497">
         <v>1903</v>
       </c>
       <c r="E497">
-        <v>15039082</v>
+        <v>15040582</v>
       </c>
       <c r="F497" t="s">
         <v>23</v>
@@ -18512,13 +18512,13 @@
         <v>12</v>
       </c>
       <c r="C498">
-        <v>16817</v>
+        <v>16823</v>
       </c>
       <c r="D498">
         <v>4974</v>
       </c>
       <c r="E498">
-        <v>36888309</v>
+        <v>36912344</v>
       </c>
       <c r="F498" t="s">
         <v>23</v>
@@ -18547,13 +18547,13 @@
         <v>12</v>
       </c>
       <c r="C499">
-        <v>5553</v>
+        <v>5558</v>
       </c>
       <c r="D499">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E499">
-        <v>17008161</v>
+        <v>17042235</v>
       </c>
       <c r="F499" t="s">
         <v>23</v>
@@ -18582,13 +18582,13 @@
         <v>12</v>
       </c>
       <c r="C500">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="D500">
         <v>734</v>
       </c>
       <c r="E500">
-        <v>11300123</v>
+        <v>11334623</v>
       </c>
       <c r="F500" t="s">
         <v>23</v>
@@ -18617,13 +18617,13 @@
         <v>12</v>
       </c>
       <c r="C501">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D501">
         <v>227</v>
       </c>
       <c r="E501">
-        <v>11321554</v>
+        <v>11323054</v>
       </c>
       <c r="F501" t="s">
         <v>23</v>
@@ -18722,13 +18722,13 @@
         <v>12</v>
       </c>
       <c r="C504">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D504">
         <v>4</v>
       </c>
       <c r="E504">
-        <v>649927</v>
+        <v>689646</v>
       </c>
       <c r="F504" t="s">
         <v>23</v>
@@ -18757,13 +18757,13 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>8127</v>
+        <v>8129</v>
       </c>
       <c r="D505">
         <v>2079</v>
       </c>
       <c r="E505">
-        <v>11947543</v>
+        <v>11957851</v>
       </c>
       <c r="F505" t="s">
         <v>23</v>
@@ -18792,13 +18792,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D506">
         <v>688</v>
       </c>
       <c r="E506">
-        <v>7639520</v>
+        <v>7641020</v>
       </c>
       <c r="F506" t="s">
         <v>24</v>
@@ -18827,13 +18827,13 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>9614</v>
+        <v>9616</v>
       </c>
       <c r="D507">
         <v>2228</v>
       </c>
       <c r="E507">
-        <v>26667433</v>
+        <v>26671365</v>
       </c>
       <c r="F507" t="s">
         <v>24</v>
@@ -18862,13 +18862,13 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D508">
         <v>953</v>
       </c>
       <c r="E508">
-        <v>13635689</v>
+        <v>13645689</v>
       </c>
       <c r="F508" t="s">
         <v>24</v>
@@ -18897,13 +18897,13 @@
         <v>12</v>
       </c>
       <c r="C509">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D509">
         <v>374</v>
       </c>
       <c r="E509">
-        <v>6170986</v>
+        <v>6180986</v>
       </c>
       <c r="F509" t="s">
         <v>24</v>
@@ -18932,13 +18932,13 @@
         <v>12</v>
       </c>
       <c r="C510">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D510">
         <v>151</v>
       </c>
       <c r="E510">
-        <v>5296599</v>
+        <v>5308588</v>
       </c>
       <c r="F510" t="s">
         <v>24</v>
@@ -19037,13 +19037,13 @@
         <v>12</v>
       </c>
       <c r="C513">
-        <v>6734</v>
+        <v>6736</v>
       </c>
       <c r="D513">
         <v>1419</v>
       </c>
       <c r="E513">
-        <v>10555696</v>
+        <v>10562304</v>
       </c>
       <c r="F513" t="s">
         <v>24</v>
@@ -19072,13 +19072,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="D514">
         <v>241</v>
       </c>
       <c r="E514">
-        <v>4164475</v>
+        <v>4204308</v>
       </c>
       <c r="F514" t="s">
         <v>25</v>
@@ -19282,13 +19282,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>7814</v>
+        <v>7821</v>
       </c>
       <c r="D520">
         <v>1483</v>
       </c>
       <c r="E520">
-        <v>28164761</v>
+        <v>28194102</v>
       </c>
       <c r="F520" t="s">
         <v>26</v>
@@ -19317,13 +19317,13 @@
         <v>12</v>
       </c>
       <c r="C521">
-        <v>18131</v>
+        <v>18136</v>
       </c>
       <c r="D521">
         <v>3812</v>
       </c>
       <c r="E521">
-        <v>76516213</v>
+        <v>76567262</v>
       </c>
       <c r="F521" t="s">
         <v>26</v>
@@ -19352,13 +19352,13 @@
         <v>12</v>
       </c>
       <c r="C522">
-        <v>7350</v>
+        <v>7355</v>
       </c>
       <c r="D522">
         <v>1448</v>
       </c>
       <c r="E522">
-        <v>44255621</v>
+        <v>44337409</v>
       </c>
       <c r="F522" t="s">
         <v>26</v>
@@ -19387,13 +19387,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="D523">
         <v>545</v>
       </c>
       <c r="E523">
-        <v>26843525</v>
+        <v>26864786</v>
       </c>
       <c r="F523" t="s">
         <v>26</v>
@@ -19492,13 +19492,13 @@
         <v>12</v>
       </c>
       <c r="C526">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D526">
         <v>12</v>
       </c>
       <c r="E526">
-        <v>1791290</v>
+        <v>1892709</v>
       </c>
       <c r="F526" t="s">
         <v>26</v>
@@ -19562,13 +19562,13 @@
         <v>12</v>
       </c>
       <c r="C528">
-        <v>4942</v>
+        <v>4945</v>
       </c>
       <c r="D528">
         <v>1123</v>
       </c>
       <c r="E528">
-        <v>10124168</v>
+        <v>10134031</v>
       </c>
       <c r="F528" t="s">
         <v>26</v>
@@ -19632,13 +19632,13 @@
         <v>12</v>
       </c>
       <c r="C530">
-        <v>11392</v>
+        <v>11395</v>
       </c>
       <c r="D530">
         <v>2537</v>
       </c>
       <c r="E530">
-        <v>43147903</v>
+        <v>43176226</v>
       </c>
       <c r="F530" t="s">
         <v>26</v>
@@ -19667,13 +19667,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>4259</v>
+        <v>4262</v>
       </c>
       <c r="D531">
         <v>943</v>
       </c>
       <c r="E531">
-        <v>22306712</v>
+        <v>22335333</v>
       </c>
       <c r="F531" t="s">
         <v>26</v>
@@ -19842,13 +19842,13 @@
         <v>12</v>
       </c>
       <c r="C536">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="D536">
         <v>792</v>
       </c>
       <c r="E536">
-        <v>7099397</v>
+        <v>7100147</v>
       </c>
       <c r="F536" t="s">
         <v>26</v>
@@ -19877,13 +19877,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>4951</v>
+        <v>4956</v>
       </c>
       <c r="D537">
         <v>938</v>
       </c>
       <c r="E537">
-        <v>17755235</v>
+        <v>17825814</v>
       </c>
       <c r="F537" t="s">
         <v>26</v>
@@ -19912,13 +19912,13 @@
         <v>12</v>
       </c>
       <c r="C538">
-        <v>12017</v>
+        <v>12028</v>
       </c>
       <c r="D538">
         <v>2487</v>
       </c>
       <c r="E538">
-        <v>51598742</v>
+        <v>51645818</v>
       </c>
       <c r="F538" t="s">
         <v>26</v>
@@ -19947,13 +19947,13 @@
         <v>12</v>
       </c>
       <c r="C539">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="D539">
         <v>938</v>
       </c>
       <c r="E539">
-        <v>25567816</v>
+        <v>25634929</v>
       </c>
       <c r="F539" t="s">
         <v>26</v>
@@ -20052,13 +20052,13 @@
         <v>12</v>
       </c>
       <c r="C542">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D542">
         <v>45</v>
       </c>
       <c r="E542">
-        <v>7474847</v>
+        <v>7585592</v>
       </c>
       <c r="F542" t="s">
         <v>26</v>
@@ -20192,13 +20192,13 @@
         <v>12</v>
       </c>
       <c r="C546">
-        <v>6277</v>
+        <v>6280</v>
       </c>
       <c r="D546">
         <v>1361</v>
       </c>
       <c r="E546">
-        <v>24473349</v>
+        <v>24488823</v>
       </c>
       <c r="F546" t="s">
         <v>26</v>
@@ -20227,13 +20227,13 @@
         <v>12</v>
       </c>
       <c r="C547">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D547">
         <v>438</v>
       </c>
       <c r="E547">
-        <v>10173901</v>
+        <v>10183901</v>
       </c>
       <c r="F547" t="s">
         <v>26</v>
@@ -20367,13 +20367,13 @@
         <v>12</v>
       </c>
       <c r="C551">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="D551">
         <v>512</v>
       </c>
       <c r="E551">
-        <v>4555428</v>
+        <v>4558988</v>
       </c>
       <c r="F551" t="s">
         <v>26</v>
@@ -20402,13 +20402,13 @@
         <v>12</v>
       </c>
       <c r="C552">
-        <v>7498</v>
+        <v>7502</v>
       </c>
       <c r="D552">
         <v>1506</v>
       </c>
       <c r="E552">
-        <v>23815843</v>
+        <v>23830286</v>
       </c>
       <c r="F552" t="s">
         <v>26</v>
@@ -20437,13 +20437,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>23383</v>
+        <v>23405</v>
       </c>
       <c r="D553">
         <v>4893</v>
       </c>
       <c r="E553">
-        <v>95518322</v>
+        <v>95643784</v>
       </c>
       <c r="F553" t="s">
         <v>26</v>
@@ -20472,13 +20472,13 @@
         <v>12</v>
       </c>
       <c r="C554">
-        <v>10125</v>
+        <v>10130</v>
       </c>
       <c r="D554">
         <v>2010</v>
       </c>
       <c r="E554">
-        <v>58624536</v>
+        <v>58665051</v>
       </c>
       <c r="F554" t="s">
         <v>26</v>
@@ -20507,13 +20507,13 @@
         <v>12</v>
       </c>
       <c r="C555">
-        <v>3681</v>
+        <v>3683</v>
       </c>
       <c r="D555">
         <v>724</v>
       </c>
       <c r="E555">
-        <v>29198887</v>
+        <v>29218390</v>
       </c>
       <c r="F555" t="s">
         <v>26</v>
@@ -20542,13 +20542,13 @@
         <v>12</v>
       </c>
       <c r="C556">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D556">
         <v>332</v>
       </c>
       <c r="E556">
-        <v>26181382</v>
+        <v>26190711</v>
       </c>
       <c r="F556" t="s">
         <v>26</v>
@@ -20577,13 +20577,13 @@
         <v>12</v>
       </c>
       <c r="C557">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D557">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E557">
-        <v>21170045</v>
+        <v>21238868</v>
       </c>
       <c r="F557" t="s">
         <v>26</v>
@@ -20682,13 +20682,13 @@
         <v>12</v>
       </c>
       <c r="C560">
-        <v>6215</v>
+        <v>6220</v>
       </c>
       <c r="D560">
         <v>1419</v>
       </c>
       <c r="E560">
-        <v>11981394</v>
+        <v>12006701</v>
       </c>
       <c r="F560" t="s">
         <v>26</v>
@@ -20717,13 +20717,13 @@
         <v>12</v>
       </c>
       <c r="C561">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="D561">
         <v>570</v>
       </c>
       <c r="E561">
-        <v>7865372</v>
+        <v>7876386</v>
       </c>
       <c r="F561" t="s">
         <v>27</v>
@@ -20752,13 +20752,13 @@
         <v>12</v>
       </c>
       <c r="C562">
-        <v>7310</v>
+        <v>7316</v>
       </c>
       <c r="D562">
         <v>1668</v>
       </c>
       <c r="E562">
-        <v>28309811</v>
+        <v>28337906</v>
       </c>
       <c r="F562" t="s">
         <v>27</v>
@@ -20787,13 +20787,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="D563">
         <v>613</v>
       </c>
       <c r="E563">
-        <v>14774882</v>
+        <v>14784046</v>
       </c>
       <c r="F563" t="s">
         <v>27</v>
@@ -20857,13 +20857,13 @@
         <v>12</v>
       </c>
       <c r="C565">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D565">
         <v>81</v>
       </c>
       <c r="E565">
-        <v>6158804</v>
+        <v>6194474</v>
       </c>
       <c r="F565" t="s">
         <v>27</v>
@@ -20892,13 +20892,13 @@
         <v>12</v>
       </c>
       <c r="C566">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D566">
         <v>29</v>
       </c>
       <c r="E566">
-        <v>5636041</v>
+        <v>5712308</v>
       </c>
       <c r="F566" t="s">
         <v>27</v>
@@ -20962,13 +20962,13 @@
         <v>12</v>
       </c>
       <c r="C568">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="D568">
         <v>634</v>
       </c>
       <c r="E568">
-        <v>4915498</v>
+        <v>4933964</v>
       </c>
       <c r="F568" t="s">
         <v>27</v>
@@ -20997,13 +20997,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>11315</v>
+        <v>11325</v>
       </c>
       <c r="D569">
         <v>2154</v>
       </c>
       <c r="E569">
-        <v>43052240</v>
+        <v>43099572</v>
       </c>
       <c r="F569" t="s">
         <v>27</v>
@@ -21032,13 +21032,13 @@
         <v>12</v>
       </c>
       <c r="C570">
-        <v>19247</v>
+        <v>19263</v>
       </c>
       <c r="D570">
         <v>4350</v>
       </c>
       <c r="E570">
-        <v>80756073</v>
+        <v>80843160</v>
       </c>
       <c r="F570" t="s">
         <v>27</v>
@@ -21067,13 +21067,13 @@
         <v>12</v>
       </c>
       <c r="C571">
-        <v>6968</v>
+        <v>6978</v>
       </c>
       <c r="D571">
         <v>1531</v>
       </c>
       <c r="E571">
-        <v>43442711</v>
+        <v>43541118</v>
       </c>
       <c r="F571" t="s">
         <v>27</v>
@@ -21172,13 +21172,13 @@
         <v>12</v>
       </c>
       <c r="C574">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D574">
         <v>84</v>
       </c>
       <c r="E574">
-        <v>16913742</v>
+        <v>16978191</v>
       </c>
       <c r="F574" t="s">
         <v>27</v>
@@ -21277,13 +21277,13 @@
         <v>12</v>
       </c>
       <c r="C577">
-        <v>5442</v>
+        <v>5445</v>
       </c>
       <c r="D577">
         <v>1364</v>
       </c>
       <c r="E577">
-        <v>10827938</v>
+        <v>10846451</v>
       </c>
       <c r="F577" t="s">
         <v>27</v>
@@ -21312,13 +21312,13 @@
         <v>12</v>
       </c>
       <c r="C578">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="D578">
         <v>517</v>
       </c>
       <c r="E578">
-        <v>8702827</v>
+        <v>8722827</v>
       </c>
       <c r="F578" t="s">
         <v>27</v>
@@ -21347,13 +21347,13 @@
         <v>12</v>
       </c>
       <c r="C579">
-        <v>6302</v>
+        <v>6307</v>
       </c>
       <c r="D579">
         <v>1355</v>
       </c>
       <c r="E579">
-        <v>25207787</v>
+        <v>25219807</v>
       </c>
       <c r="F579" t="s">
         <v>27</v>
@@ -21382,13 +21382,13 @@
         <v>12</v>
       </c>
       <c r="C580">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="D580">
         <v>463</v>
       </c>
       <c r="E580">
-        <v>11109870</v>
+        <v>11111370</v>
       </c>
       <c r="F580" t="s">
         <v>27</v>
@@ -21522,13 +21522,13 @@
         <v>12</v>
       </c>
       <c r="C584">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D584">
         <v>795</v>
       </c>
       <c r="E584">
-        <v>5814524</v>
+        <v>5819811</v>
       </c>
       <c r="F584" t="s">
         <v>27</v>
@@ -21557,13 +21557,13 @@
         <v>12</v>
       </c>
       <c r="C585">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D585">
         <v>171</v>
       </c>
       <c r="E585">
-        <v>2806192</v>
+        <v>2810087</v>
       </c>
       <c r="F585" t="s">
         <v>27</v>
@@ -21592,13 +21592,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="D586">
         <v>548</v>
       </c>
       <c r="E586">
-        <v>8620398</v>
+        <v>8630628</v>
       </c>
       <c r="F586" t="s">
         <v>27</v>
@@ -21802,13 +21802,13 @@
         <v>12</v>
       </c>
       <c r="C592">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="D592">
         <v>445</v>
       </c>
       <c r="E592">
-        <v>6121061</v>
+        <v>6128104</v>
       </c>
       <c r="F592" t="s">
         <v>27</v>
@@ -21837,13 +21837,13 @@
         <v>12</v>
       </c>
       <c r="C593">
-        <v>6739</v>
+        <v>6746</v>
       </c>
       <c r="D593">
         <v>1520</v>
       </c>
       <c r="E593">
-        <v>26115373</v>
+        <v>26138723</v>
       </c>
       <c r="F593" t="s">
         <v>27</v>
@@ -21872,13 +21872,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="D594">
         <v>572</v>
       </c>
       <c r="E594">
-        <v>13019498</v>
+        <v>13036103</v>
       </c>
       <c r="F594" t="s">
         <v>27</v>
@@ -21907,13 +21907,13 @@
         <v>12</v>
       </c>
       <c r="C595">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D595">
         <v>182</v>
       </c>
       <c r="E595">
-        <v>6338021</v>
+        <v>6348929</v>
       </c>
       <c r="F595" t="s">
         <v>27</v>
@@ -21942,13 +21942,13 @@
         <v>12</v>
       </c>
       <c r="C596">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D596">
         <v>77</v>
       </c>
       <c r="E596">
-        <v>6725798</v>
+        <v>6738935</v>
       </c>
       <c r="F596" t="s">
         <v>27</v>
@@ -21977,13 +21977,13 @@
         <v>12</v>
       </c>
       <c r="C597">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D597">
         <v>27</v>
       </c>
       <c r="E597">
-        <v>4168677</v>
+        <v>4293371</v>
       </c>
       <c r="F597" t="s">
         <v>27</v>
@@ -22047,13 +22047,13 @@
         <v>12</v>
       </c>
       <c r="C599">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D599">
         <v>480</v>
       </c>
       <c r="E599">
-        <v>3885993</v>
+        <v>3891584</v>
       </c>
       <c r="F599" t="s">
         <v>27</v>
@@ -22082,13 +22082,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>7544</v>
+        <v>7552</v>
       </c>
       <c r="D600">
         <v>1279</v>
       </c>
       <c r="E600">
-        <v>27999307</v>
+        <v>28022690</v>
       </c>
       <c r="F600" t="s">
         <v>27</v>
@@ -22117,13 +22117,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>13062</v>
+        <v>13067</v>
       </c>
       <c r="D601">
         <v>2744</v>
       </c>
       <c r="E601">
-        <v>54357508</v>
+        <v>54384365</v>
       </c>
       <c r="F601" t="s">
         <v>27</v>
@@ -22152,13 +22152,13 @@
         <v>12</v>
       </c>
       <c r="C602">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="D602">
         <v>890</v>
       </c>
       <c r="E602">
-        <v>22880669</v>
+        <v>22895469</v>
       </c>
       <c r="F602" t="s">
         <v>27</v>
@@ -22222,13 +22222,13 @@
         <v>12</v>
       </c>
       <c r="C604">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D604">
         <v>112</v>
       </c>
       <c r="E604">
-        <v>8613964</v>
+        <v>8682879</v>
       </c>
       <c r="F604" t="s">
         <v>27</v>
@@ -22327,13 +22327,13 @@
         <v>12</v>
       </c>
       <c r="C607">
-        <v>4825</v>
+        <v>4831</v>
       </c>
       <c r="D607">
         <v>1167</v>
       </c>
       <c r="E607">
-        <v>9281771</v>
+        <v>9301413</v>
       </c>
       <c r="F607" t="s">
         <v>27</v>
@@ -22362,13 +22362,13 @@
         <v>12</v>
       </c>
       <c r="C608">
-        <v>21585</v>
+        <v>21604</v>
       </c>
       <c r="D608">
         <v>4545</v>
       </c>
       <c r="E608">
-        <v>74377986</v>
+        <v>74517226</v>
       </c>
       <c r="F608" t="s">
         <v>27</v>
@@ -22397,13 +22397,13 @@
         <v>12</v>
       </c>
       <c r="C609">
-        <v>45239</v>
+        <v>45306</v>
       </c>
       <c r="D609">
-        <v>10075</v>
+        <v>10076</v>
       </c>
       <c r="E609">
-        <v>186516817</v>
+        <v>187182475</v>
       </c>
       <c r="F609" t="s">
         <v>27</v>
@@ -22432,13 +22432,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>18870</v>
+        <v>18891</v>
       </c>
       <c r="D610">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="E610">
-        <v>112566468</v>
+        <v>112758702</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22467,13 +22467,13 @@
         <v>12</v>
       </c>
       <c r="C611">
-        <v>7847</v>
+        <v>7856</v>
       </c>
       <c r="D611">
         <v>1517</v>
       </c>
       <c r="E611">
-        <v>64118119</v>
+        <v>64223479</v>
       </c>
       <c r="F611" t="s">
         <v>27</v>
@@ -22502,13 +22502,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="D612">
         <v>694</v>
       </c>
       <c r="E612">
-        <v>59209802</v>
+        <v>59220176</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22537,13 +22537,13 @@
         <v>12</v>
       </c>
       <c r="C613">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="D613">
         <v>244</v>
       </c>
       <c r="E613">
-        <v>44339376</v>
+        <v>44521896</v>
       </c>
       <c r="F613" t="s">
         <v>27</v>
@@ -22677,13 +22677,13 @@
         <v>12</v>
       </c>
       <c r="C617">
-        <v>14865</v>
+        <v>14883</v>
       </c>
       <c r="D617">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E617">
-        <v>34676679</v>
+        <v>34744114</v>
       </c>
       <c r="F617" t="s">
         <v>27</v>
@@ -22747,13 +22747,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>7635</v>
+        <v>7641</v>
       </c>
       <c r="D619">
         <v>1635</v>
       </c>
       <c r="E619">
-        <v>29363729</v>
+        <v>29393156</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22782,13 +22782,13 @@
         <v>12</v>
       </c>
       <c r="C620">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D620">
         <v>644</v>
       </c>
       <c r="E620">
-        <v>16295836</v>
+        <v>16315707</v>
       </c>
       <c r="F620" t="s">
         <v>27</v>
@@ -22957,13 +22957,13 @@
         <v>12</v>
       </c>
       <c r="C625">
-        <v>7812</v>
+        <v>7818</v>
       </c>
       <c r="D625">
         <v>1430</v>
       </c>
       <c r="E625">
-        <v>30073962</v>
+        <v>30095275</v>
       </c>
       <c r="F625" t="s">
         <v>27</v>
@@ -22992,13 +22992,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>11948</v>
+        <v>11959</v>
       </c>
       <c r="D626">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="E626">
-        <v>48109149</v>
+        <v>48163109</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23027,13 +23027,13 @@
         <v>12</v>
       </c>
       <c r="C627">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="D627">
         <v>896</v>
       </c>
       <c r="E627">
-        <v>21970306</v>
+        <v>21980306</v>
       </c>
       <c r="F627" t="s">
         <v>27</v>
@@ -23062,13 +23062,13 @@
         <v>12</v>
       </c>
       <c r="C628">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D628">
         <v>292</v>
       </c>
       <c r="E628">
-        <v>11821483</v>
+        <v>11831483</v>
       </c>
       <c r="F628" t="s">
         <v>27</v>
@@ -23202,13 +23202,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>3530</v>
+        <v>3534</v>
       </c>
       <c r="D632">
         <v>823</v>
       </c>
       <c r="E632">
-        <v>6781459</v>
+        <v>6792994</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23237,13 +23237,13 @@
         <v>12</v>
       </c>
       <c r="C633">
-        <v>3774</v>
+        <v>3780</v>
       </c>
       <c r="D633">
         <v>774</v>
       </c>
       <c r="E633">
-        <v>12369803</v>
+        <v>12406778</v>
       </c>
       <c r="F633" t="s">
         <v>27</v>
@@ -23272,13 +23272,13 @@
         <v>12</v>
       </c>
       <c r="C634">
-        <v>7956</v>
+        <v>7969</v>
       </c>
       <c r="D634">
         <v>1821</v>
       </c>
       <c r="E634">
-        <v>29276184</v>
+        <v>29379247</v>
       </c>
       <c r="F634" t="s">
         <v>27</v>
@@ -23307,13 +23307,13 @@
         <v>12</v>
       </c>
       <c r="C635">
-        <v>2973</v>
+        <v>2982</v>
       </c>
       <c r="D635">
         <v>688</v>
       </c>
       <c r="E635">
-        <v>15354434</v>
+        <v>15404596</v>
       </c>
       <c r="F635" t="s">
         <v>27</v>
@@ -23447,13 +23447,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="D639">
         <v>751</v>
       </c>
       <c r="E639">
-        <v>5641600</v>
+        <v>5643100</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23482,13 +23482,13 @@
         <v>12</v>
       </c>
       <c r="C640">
-        <v>10010</v>
+        <v>10019</v>
       </c>
       <c r="D640">
         <v>1855</v>
       </c>
       <c r="E640">
-        <v>35390371</v>
+        <v>35423195</v>
       </c>
       <c r="F640" t="s">
         <v>27</v>
@@ -23517,13 +23517,13 @@
         <v>12</v>
       </c>
       <c r="C641">
-        <v>22869</v>
+        <v>22885</v>
       </c>
       <c r="D641">
         <v>4823</v>
       </c>
       <c r="E641">
-        <v>94157083</v>
+        <v>94245180</v>
       </c>
       <c r="F641" t="s">
         <v>27</v>
@@ -23552,13 +23552,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>9028</v>
+        <v>9036</v>
       </c>
       <c r="D642">
         <v>1826</v>
       </c>
       <c r="E642">
-        <v>52293495</v>
+        <v>52540859</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23587,13 +23587,13 @@
         <v>12</v>
       </c>
       <c r="C643">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="D643">
         <v>671</v>
       </c>
       <c r="E643">
-        <v>27274914</v>
+        <v>27316954</v>
       </c>
       <c r="F643" t="s">
         <v>27</v>
@@ -23622,13 +23622,13 @@
         <v>12</v>
       </c>
       <c r="C644">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D644">
         <v>294</v>
       </c>
       <c r="E644">
-        <v>22768247</v>
+        <v>22785105</v>
       </c>
       <c r="F644" t="s">
         <v>27</v>
@@ -23657,13 +23657,13 @@
         <v>12</v>
       </c>
       <c r="C645">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D645">
         <v>107</v>
       </c>
       <c r="E645">
-        <v>18281297</v>
+        <v>18545297</v>
       </c>
       <c r="F645" t="s">
         <v>27</v>
@@ -23727,13 +23727,13 @@
         <v>12</v>
       </c>
       <c r="C647">
-        <v>7893</v>
+        <v>7896</v>
       </c>
       <c r="D647">
         <v>1906</v>
       </c>
       <c r="E647">
-        <v>15231416</v>
+        <v>15245406</v>
       </c>
       <c r="F647" t="s">
         <v>27</v>
@@ -23762,13 +23762,13 @@
         <v>12</v>
       </c>
       <c r="C648">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="D648">
         <v>574</v>
       </c>
       <c r="E648">
-        <v>8345337</v>
+        <v>8358303</v>
       </c>
       <c r="F648" t="s">
         <v>27</v>
@@ -23797,13 +23797,13 @@
         <v>12</v>
       </c>
       <c r="C649">
-        <v>8042</v>
+        <v>8048</v>
       </c>
       <c r="D649">
         <v>1779</v>
       </c>
       <c r="E649">
-        <v>30394836</v>
+        <v>30428238</v>
       </c>
       <c r="F649" t="s">
         <v>27</v>
@@ -23832,13 +23832,13 @@
         <v>12</v>
       </c>
       <c r="C650">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="D650">
         <v>655</v>
       </c>
       <c r="E650">
-        <v>14627204</v>
+        <v>14639072</v>
       </c>
       <c r="F650" t="s">
         <v>27</v>
@@ -23867,13 +23867,13 @@
         <v>12</v>
       </c>
       <c r="C651">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D651">
         <v>248</v>
       </c>
       <c r="E651">
-        <v>9034438</v>
+        <v>9051038</v>
       </c>
       <c r="F651" t="s">
         <v>27</v>
@@ -24042,13 +24042,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D656">
         <v>249</v>
       </c>
       <c r="E656">
-        <v>3010812</v>
+        <v>3012312</v>
       </c>
       <c r="F656" t="s">
         <v>28</v>
@@ -24077,13 +24077,13 @@
         <v>12</v>
       </c>
       <c r="C657">
-        <v>4500</v>
+        <v>4508</v>
       </c>
       <c r="D657">
         <v>910</v>
       </c>
       <c r="E657">
-        <v>17464037</v>
+        <v>17526441</v>
       </c>
       <c r="F657" t="s">
         <v>28</v>
@@ -24112,13 +24112,13 @@
         <v>12</v>
       </c>
       <c r="C658">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D658">
         <v>339</v>
       </c>
       <c r="E658">
-        <v>10575382</v>
+        <v>10585382</v>
       </c>
       <c r="F658" t="s">
         <v>28</v>
@@ -24182,13 +24182,13 @@
         <v>12</v>
       </c>
       <c r="C660">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D660">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E660">
-        <v>2319569</v>
+        <v>2331069</v>
       </c>
       <c r="F660" t="s">
         <v>28</v>
@@ -24252,13 +24252,13 @@
         <v>12</v>
       </c>
       <c r="C662">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D662">
         <v>447</v>
       </c>
       <c r="E662">
-        <v>3152050</v>
+        <v>3155927</v>
       </c>
       <c r="F662" t="s">
         <v>28</v>
@@ -24287,13 +24287,13 @@
         <v>12</v>
       </c>
       <c r="C663">
-        <v>7548</v>
+        <v>7551</v>
       </c>
       <c r="D663">
         <v>1290</v>
       </c>
       <c r="E663">
-        <v>27614449</v>
+        <v>27633485</v>
       </c>
       <c r="F663" t="s">
         <v>28</v>
@@ -24322,13 +24322,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>12514</v>
+        <v>12521</v>
       </c>
       <c r="D664">
         <v>2490</v>
       </c>
       <c r="E664">
-        <v>51143307</v>
+        <v>51184348</v>
       </c>
       <c r="F664" t="s">
         <v>28</v>
@@ -24357,13 +24357,13 @@
         <v>12</v>
       </c>
       <c r="C665">
-        <v>4213</v>
+        <v>4217</v>
       </c>
       <c r="D665">
         <v>864</v>
       </c>
       <c r="E665">
-        <v>23325836</v>
+        <v>23356634</v>
       </c>
       <c r="F665" t="s">
         <v>28</v>
@@ -24392,13 +24392,13 @@
         <v>12</v>
       </c>
       <c r="C666">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D666">
         <v>284</v>
       </c>
       <c r="E666">
-        <v>10284697</v>
+        <v>10305057</v>
       </c>
       <c r="F666" t="s">
         <v>28</v>
@@ -24497,13 +24497,13 @@
         <v>12</v>
       </c>
       <c r="C669">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D669">
         <v>6</v>
       </c>
       <c r="E669">
-        <v>1175674</v>
+        <v>1194902</v>
       </c>
       <c r="F669" t="s">
         <v>28</v>
@@ -24532,13 +24532,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="D670">
         <v>853</v>
       </c>
       <c r="E670">
-        <v>7432237</v>
+        <v>7433278</v>
       </c>
       <c r="F670" t="s">
         <v>28</v>
@@ -24567,13 +24567,13 @@
         <v>12</v>
       </c>
       <c r="C671">
-        <v>4756</v>
+        <v>4764</v>
       </c>
       <c r="D671">
         <v>858</v>
       </c>
       <c r="E671">
-        <v>16854232</v>
+        <v>16883673</v>
       </c>
       <c r="F671" t="s">
         <v>28</v>
@@ -24602,13 +24602,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>9044</v>
+        <v>9051</v>
       </c>
       <c r="D672">
         <v>1922</v>
       </c>
       <c r="E672">
-        <v>35082762</v>
+        <v>35117646</v>
       </c>
       <c r="F672" t="s">
         <v>28</v>
@@ -24637,13 +24637,13 @@
         <v>12</v>
       </c>
       <c r="C673">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="D673">
         <v>626</v>
       </c>
       <c r="E673">
-        <v>15619981</v>
+        <v>15641481</v>
       </c>
       <c r="F673" t="s">
         <v>28</v>
@@ -24672,13 +24672,13 @@
         <v>12</v>
       </c>
       <c r="C674">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D674">
         <v>204</v>
       </c>
       <c r="E674">
-        <v>6861606</v>
+        <v>6885419</v>
       </c>
       <c r="F674" t="s">
         <v>28</v>
@@ -24707,13 +24707,13 @@
         <v>12</v>
       </c>
       <c r="C675">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D675">
         <v>92</v>
       </c>
       <c r="E675">
-        <v>6819285</v>
+        <v>6829285</v>
       </c>
       <c r="F675" t="s">
         <v>28</v>
@@ -24742,13 +24742,13 @@
         <v>12</v>
       </c>
       <c r="C676">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D676">
         <v>36</v>
       </c>
       <c r="E676">
-        <v>5431009</v>
+        <v>5472609</v>
       </c>
       <c r="F676" t="s">
         <v>28</v>
@@ -24777,13 +24777,13 @@
         <v>12</v>
       </c>
       <c r="C677">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="D677">
         <v>1077</v>
       </c>
       <c r="E677">
-        <v>7595592</v>
+        <v>7598592</v>
       </c>
       <c r="F677" t="s">
         <v>28</v>
@@ -24812,13 +24812,13 @@
         <v>12</v>
       </c>
       <c r="C678">
-        <v>11506</v>
+        <v>11514</v>
       </c>
       <c r="D678">
         <v>2142</v>
       </c>
       <c r="E678">
-        <v>37730928</v>
+        <v>37760919</v>
       </c>
       <c r="F678" t="s">
         <v>28</v>
@@ -24847,13 +24847,13 @@
         <v>12</v>
       </c>
       <c r="C679">
-        <v>25850</v>
+        <v>25867</v>
       </c>
       <c r="D679">
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="E679">
-        <v>98874876</v>
+        <v>98974655</v>
       </c>
       <c r="F679" t="s">
         <v>28</v>
@@ -24882,13 +24882,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>8154</v>
+        <v>8159</v>
       </c>
       <c r="D680">
         <v>1718</v>
       </c>
       <c r="E680">
-        <v>45097710</v>
+        <v>45147710</v>
       </c>
       <c r="F680" t="s">
         <v>28</v>
@@ -24952,13 +24952,13 @@
         <v>12</v>
       </c>
       <c r="C682">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D682">
         <v>204</v>
       </c>
       <c r="E682">
-        <v>14759730</v>
+        <v>14876000</v>
       </c>
       <c r="F682" t="s">
         <v>28</v>
@@ -25092,13 +25092,13 @@
         <v>12</v>
       </c>
       <c r="C686">
-        <v>8900</v>
+        <v>8909</v>
       </c>
       <c r="D686">
         <v>1921</v>
       </c>
       <c r="E686">
-        <v>16828405</v>
+        <v>16843252</v>
       </c>
       <c r="F686" t="s">
         <v>28</v>
@@ -25127,13 +25127,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="D687">
         <v>529</v>
       </c>
       <c r="E687">
-        <v>8749211</v>
+        <v>8754680</v>
       </c>
       <c r="F687" t="s">
         <v>28</v>
@@ -25162,13 +25162,13 @@
         <v>12</v>
       </c>
       <c r="C688">
-        <v>5649</v>
+        <v>5655</v>
       </c>
       <c r="D688">
         <v>1273</v>
       </c>
       <c r="E688">
-        <v>23031956</v>
+        <v>23070595</v>
       </c>
       <c r="F688" t="s">
         <v>28</v>
@@ -25197,13 +25197,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="D689">
         <v>424</v>
       </c>
       <c r="E689">
-        <v>9671117</v>
+        <v>9691117</v>
       </c>
       <c r="F689" t="s">
         <v>28</v>
@@ -25232,13 +25232,13 @@
         <v>12</v>
       </c>
       <c r="C690">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D690">
         <v>126</v>
       </c>
       <c r="E690">
-        <v>4087855</v>
+        <v>4097855</v>
       </c>
       <c r="F690" t="s">
         <v>28</v>
@@ -25267,13 +25267,13 @@
         <v>12</v>
       </c>
       <c r="C691">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D691">
         <v>61</v>
       </c>
       <c r="E691">
-        <v>3707005</v>
+        <v>3727005</v>
       </c>
       <c r="F691" t="s">
         <v>28</v>
@@ -25337,13 +25337,13 @@
         <v>12</v>
       </c>
       <c r="C693">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D693">
         <v>658</v>
       </c>
       <c r="E693">
-        <v>5456778</v>
+        <v>5468081</v>
       </c>
       <c r="F693" t="s">
         <v>28</v>
@@ -25372,13 +25372,13 @@
         <v>12</v>
       </c>
       <c r="C694">
-        <v>14540</v>
+        <v>14553</v>
       </c>
       <c r="D694">
         <v>3093</v>
       </c>
       <c r="E694">
-        <v>41459264</v>
+        <v>41517143</v>
       </c>
       <c r="F694" t="s">
         <v>28</v>
@@ -25407,13 +25407,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>36169</v>
+        <v>36215</v>
       </c>
       <c r="D695">
-        <v>7685</v>
+        <v>7686</v>
       </c>
       <c r="E695">
-        <v>134328373</v>
+        <v>134582762</v>
       </c>
       <c r="F695" t="s">
         <v>28</v>
@@ -25442,13 +25442,13 @@
         <v>12</v>
       </c>
       <c r="C696">
-        <v>15205</v>
+        <v>15219</v>
       </c>
       <c r="D696">
         <v>3087</v>
       </c>
       <c r="E696">
-        <v>86954947</v>
+        <v>87090039</v>
       </c>
       <c r="F696" t="s">
         <v>28</v>
@@ -25477,13 +25477,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>5882</v>
+        <v>5892</v>
       </c>
       <c r="D697">
         <v>1140</v>
       </c>
       <c r="E697">
-        <v>45155015</v>
+        <v>45226853</v>
       </c>
       <c r="F697" t="s">
         <v>28</v>
@@ -25512,13 +25512,13 @@
         <v>12</v>
       </c>
       <c r="C698">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="D698">
         <v>515</v>
       </c>
       <c r="E698">
-        <v>43225540</v>
+        <v>43262372</v>
       </c>
       <c r="F698" t="s">
         <v>28</v>
@@ -25547,13 +25547,13 @@
         <v>12</v>
       </c>
       <c r="C699">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D699">
         <v>202</v>
       </c>
       <c r="E699">
-        <v>34874098</v>
+        <v>34894098</v>
       </c>
       <c r="F699" t="s">
         <v>28</v>
@@ -25722,13 +25722,13 @@
         <v>12</v>
       </c>
       <c r="C704">
-        <v>12236</v>
+        <v>12243</v>
       </c>
       <c r="D704">
         <v>2908</v>
       </c>
       <c r="E704">
-        <v>22042071</v>
+        <v>22059939</v>
       </c>
       <c r="F704" t="s">
         <v>28</v>
@@ -25757,13 +25757,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>4849</v>
+        <v>4853</v>
       </c>
       <c r="D705">
         <v>716</v>
       </c>
       <c r="E705">
-        <v>20602752</v>
+        <v>20615692</v>
       </c>
       <c r="F705" t="s">
         <v>28</v>
@@ -25792,13 +25792,13 @@
         <v>12</v>
       </c>
       <c r="C706">
-        <v>8974</v>
+        <v>8979</v>
       </c>
       <c r="D706">
         <v>1650</v>
       </c>
       <c r="E706">
-        <v>40850135</v>
+        <v>40887624</v>
       </c>
       <c r="F706" t="s">
         <v>28</v>
@@ -25827,13 +25827,13 @@
         <v>12</v>
       </c>
       <c r="C707">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="D707">
         <v>645</v>
       </c>
       <c r="E707">
-        <v>23691100</v>
+        <v>23701100</v>
       </c>
       <c r="F707" t="s">
         <v>28</v>
@@ -25862,13 +25862,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D708">
         <v>194</v>
       </c>
       <c r="E708">
-        <v>11698564</v>
+        <v>11798940</v>
       </c>
       <c r="F708" t="s">
         <v>28</v>
@@ -25897,13 +25897,13 @@
         <v>12</v>
       </c>
       <c r="C709">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D709">
         <v>99</v>
       </c>
       <c r="E709">
-        <v>10298309</v>
+        <v>10334155</v>
       </c>
       <c r="F709" t="s">
         <v>28</v>
@@ -26037,13 +26037,13 @@
         <v>12</v>
       </c>
       <c r="C713">
-        <v>23756</v>
+        <v>23785</v>
       </c>
       <c r="D713">
         <v>4126</v>
       </c>
       <c r="E713">
-        <v>83376703</v>
+        <v>83488357</v>
       </c>
       <c r="F713" t="s">
         <v>28</v>
@@ -26072,13 +26072,13 @@
         <v>12</v>
       </c>
       <c r="C714">
-        <v>46209</v>
+        <v>46285</v>
       </c>
       <c r="D714">
         <v>9143</v>
       </c>
       <c r="E714">
-        <v>179656700</v>
+        <v>180086524</v>
       </c>
       <c r="F714" t="s">
         <v>28</v>
@@ -26107,13 +26107,13 @@
         <v>12</v>
       </c>
       <c r="C715">
-        <v>15608</v>
+        <v>15632</v>
       </c>
       <c r="D715">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E715">
-        <v>89293985</v>
+        <v>89456477</v>
       </c>
       <c r="F715" t="s">
         <v>28</v>
@@ -26142,13 +26142,13 @@
         <v>12</v>
       </c>
       <c r="C716">
-        <v>5468</v>
+        <v>5479</v>
       </c>
       <c r="D716">
         <v>1069</v>
       </c>
       <c r="E716">
-        <v>44047850</v>
+        <v>44196894</v>
       </c>
       <c r="F716" t="s">
         <v>28</v>
@@ -26177,13 +26177,13 @@
         <v>12</v>
       </c>
       <c r="C717">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="D717">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E717">
-        <v>36797970</v>
+        <v>36845889</v>
       </c>
       <c r="F717" t="s">
         <v>28</v>
@@ -26212,13 +26212,13 @@
         <v>12</v>
       </c>
       <c r="C718">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D718">
         <v>161</v>
       </c>
       <c r="E718">
-        <v>29938822</v>
+        <v>29940322</v>
       </c>
       <c r="F718" t="s">
         <v>28</v>
@@ -26247,13 +26247,13 @@
         <v>12</v>
       </c>
       <c r="C719">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D719">
         <v>27</v>
       </c>
       <c r="E719">
-        <v>10291418</v>
+        <v>10317338</v>
       </c>
       <c r="F719" t="s">
         <v>28</v>
@@ -26352,13 +26352,13 @@
         <v>12</v>
       </c>
       <c r="C722">
-        <v>12874</v>
+        <v>12891</v>
       </c>
       <c r="D722">
         <v>2873</v>
       </c>
       <c r="E722">
-        <v>24657802</v>
+        <v>24723395</v>
       </c>
       <c r="F722" t="s">
         <v>28</v>
@@ -26387,13 +26387,13 @@
         <v>12</v>
       </c>
       <c r="C723">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="D723">
         <v>614</v>
       </c>
       <c r="E723">
-        <v>13234825</v>
+        <v>13241635</v>
       </c>
       <c r="F723" t="s">
         <v>28</v>
@@ -26422,13 +26422,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>5660</v>
+        <v>5667</v>
       </c>
       <c r="D724">
         <v>1154</v>
       </c>
       <c r="E724">
-        <v>23521217</v>
+        <v>23550958</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26457,13 +26457,13 @@
         <v>12</v>
       </c>
       <c r="C725">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="D725">
         <v>390</v>
       </c>
       <c r="E725">
-        <v>10712320</v>
+        <v>10732320</v>
       </c>
       <c r="F725" t="s">
         <v>28</v>
@@ -26597,13 +26597,13 @@
         <v>12</v>
       </c>
       <c r="C729">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D729">
         <v>641</v>
       </c>
       <c r="E729">
-        <v>4340514</v>
+        <v>4342014</v>
       </c>
       <c r="F729" t="s">
         <v>28</v>
@@ -26632,13 +26632,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="D730">
         <v>336</v>
       </c>
       <c r="E730">
-        <v>8404562</v>
+        <v>8422571</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26667,13 +26667,13 @@
         <v>12</v>
       </c>
       <c r="C731">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="D731">
         <v>567</v>
       </c>
       <c r="E731">
-        <v>11494127</v>
+        <v>11499114</v>
       </c>
       <c r="F731" t="s">
         <v>28</v>
@@ -26702,13 +26702,13 @@
         <v>12</v>
       </c>
       <c r="C732">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D732">
         <v>185</v>
       </c>
       <c r="E732">
-        <v>5256254</v>
+        <v>5280756</v>
       </c>
       <c r="F732" t="s">
         <v>28</v>
@@ -26737,13 +26737,13 @@
         <v>12</v>
       </c>
       <c r="C733">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D733">
         <v>51</v>
       </c>
       <c r="E733">
-        <v>1388796</v>
+        <v>1390296</v>
       </c>
       <c r="F733" t="s">
         <v>28</v>
@@ -26842,13 +26842,13 @@
         <v>12</v>
       </c>
       <c r="C736">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="D736">
         <v>543</v>
       </c>
       <c r="E736">
-        <v>3809622</v>
+        <v>3820803</v>
       </c>
       <c r="F736" t="s">
         <v>28</v>
@@ -26877,13 +26877,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>11364</v>
+        <v>11370</v>
       </c>
       <c r="D737">
         <v>1909</v>
       </c>
       <c r="E737">
-        <v>42082651</v>
+        <v>42113704</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -26912,13 +26912,13 @@
         <v>12</v>
       </c>
       <c r="C738">
-        <v>17087</v>
+        <v>17097</v>
       </c>
       <c r="D738">
         <v>3479</v>
       </c>
       <c r="E738">
-        <v>67331541</v>
+        <v>67397301</v>
       </c>
       <c r="F738" t="s">
         <v>28</v>
@@ -26947,13 +26947,13 @@
         <v>12</v>
       </c>
       <c r="C739">
-        <v>6143</v>
+        <v>6148</v>
       </c>
       <c r="D739">
         <v>1240</v>
       </c>
       <c r="E739">
-        <v>35959491</v>
+        <v>36025279</v>
       </c>
       <c r="F739" t="s">
         <v>28</v>
@@ -26982,13 +26982,13 @@
         <v>12</v>
       </c>
       <c r="C740">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="D740">
         <v>421</v>
       </c>
       <c r="E740">
-        <v>16573473</v>
+        <v>16593473</v>
       </c>
       <c r="F740" t="s">
         <v>28</v>
@@ -27017,13 +27017,13 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D741">
         <v>179</v>
       </c>
       <c r="E741">
-        <v>14812315</v>
+        <v>14995676</v>
       </c>
       <c r="F741" t="s">
         <v>28</v>
@@ -27122,13 +27122,13 @@
         <v>12</v>
       </c>
       <c r="C744">
-        <v>5678</v>
+        <v>5682</v>
       </c>
       <c r="D744">
         <v>1206</v>
       </c>
       <c r="E744">
-        <v>10702429</v>
+        <v>10716526</v>
       </c>
       <c r="F744" t="s">
         <v>28</v>
@@ -27157,13 +27157,13 @@
         <v>12</v>
       </c>
       <c r="C745">
-        <v>4044</v>
+        <v>4047</v>
       </c>
       <c r="D745">
         <v>844</v>
       </c>
       <c r="E745">
-        <v>11730055</v>
+        <v>11745324</v>
       </c>
       <c r="F745" t="s">
         <v>28</v>
@@ -27192,13 +27192,13 @@
         <v>12</v>
       </c>
       <c r="C746">
-        <v>9684</v>
+        <v>9686</v>
       </c>
       <c r="D746">
         <v>2203</v>
       </c>
       <c r="E746">
-        <v>35693286</v>
+        <v>35700896</v>
       </c>
       <c r="F746" t="s">
         <v>28</v>
@@ -27227,13 +27227,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="D747">
         <v>740</v>
       </c>
       <c r="E747">
-        <v>17187217</v>
+        <v>17219137</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27262,13 +27262,13 @@
         <v>12</v>
       </c>
       <c r="C748">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D748">
         <v>224</v>
       </c>
       <c r="E748">
-        <v>8150042</v>
+        <v>8225104</v>
       </c>
       <c r="F748" t="s">
         <v>28</v>
@@ -27297,13 +27297,13 @@
         <v>12</v>
       </c>
       <c r="C749">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D749">
         <v>101</v>
       </c>
       <c r="E749">
-        <v>5223982</v>
+        <v>5250609</v>
       </c>
       <c r="F749" t="s">
         <v>28</v>
@@ -27367,13 +27367,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="D751">
         <v>872</v>
       </c>
       <c r="E751">
-        <v>6661566</v>
+        <v>6665581</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27472,13 +27472,13 @@
         <v>12</v>
       </c>
       <c r="C754">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="D754">
         <v>486</v>
       </c>
       <c r="E754">
-        <v>10800472</v>
+        <v>10807082</v>
       </c>
       <c r="F754" t="s">
         <v>28</v>
@@ -27507,13 +27507,13 @@
         <v>12</v>
       </c>
       <c r="C755">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D755">
         <v>159</v>
       </c>
       <c r="E755">
-        <v>4522449</v>
+        <v>4534932</v>
       </c>
       <c r="F755" t="s">
         <v>28</v>
@@ -27647,13 +27647,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>12644</v>
+        <v>12656</v>
       </c>
       <c r="D759">
         <v>2550</v>
       </c>
       <c r="E759">
-        <v>42123235</v>
+        <v>42187661</v>
       </c>
       <c r="F759" t="s">
         <v>29</v>
@@ -27682,13 +27682,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>29968</v>
+        <v>29997</v>
       </c>
       <c r="D760">
         <v>6507</v>
       </c>
       <c r="E760">
-        <v>129391609</v>
+        <v>129594314</v>
       </c>
       <c r="F760" t="s">
         <v>29</v>
@@ -27717,13 +27717,13 @@
         <v>12</v>
       </c>
       <c r="C761">
-        <v>13625</v>
+        <v>13640</v>
       </c>
       <c r="D761">
         <v>2729</v>
       </c>
       <c r="E761">
-        <v>80371152</v>
+        <v>80630550</v>
       </c>
       <c r="F761" t="s">
         <v>29</v>
@@ -27752,13 +27752,13 @@
         <v>12</v>
       </c>
       <c r="C762">
-        <v>4796</v>
+        <v>4798</v>
       </c>
       <c r="D762">
         <v>969</v>
       </c>
       <c r="E762">
-        <v>41094085</v>
+        <v>41112585</v>
       </c>
       <c r="F762" t="s">
         <v>29</v>
@@ -27787,13 +27787,13 @@
         <v>12</v>
       </c>
       <c r="C763">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="D763">
         <v>439</v>
       </c>
       <c r="E763">
-        <v>35800752</v>
+        <v>35845196</v>
       </c>
       <c r="F763" t="s">
         <v>29</v>
@@ -27822,13 +27822,13 @@
         <v>12</v>
       </c>
       <c r="C764">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D764">
         <v>168</v>
       </c>
       <c r="E764">
-        <v>34390395</v>
+        <v>34410005</v>
       </c>
       <c r="F764" t="s">
         <v>29</v>
@@ -27927,13 +27927,13 @@
         <v>12</v>
       </c>
       <c r="C767">
-        <v>8194</v>
+        <v>8197</v>
       </c>
       <c r="D767">
         <v>1980</v>
       </c>
       <c r="E767">
-        <v>16368774</v>
+        <v>16388940</v>
       </c>
       <c r="F767" t="s">
         <v>29</v>
@@ -27962,13 +27962,13 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>5501</v>
+        <v>5507</v>
       </c>
       <c r="D768">
         <v>1161</v>
       </c>
       <c r="E768">
-        <v>17418482</v>
+        <v>17464367</v>
       </c>
       <c r="F768" t="s">
         <v>29</v>
@@ -27997,13 +27997,13 @@
         <v>12</v>
       </c>
       <c r="C769">
-        <v>17272</v>
+        <v>17291</v>
       </c>
       <c r="D769">
         <v>3729</v>
       </c>
       <c r="E769">
-        <v>72930066</v>
+        <v>73120490</v>
       </c>
       <c r="F769" t="s">
         <v>29</v>
@@ -28032,13 +28032,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>6465</v>
+        <v>6467</v>
       </c>
       <c r="D770">
         <v>1453</v>
       </c>
       <c r="E770">
-        <v>36683855</v>
+        <v>36701038</v>
       </c>
       <c r="F770" t="s">
         <v>29</v>
@@ -28067,13 +28067,13 @@
         <v>12</v>
       </c>
       <c r="C771">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D771">
         <v>514</v>
       </c>
       <c r="E771">
-        <v>18493442</v>
+        <v>18503442</v>
       </c>
       <c r="F771" t="s">
         <v>29</v>
@@ -28137,13 +28137,13 @@
         <v>12</v>
       </c>
       <c r="C773">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D773">
         <v>86</v>
       </c>
       <c r="E773">
-        <v>14750853</v>
+        <v>14793630</v>
       </c>
       <c r="F773" t="s">
         <v>29</v>
@@ -28172,13 +28172,13 @@
         <v>12</v>
       </c>
       <c r="C774">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D774">
         <v>17</v>
       </c>
       <c r="E774">
-        <v>3345213</v>
+        <v>3474136</v>
       </c>
       <c r="F774" t="s">
         <v>29</v>
@@ -28207,13 +28207,13 @@
         <v>12</v>
       </c>
       <c r="C775">
-        <v>4812</v>
+        <v>4816</v>
       </c>
       <c r="D775">
         <v>1141</v>
       </c>
       <c r="E775">
-        <v>9950990</v>
+        <v>9962183</v>
       </c>
       <c r="F775" t="s">
         <v>29</v>
@@ -28277,13 +28277,13 @@
         <v>12</v>
       </c>
       <c r="C777">
-        <v>5744</v>
+        <v>5750</v>
       </c>
       <c r="D777">
         <v>1313</v>
       </c>
       <c r="E777">
-        <v>22348552</v>
+        <v>22392725</v>
       </c>
       <c r="F777" t="s">
         <v>29</v>
@@ -28312,13 +28312,13 @@
         <v>12</v>
       </c>
       <c r="C778">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="D778">
         <v>505</v>
       </c>
       <c r="E778">
-        <v>11449940</v>
+        <v>11488015</v>
       </c>
       <c r="F778" t="s">
         <v>29</v>
@@ -28382,13 +28382,13 @@
         <v>12</v>
       </c>
       <c r="C780">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D780">
         <v>60</v>
       </c>
       <c r="E780">
-        <v>3788349</v>
+        <v>3805076</v>
       </c>
       <c r="F780" t="s">
         <v>29</v>
@@ -28452,13 +28452,13 @@
         <v>12</v>
       </c>
       <c r="C782">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="D782">
         <v>401</v>
       </c>
       <c r="E782">
-        <v>3433666</v>
+        <v>3435541</v>
       </c>
       <c r="F782" t="s">
         <v>29</v>
@@ -28487,13 +28487,13 @@
         <v>12</v>
       </c>
       <c r="C783">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="D783">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E783">
-        <v>12572134</v>
+        <v>12582266</v>
       </c>
       <c r="F783" t="s">
         <v>29</v>
@@ -28522,13 +28522,13 @@
         <v>12</v>
       </c>
       <c r="C784">
-        <v>10069</v>
+        <v>10077</v>
       </c>
       <c r="D784">
         <v>2109</v>
       </c>
       <c r="E784">
-        <v>41585968</v>
+        <v>41640077</v>
       </c>
       <c r="F784" t="s">
         <v>29</v>
@@ -28557,13 +28557,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="D785">
         <v>846</v>
       </c>
       <c r="E785">
-        <v>21472996</v>
+        <v>21486224</v>
       </c>
       <c r="F785" t="s">
         <v>29</v>
@@ -28592,13 +28592,13 @@
         <v>12</v>
       </c>
       <c r="C786">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D786">
         <v>281</v>
       </c>
       <c r="E786">
-        <v>9217090</v>
+        <v>9227090</v>
       </c>
       <c r="F786" t="s">
         <v>29</v>
@@ -28627,13 +28627,13 @@
         <v>12</v>
       </c>
       <c r="C787">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D787">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E787">
-        <v>11919581</v>
+        <v>11992518</v>
       </c>
       <c r="F787" t="s">
         <v>29</v>
@@ -28697,13 +28697,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="D789">
         <v>663</v>
       </c>
       <c r="E789">
-        <v>4976698</v>
+        <v>4978198</v>
       </c>
       <c r="F789" t="s">
         <v>29</v>
@@ -28732,13 +28732,13 @@
         <v>12</v>
       </c>
       <c r="C790">
-        <v>8513</v>
+        <v>8517</v>
       </c>
       <c r="D790">
         <v>1584</v>
       </c>
       <c r="E790">
-        <v>32985217</v>
+        <v>32992776</v>
       </c>
       <c r="F790" t="s">
         <v>29</v>
@@ -28767,13 +28767,13 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>15661</v>
+        <v>15675</v>
       </c>
       <c r="D791">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E791">
-        <v>67804364</v>
+        <v>67897536</v>
       </c>
       <c r="F791" t="s">
         <v>29</v>
@@ -28802,13 +28802,13 @@
         <v>12</v>
       </c>
       <c r="C792">
-        <v>6994</v>
+        <v>7004</v>
       </c>
       <c r="D792">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E792">
-        <v>43168092</v>
+        <v>43262605</v>
       </c>
       <c r="F792" t="s">
         <v>29</v>
@@ -28837,13 +28837,13 @@
         <v>12</v>
       </c>
       <c r="C793">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="D793">
         <v>477</v>
       </c>
       <c r="E793">
-        <v>18897427</v>
+        <v>18968286</v>
       </c>
       <c r="F793" t="s">
         <v>29</v>
@@ -28872,13 +28872,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D794">
         <v>179</v>
       </c>
       <c r="E794">
-        <v>17499777</v>
+        <v>17535435</v>
       </c>
       <c r="F794" t="s">
         <v>29</v>
@@ -28907,13 +28907,13 @@
         <v>12</v>
       </c>
       <c r="C795">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D795">
         <v>78</v>
       </c>
       <c r="E795">
-        <v>12285487</v>
+        <v>12327324</v>
       </c>
       <c r="F795" t="s">
         <v>29</v>
@@ -29012,13 +29012,13 @@
         <v>12</v>
       </c>
       <c r="C798">
-        <v>4131</v>
+        <v>4140</v>
       </c>
       <c r="D798">
         <v>1033</v>
       </c>
       <c r="E798">
-        <v>8234278</v>
+        <v>8248194</v>
       </c>
       <c r="F798" t="s">
         <v>29</v>
@@ -29047,13 +29047,13 @@
         <v>12</v>
       </c>
       <c r="C799">
-        <v>4160</v>
+        <v>4167</v>
       </c>
       <c r="D799">
         <v>730</v>
       </c>
       <c r="E799">
-        <v>15175747</v>
+        <v>15216634</v>
       </c>
       <c r="F799" t="s">
         <v>30</v>
@@ -29082,13 +29082,13 @@
         <v>12</v>
       </c>
       <c r="C800">
-        <v>7581</v>
+        <v>7588</v>
       </c>
       <c r="D800">
         <v>1416</v>
       </c>
       <c r="E800">
-        <v>32146174</v>
+        <v>32183907</v>
       </c>
       <c r="F800" t="s">
         <v>30</v>
@@ -29117,13 +29117,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="D801">
         <v>467</v>
       </c>
       <c r="E801">
-        <v>15308682</v>
+        <v>15337104</v>
       </c>
       <c r="F801" t="s">
         <v>30</v>
@@ -29152,13 +29152,13 @@
         <v>12</v>
       </c>
       <c r="C802">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D802">
         <v>125</v>
       </c>
       <c r="E802">
-        <v>4426359</v>
+        <v>4446359</v>
       </c>
       <c r="F802" t="s">
         <v>30</v>
@@ -29187,13 +29187,13 @@
         <v>12</v>
       </c>
       <c r="C803">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D803">
         <v>47</v>
       </c>
       <c r="E803">
-        <v>4074665</v>
+        <v>4108962</v>
       </c>
       <c r="F803" t="s">
         <v>30</v>
@@ -29257,13 +29257,13 @@
         <v>12</v>
       </c>
       <c r="C805">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D805">
         <v>3</v>
       </c>
       <c r="E805">
-        <v>449114</v>
+        <v>569953</v>
       </c>
       <c r="F805" t="s">
         <v>30</v>
@@ -29292,13 +29292,13 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="D806">
         <v>561</v>
       </c>
       <c r="E806">
-        <v>5719546</v>
+        <v>5720876</v>
       </c>
       <c r="F806" t="s">
         <v>30</v>
@@ -29327,13 +29327,13 @@
         <v>12</v>
       </c>
       <c r="C807">
-        <v>23683</v>
+        <v>23703</v>
       </c>
       <c r="D807">
         <v>4080</v>
       </c>
       <c r="E807">
-        <v>80292601</v>
+        <v>80399428</v>
       </c>
       <c r="F807" t="s">
         <v>30</v>
@@ -29362,13 +29362,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>56458</v>
+        <v>56507</v>
       </c>
       <c r="D808">
-        <v>10158</v>
+        <v>10159</v>
       </c>
       <c r="E808">
-        <v>228423437</v>
+        <v>228770136</v>
       </c>
       <c r="F808" t="s">
         <v>30</v>
@@ -29397,13 +29397,13 @@
         <v>12</v>
       </c>
       <c r="C809">
-        <v>20273</v>
+        <v>20288</v>
       </c>
       <c r="D809">
         <v>3479</v>
       </c>
       <c r="E809">
-        <v>125643802</v>
+        <v>125768089</v>
       </c>
       <c r="F809" t="s">
         <v>30</v>
@@ -29432,13 +29432,13 @@
         <v>12</v>
       </c>
       <c r="C810">
-        <v>7984</v>
+        <v>7997</v>
       </c>
       <c r="D810">
         <v>1269</v>
       </c>
       <c r="E810">
-        <v>73554211</v>
+        <v>73706553</v>
       </c>
       <c r="F810" t="s">
         <v>30</v>
@@ -29467,13 +29467,13 @@
         <v>12</v>
       </c>
       <c r="C811">
-        <v>4307</v>
+        <v>4314</v>
       </c>
       <c r="D811">
         <v>698</v>
       </c>
       <c r="E811">
-        <v>78771497</v>
+        <v>78977013</v>
       </c>
       <c r="F811" t="s">
         <v>30</v>
@@ -29502,13 +29502,13 @@
         <v>12</v>
       </c>
       <c r="C812">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D812">
         <v>247</v>
       </c>
       <c r="E812">
-        <v>66000942</v>
+        <v>66130646</v>
       </c>
       <c r="F812" t="s">
         <v>30</v>
@@ -29537,13 +29537,13 @@
         <v>12</v>
       </c>
       <c r="C813">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D813">
         <v>41</v>
       </c>
       <c r="E813">
-        <v>16600939</v>
+        <v>16600940</v>
       </c>
       <c r="F813" t="s">
         <v>30</v>
@@ -29677,13 +29677,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>17331</v>
+        <v>17344</v>
       </c>
       <c r="D817">
         <v>3463</v>
       </c>
       <c r="E817">
-        <v>34036739</v>
+        <v>34061727</v>
       </c>
       <c r="F817" t="s">
         <v>30</v>
@@ -29712,13 +29712,13 @@
         <v>12</v>
       </c>
       <c r="C818">
-        <v>26269</v>
+        <v>26287</v>
       </c>
       <c r="D818">
         <v>5045</v>
       </c>
       <c r="E818">
-        <v>82175867</v>
+        <v>82314978</v>
       </c>
       <c r="F818" t="s">
         <v>30</v>
@@ -29747,13 +29747,13 @@
         <v>12</v>
       </c>
       <c r="C819">
-        <v>72328</v>
+        <v>72375</v>
       </c>
       <c r="D819">
         <v>14052</v>
       </c>
       <c r="E819">
-        <v>274069351</v>
+        <v>274307288</v>
       </c>
       <c r="F819" t="s">
         <v>30</v>
@@ -29782,13 +29782,13 @@
         <v>12</v>
       </c>
       <c r="C820">
-        <v>26692</v>
+        <v>26706</v>
       </c>
       <c r="D820">
         <v>5045</v>
       </c>
       <c r="E820">
-        <v>150961125</v>
+        <v>151073991</v>
       </c>
       <c r="F820" t="s">
         <v>30</v>
@@ -29817,13 +29817,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>9213</v>
+        <v>9220</v>
       </c>
       <c r="D821">
         <v>1679</v>
       </c>
       <c r="E821">
-        <v>76254314</v>
+        <v>76375035</v>
       </c>
       <c r="F821" t="s">
         <v>30</v>
@@ -29852,13 +29852,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>4739</v>
+        <v>4752</v>
       </c>
       <c r="D822">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E822">
-        <v>70873012</v>
+        <v>71159021</v>
       </c>
       <c r="F822" t="s">
         <v>30</v>
@@ -29887,13 +29887,13 @@
         <v>12</v>
       </c>
       <c r="C823">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D823">
         <v>279</v>
       </c>
       <c r="E823">
-        <v>53545744</v>
+        <v>53555744</v>
       </c>
       <c r="F823" t="s">
         <v>30</v>
@@ -30097,13 +30097,13 @@
         <v>12</v>
       </c>
       <c r="C829">
-        <v>20003</v>
+        <v>20014</v>
       </c>
       <c r="D829">
         <v>4313</v>
       </c>
       <c r="E829">
-        <v>36336007</v>
+        <v>36362473</v>
       </c>
       <c r="F829" t="s">
         <v>30</v>
@@ -30132,13 +30132,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="D830">
         <v>677</v>
       </c>
       <c r="E830">
-        <v>15399501</v>
+        <v>15424134</v>
       </c>
       <c r="F830" t="s">
         <v>30</v>
@@ -30167,13 +30167,13 @@
         <v>12</v>
       </c>
       <c r="C831">
-        <v>8197</v>
+        <v>8206</v>
       </c>
       <c r="D831">
         <v>1457</v>
       </c>
       <c r="E831">
-        <v>39462092</v>
+        <v>39518366</v>
       </c>
       <c r="F831" t="s">
         <v>30</v>
@@ -30202,13 +30202,13 @@
         <v>12</v>
       </c>
       <c r="C832">
-        <v>3806</v>
+        <v>3812</v>
       </c>
       <c r="D832">
         <v>615</v>
       </c>
       <c r="E832">
-        <v>25488390</v>
+        <v>25544747</v>
       </c>
       <c r="F832" t="s">
         <v>30</v>
@@ -30237,13 +30237,13 @@
         <v>12</v>
       </c>
       <c r="C833">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D833">
         <v>248</v>
       </c>
       <c r="E833">
-        <v>15076675</v>
+        <v>15091710</v>
       </c>
       <c r="F833" t="s">
         <v>30</v>
@@ -30272,13 +30272,13 @@
         <v>12</v>
       </c>
       <c r="C834">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D834">
         <v>126</v>
       </c>
       <c r="E834">
-        <v>10997258</v>
+        <v>11029898</v>
       </c>
       <c r="F834" t="s">
         <v>30</v>
@@ -30412,13 +30412,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>6384</v>
+        <v>6391</v>
       </c>
       <c r="D838">
         <v>1012</v>
       </c>
       <c r="E838">
-        <v>15277468</v>
+        <v>15297159</v>
       </c>
       <c r="F838" t="s">
         <v>30</v>
@@ -30447,13 +30447,13 @@
         <v>12</v>
       </c>
       <c r="C839">
-        <v>23691</v>
+        <v>23715</v>
       </c>
       <c r="D839">
         <v>4386</v>
       </c>
       <c r="E839">
-        <v>84058114</v>
+        <v>84182729</v>
       </c>
       <c r="F839" t="s">
         <v>30</v>
@@ -30482,13 +30482,13 @@
         <v>12</v>
       </c>
       <c r="C840">
-        <v>43039</v>
+        <v>43094</v>
       </c>
       <c r="D840">
         <v>8885</v>
       </c>
       <c r="E840">
-        <v>171789040</v>
+        <v>172158865</v>
       </c>
       <c r="F840" t="s">
         <v>30</v>
@@ -30517,13 +30517,13 @@
         <v>12</v>
       </c>
       <c r="C841">
-        <v>14117</v>
+        <v>14135</v>
       </c>
       <c r="D841">
         <v>2865</v>
       </c>
       <c r="E841">
-        <v>84678865</v>
+        <v>84977094</v>
       </c>
       <c r="F841" t="s">
         <v>30</v>
@@ -30552,13 +30552,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>4624</v>
+        <v>4631</v>
       </c>
       <c r="D842">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E842">
-        <v>42077501</v>
+        <v>42186901</v>
       </c>
       <c r="F842" t="s">
         <v>30</v>
@@ -30587,13 +30587,13 @@
         <v>12</v>
       </c>
       <c r="C843">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="D843">
         <v>392</v>
       </c>
       <c r="E843">
-        <v>34416259</v>
+        <v>34455257</v>
       </c>
       <c r="F843" t="s">
         <v>30</v>
@@ -30622,13 +30622,13 @@
         <v>12</v>
       </c>
       <c r="C844">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D844">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E844">
-        <v>32304645</v>
+        <v>32393279</v>
       </c>
       <c r="F844" t="s">
         <v>30</v>
@@ -30727,13 +30727,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>11723</v>
+        <v>11737</v>
       </c>
       <c r="D847">
         <v>2725</v>
       </c>
       <c r="E847">
-        <v>22234919</v>
+        <v>22282264</v>
       </c>
       <c r="F847" t="s">
         <v>30</v>
@@ -30762,13 +30762,13 @@
         <v>12</v>
       </c>
       <c r="C848">
-        <v>10117</v>
+        <v>10125</v>
       </c>
       <c r="D848">
         <v>1876</v>
       </c>
       <c r="E848">
-        <v>34659431</v>
+        <v>34700681</v>
       </c>
       <c r="F848" t="s">
         <v>30</v>
@@ -30797,13 +30797,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>25175</v>
+        <v>25189</v>
       </c>
       <c r="D849">
         <v>4887</v>
       </c>
       <c r="E849">
-        <v>101141256</v>
+        <v>101205505</v>
       </c>
       <c r="F849" t="s">
         <v>30</v>
@@ -30832,13 +30832,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>7761</v>
+        <v>7767</v>
       </c>
       <c r="D850">
         <v>1556</v>
       </c>
       <c r="E850">
-        <v>43585555</v>
+        <v>43613832</v>
       </c>
       <c r="F850" t="s">
         <v>30</v>
@@ -30902,13 +30902,13 @@
         <v>12</v>
       </c>
       <c r="C852">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D852">
         <v>184</v>
       </c>
       <c r="E852">
-        <v>15679560</v>
+        <v>15859179</v>
       </c>
       <c r="F852" t="s">
         <v>30</v>
@@ -30937,13 +30937,13 @@
         <v>12</v>
       </c>
       <c r="C853">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D853">
         <v>73</v>
       </c>
       <c r="E853">
-        <v>12181741</v>
+        <v>12227034</v>
       </c>
       <c r="F853" t="s">
         <v>30</v>
@@ -30972,13 +30972,13 @@
         <v>12</v>
       </c>
       <c r="C854">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D854">
         <v>9</v>
       </c>
       <c r="E854">
-        <v>3686422</v>
+        <v>3852315</v>
       </c>
       <c r="F854" t="s">
         <v>30</v>
@@ -31007,13 +31007,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>7055</v>
+        <v>7059</v>
       </c>
       <c r="D855">
         <v>1592</v>
       </c>
       <c r="E855">
-        <v>14539509</v>
+        <v>14550173</v>
       </c>
       <c r="F855" t="s">
         <v>30</v>

--- a/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-30/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1152,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3142</v>
+        <v>3148</v>
       </c>
       <c r="D2">
         <v>723</v>
       </c>
       <c r="E2">
-        <v>9112897</v>
+        <v>9130397</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1187,13 +1187,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>14640</v>
+        <v>14655</v>
       </c>
       <c r="D3">
         <v>3050</v>
       </c>
       <c r="E3">
-        <v>58495212</v>
+        <v>58586346</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1222,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5882</v>
+        <v>5889</v>
       </c>
       <c r="D4">
         <v>1166</v>
       </c>
       <c r="E4">
-        <v>32260406</v>
+        <v>32325326</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1257,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="D5">
         <v>348</v>
       </c>
       <c r="E5">
-        <v>13301841</v>
+        <v>13327539</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1292,13 +1292,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>12241641</v>
+        <v>12251641</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1397,13 +1397,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2793</v>
+        <v>2798</v>
       </c>
       <c r="D9">
         <v>721</v>
       </c>
       <c r="E9">
-        <v>7096846</v>
+        <v>7107109</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1432,13 +1432,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="D10">
         <v>593</v>
       </c>
       <c r="E10">
-        <v>9239658</v>
+        <v>9251158</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1467,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>8989</v>
+        <v>8998</v>
       </c>
       <c r="D11">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E11">
-        <v>33799438</v>
+        <v>33839256</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1502,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="D12">
         <v>576</v>
       </c>
       <c r="E12">
-        <v>12489177</v>
+        <v>12512628</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1572,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D14">
         <v>77</v>
       </c>
       <c r="E14">
-        <v>4982342</v>
+        <v>5011701</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1677,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>4920</v>
+        <v>4922</v>
       </c>
       <c r="D17">
         <v>1235</v>
       </c>
       <c r="E17">
-        <v>8384541</v>
+        <v>8388246</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1712,13 +1712,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>7270</v>
+        <v>7285</v>
       </c>
       <c r="D18">
         <v>1192</v>
       </c>
       <c r="E18">
-        <v>28594094</v>
+        <v>28660322</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1747,13 +1747,13 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>10894</v>
+        <v>10907</v>
       </c>
       <c r="D19">
         <v>2135</v>
       </c>
       <c r="E19">
-        <v>47340851</v>
+        <v>47436218</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1782,13 +1782,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>3042</v>
+        <v>3051</v>
       </c>
       <c r="D20">
         <v>666</v>
       </c>
       <c r="E20">
-        <v>16417699</v>
+        <v>16504100</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1957,13 +1957,13 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>3852</v>
+        <v>3859</v>
       </c>
       <c r="D25">
         <v>843</v>
       </c>
       <c r="E25">
-        <v>7363696</v>
+        <v>7380699</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1992,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="D26">
         <v>353</v>
       </c>
       <c r="E26">
-        <v>6335792</v>
+        <v>6355992</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2027,13 +2027,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>5139</v>
+        <v>5143</v>
       </c>
       <c r="D27">
         <v>1031</v>
       </c>
       <c r="E27">
-        <v>21203978</v>
+        <v>21235478</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2097,13 +2097,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D29">
         <v>101</v>
       </c>
       <c r="E29">
-        <v>3084887</v>
+        <v>3098923</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2132,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D30">
         <v>37</v>
       </c>
       <c r="E30">
-        <v>2470681</v>
+        <v>2512487</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -2202,13 +2202,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>5419</v>
+        <v>5428</v>
       </c>
       <c r="D32">
         <v>1227</v>
       </c>
       <c r="E32">
-        <v>9207213</v>
+        <v>9228722</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2237,13 +2237,13 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>7966</v>
+        <v>7982</v>
       </c>
       <c r="D33">
         <v>1535</v>
       </c>
       <c r="E33">
-        <v>25670702</v>
+        <v>25785858</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -2272,13 +2272,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>16280</v>
+        <v>16307</v>
       </c>
       <c r="D34">
         <v>3367</v>
       </c>
       <c r="E34">
-        <v>65800439</v>
+        <v>66013155</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2307,13 +2307,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>5670</v>
+        <v>5681</v>
       </c>
       <c r="D35">
         <v>1167</v>
       </c>
       <c r="E35">
-        <v>30415124</v>
+        <v>30504904</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2342,13 +2342,13 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D36">
         <v>363</v>
       </c>
       <c r="E36">
-        <v>13497669</v>
+        <v>13516022</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -2377,13 +2377,13 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D37">
         <v>160</v>
       </c>
       <c r="E37">
-        <v>10146458</v>
+        <v>10160222</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -2517,13 +2517,13 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>5509</v>
+        <v>5518</v>
       </c>
       <c r="D41">
         <v>1170</v>
       </c>
       <c r="E41">
-        <v>9794173</v>
+        <v>9812902</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -2552,13 +2552,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="D42">
         <v>580</v>
       </c>
       <c r="E42">
-        <v>10165926</v>
+        <v>10184455</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2587,13 +2587,13 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>6844</v>
+        <v>6850</v>
       </c>
       <c r="D43">
         <v>1407</v>
       </c>
       <c r="E43">
-        <v>26971388</v>
+        <v>27018413</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2622,13 +2622,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="D44">
         <v>449</v>
       </c>
       <c r="E44">
-        <v>11095601</v>
+        <v>11106879</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2657,13 +2657,13 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D45">
         <v>130</v>
       </c>
       <c r="E45">
-        <v>4823208</v>
+        <v>4833208</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -2692,13 +2692,13 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D46">
         <v>39</v>
       </c>
       <c r="E46">
-        <v>1600414</v>
+        <v>1623681</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2762,13 +2762,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>2936</v>
+        <v>2941</v>
       </c>
       <c r="D48">
         <v>696</v>
       </c>
       <c r="E48">
-        <v>5697581</v>
+        <v>5717819</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2797,13 +2797,13 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>11514</v>
+        <v>11525</v>
       </c>
       <c r="D49">
         <v>2181</v>
       </c>
       <c r="E49">
-        <v>43893917</v>
+        <v>43945146</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -2832,13 +2832,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>26149</v>
+        <v>26166</v>
       </c>
       <c r="D50">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="E50">
-        <v>124839260</v>
+        <v>124954269</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2867,13 +2867,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>13531</v>
+        <v>13546</v>
       </c>
       <c r="D51">
         <v>2376</v>
       </c>
       <c r="E51">
-        <v>92024070</v>
+        <v>92155489</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2902,13 +2902,13 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>6066</v>
+        <v>6070</v>
       </c>
       <c r="D52">
         <v>1004</v>
       </c>
       <c r="E52">
-        <v>62329616</v>
+        <v>62449648</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -2937,13 +2937,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="D53">
         <v>592</v>
       </c>
       <c r="E53">
-        <v>64392435</v>
+        <v>64433917</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55">
         <v>34</v>
       </c>
       <c r="E55">
-        <v>14857401</v>
+        <v>15009011</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -3147,13 +3147,13 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>14391</v>
+        <v>14401</v>
       </c>
       <c r="D59">
         <v>2612</v>
       </c>
       <c r="E59">
-        <v>36128414</v>
+        <v>36168799</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -3182,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>13859</v>
+        <v>13869</v>
       </c>
       <c r="D60">
         <v>2901</v>
       </c>
       <c r="E60">
-        <v>42765346</v>
+        <v>42811628</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -3217,13 +3217,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>33924</v>
+        <v>33959</v>
       </c>
       <c r="D61">
         <v>6989</v>
       </c>
       <c r="E61">
-        <v>140244280</v>
+        <v>140520318</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3252,13 +3252,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>13647</v>
+        <v>13657</v>
       </c>
       <c r="D62">
         <v>2704</v>
       </c>
       <c r="E62">
-        <v>81403195</v>
+        <v>81505278</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3287,13 +3287,13 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>4844</v>
+        <v>4848</v>
       </c>
       <c r="D63">
         <v>903</v>
       </c>
       <c r="E63">
-        <v>40736805</v>
+        <v>40770574</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -3322,13 +3322,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="D64">
         <v>382</v>
       </c>
       <c r="E64">
-        <v>32299543</v>
+        <v>32403085</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3497,13 +3497,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>13257</v>
+        <v>13267</v>
       </c>
       <c r="D69">
         <v>2712</v>
       </c>
       <c r="E69">
-        <v>30549175</v>
+        <v>30585176</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3532,13 +3532,13 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>7414</v>
+        <v>7417</v>
       </c>
       <c r="D70">
         <v>1545</v>
       </c>
       <c r="E70">
-        <v>21987509</v>
+        <v>22009009</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>19201</v>
+        <v>19209</v>
       </c>
       <c r="D71">
         <v>4043</v>
       </c>
       <c r="E71">
-        <v>74343980</v>
+        <v>74403601</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -3602,13 +3602,13 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>6774</v>
+        <v>6782</v>
       </c>
       <c r="D72">
         <v>1510</v>
       </c>
       <c r="E72">
-        <v>35012111</v>
+        <v>35073333</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -3637,13 +3637,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="D73">
         <v>473</v>
       </c>
       <c r="E73">
-        <v>16210262</v>
+        <v>16220262</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3707,13 +3707,13 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D75">
         <v>57</v>
       </c>
       <c r="E75">
-        <v>8326939</v>
+        <v>8353823</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -3742,13 +3742,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
       <c r="E76">
-        <v>4808840</v>
+        <v>5008840</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3812,13 +3812,13 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>7226</v>
+        <v>7232</v>
       </c>
       <c r="D78">
         <v>1594</v>
       </c>
       <c r="E78">
-        <v>13671922</v>
+        <v>13687335</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -3847,13 +3847,13 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>6576</v>
+        <v>6582</v>
       </c>
       <c r="D79">
         <v>1280</v>
       </c>
       <c r="E79">
-        <v>20198107</v>
+        <v>20215480</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -3882,13 +3882,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>17636</v>
+        <v>17660</v>
       </c>
       <c r="D80">
         <v>3516</v>
       </c>
       <c r="E80">
-        <v>70862322</v>
+        <v>71013682</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -3917,13 +3917,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>6946</v>
+        <v>6953</v>
       </c>
       <c r="D81">
         <v>1393</v>
       </c>
       <c r="E81">
-        <v>40763835</v>
+        <v>40824179</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -3952,13 +3952,13 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="D82">
         <v>457</v>
       </c>
       <c r="E82">
-        <v>18119711</v>
+        <v>18153134</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>6703</v>
+        <v>6710</v>
       </c>
       <c r="D87">
         <v>1430</v>
       </c>
       <c r="E87">
-        <v>13476057</v>
+        <v>13487370</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4162,13 +4162,13 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>21678</v>
+        <v>21702</v>
       </c>
       <c r="D88">
         <v>4508</v>
       </c>
       <c r="E88">
-        <v>64140667</v>
+        <v>64234583</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4197,13 +4197,13 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>55134</v>
+        <v>55204</v>
       </c>
       <c r="D89">
-        <v>11338</v>
+        <v>11339</v>
       </c>
       <c r="E89">
-        <v>219599765</v>
+        <v>220065461</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4232,13 +4232,13 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>22750</v>
+        <v>22781</v>
       </c>
       <c r="D90">
         <v>4493</v>
       </c>
       <c r="E90">
-        <v>133953189</v>
+        <v>134224348</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4267,13 +4267,13 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>8629</v>
+        <v>8644</v>
       </c>
       <c r="D91">
         <v>1562</v>
       </c>
       <c r="E91">
-        <v>73537346</v>
+        <v>73761020</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -4302,13 +4302,13 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>4218</v>
+        <v>4222</v>
       </c>
       <c r="D92">
         <v>743</v>
       </c>
       <c r="E92">
-        <v>72516285</v>
+        <v>72618318</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -4547,13 +4547,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>16059</v>
+        <v>16076</v>
       </c>
       <c r="D99">
         <v>3452</v>
       </c>
       <c r="E99">
-        <v>33624005</v>
+        <v>33666031</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4582,13 +4582,13 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>8380</v>
+        <v>8391</v>
       </c>
       <c r="D100">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E100">
-        <v>30919848</v>
+        <v>30968033</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -4617,13 +4617,13 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>20453</v>
+        <v>20473</v>
       </c>
       <c r="D101">
         <v>3593</v>
       </c>
       <c r="E101">
-        <v>102359065</v>
+        <v>102506810</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -4652,13 +4652,13 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>11708</v>
+        <v>11722</v>
       </c>
       <c r="D102">
         <v>1850</v>
       </c>
       <c r="E102">
-        <v>88249560</v>
+        <v>88373915</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -4687,13 +4687,13 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>5800</v>
+        <v>5805</v>
       </c>
       <c r="D103">
         <v>929</v>
       </c>
       <c r="E103">
-        <v>67212964</v>
+        <v>67336942</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -4722,13 +4722,13 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="D104">
         <v>558</v>
       </c>
       <c r="E104">
-        <v>72756800</v>
+        <v>72896874</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -4757,13 +4757,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D105">
         <v>202</v>
       </c>
       <c r="E105">
-        <v>52569187</v>
+        <v>52633043</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4862,13 +4862,13 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108">
         <v>3</v>
       </c>
       <c r="E108">
-        <v>2575318</v>
+        <v>2775318</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -4897,13 +4897,13 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>22681</v>
+        <v>22706</v>
       </c>
       <c r="D109">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E109">
-        <v>66566433</v>
+        <v>66629086</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -4932,13 +4932,13 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>4697</v>
+        <v>4700</v>
       </c>
       <c r="D110">
         <v>977</v>
       </c>
       <c r="E110">
-        <v>15465373</v>
+        <v>15477116</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -4967,13 +4967,13 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>12580</v>
+        <v>12590</v>
       </c>
       <c r="D111">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="E111">
-        <v>55084879</v>
+        <v>55196252</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -5002,13 +5002,13 @@
         <v>12</v>
       </c>
       <c r="C112">
-        <v>5360</v>
+        <v>5366</v>
       </c>
       <c r="D112">
         <v>1071</v>
       </c>
       <c r="E112">
-        <v>32607569</v>
+        <v>32667569</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -5037,13 +5037,13 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="D113">
         <v>358</v>
       </c>
       <c r="E113">
-        <v>19290723</v>
+        <v>19323010</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -5072,13 +5072,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D114">
         <v>187</v>
       </c>
       <c r="E114">
-        <v>19017587</v>
+        <v>19038296</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
@@ -5177,13 +5177,13 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>4243</v>
+        <v>4253</v>
       </c>
       <c r="D117">
         <v>980</v>
       </c>
       <c r="E117">
-        <v>9006672</v>
+        <v>9054702</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -5212,13 +5212,13 @@
         <v>12</v>
       </c>
       <c r="C118">
-        <v>4250</v>
+        <v>4255</v>
       </c>
       <c r="D118">
         <v>833</v>
       </c>
       <c r="E118">
-        <v>13784140</v>
+        <v>13807196</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
@@ -5247,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>11046</v>
+        <v>11061</v>
       </c>
       <c r="D119">
         <v>2356</v>
       </c>
       <c r="E119">
-        <v>44077108</v>
+        <v>44155216</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -5282,13 +5282,13 @@
         <v>12</v>
       </c>
       <c r="C120">
-        <v>4640</v>
+        <v>4643</v>
       </c>
       <c r="D120">
         <v>893</v>
       </c>
       <c r="E120">
-        <v>26815087</v>
+        <v>26843837</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
@@ -5352,13 +5352,13 @@
         <v>12</v>
       </c>
       <c r="C122">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D122">
         <v>146</v>
       </c>
       <c r="E122">
-        <v>9267693</v>
+        <v>9301941</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -5457,13 +5457,13 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>3199</v>
+        <v>3204</v>
       </c>
       <c r="D125">
         <v>735</v>
       </c>
       <c r="E125">
-        <v>6331563</v>
+        <v>6342797</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
@@ -5527,13 +5527,13 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>4153</v>
+        <v>4158</v>
       </c>
       <c r="D127">
         <v>935</v>
       </c>
       <c r="E127">
-        <v>16240459</v>
+        <v>16276197</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -5702,13 +5702,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D132">
         <v>418</v>
       </c>
       <c r="E132">
-        <v>3214193</v>
+        <v>3215693</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5737,13 +5737,13 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>2710</v>
+        <v>2718</v>
       </c>
       <c r="D133">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E133">
-        <v>8186275</v>
+        <v>8213967</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -5772,13 +5772,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>6888</v>
+        <v>6893</v>
       </c>
       <c r="D134">
         <v>1402</v>
       </c>
       <c r="E134">
-        <v>28628387</v>
+        <v>28661305</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5842,13 +5842,13 @@
         <v>12</v>
       </c>
       <c r="C136">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D136">
         <v>171</v>
       </c>
       <c r="E136">
-        <v>6685369</v>
+        <v>6698413</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -5877,13 +5877,13 @@
         <v>12</v>
       </c>
       <c r="C137">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D137">
         <v>74</v>
       </c>
       <c r="E137">
-        <v>5921276</v>
+        <v>5959107</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -5912,13 +5912,13 @@
         <v>12</v>
       </c>
       <c r="C138">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D138">
         <v>28</v>
       </c>
       <c r="E138">
-        <v>4239747</v>
+        <v>4281975</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -5982,13 +5982,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>2296</v>
+        <v>2302</v>
       </c>
       <c r="D140">
         <v>485</v>
       </c>
       <c r="E140">
-        <v>4776448</v>
+        <v>4795476</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6052,13 +6052,13 @@
         <v>12</v>
       </c>
       <c r="C142">
-        <v>4789</v>
+        <v>4791</v>
       </c>
       <c r="D142">
         <v>1013</v>
       </c>
       <c r="E142">
-        <v>19780239</v>
+        <v>19783018</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -6087,13 +6087,13 @@
         <v>12</v>
       </c>
       <c r="C143">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D143">
         <v>354</v>
       </c>
       <c r="E143">
-        <v>8331371</v>
+        <v>8356724</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -6122,13 +6122,13 @@
         <v>12</v>
       </c>
       <c r="C144">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D144">
         <v>87</v>
       </c>
       <c r="E144">
-        <v>2603053</v>
+        <v>2613053</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -6227,13 +6227,13 @@
         <v>12</v>
       </c>
       <c r="C147">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="D147">
         <v>426</v>
       </c>
       <c r="E147">
-        <v>3955704</v>
+        <v>3963285</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6262,13 +6262,13 @@
         <v>12</v>
       </c>
       <c r="C148">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="D148">
         <v>986</v>
       </c>
       <c r="E148">
-        <v>17093233</v>
+        <v>17108288</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
@@ -6297,13 +6297,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>14590</v>
+        <v>14598</v>
       </c>
       <c r="D149">
         <v>2988</v>
       </c>
       <c r="E149">
-        <v>60199196</v>
+        <v>60279196</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6332,13 +6332,13 @@
         <v>12</v>
       </c>
       <c r="C150">
-        <v>5009</v>
+        <v>5015</v>
       </c>
       <c r="D150">
         <v>1035</v>
       </c>
       <c r="E150">
-        <v>28423114</v>
+        <v>28466114</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -6402,13 +6402,13 @@
         <v>12</v>
       </c>
       <c r="C152">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D152">
         <v>141</v>
       </c>
       <c r="E152">
-        <v>12029458</v>
+        <v>12050454</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -6507,13 +6507,13 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>5636</v>
+        <v>5643</v>
       </c>
       <c r="D155">
         <v>1270</v>
       </c>
       <c r="E155">
-        <v>11953427</v>
+        <v>11968254</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
@@ -6542,13 +6542,13 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D156">
         <v>205</v>
       </c>
       <c r="E156">
-        <v>2733402</v>
+        <v>2743402</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -6577,13 +6577,13 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="D157">
         <v>579</v>
       </c>
       <c r="E157">
-        <v>11971371</v>
+        <v>12007713</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -6612,13 +6612,13 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D158">
         <v>245</v>
       </c>
       <c r="E158">
-        <v>6460492</v>
+        <v>6480492</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -6647,13 +6647,13 @@
         <v>12</v>
       </c>
       <c r="C159">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D159">
         <v>72</v>
       </c>
       <c r="E159">
-        <v>3237828</v>
+        <v>3257828</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -6752,13 +6752,13 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D162">
         <v>172</v>
       </c>
       <c r="E162">
-        <v>1514507</v>
+        <v>1522873</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -6787,13 +6787,13 @@
         <v>12</v>
       </c>
       <c r="C163">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="D163">
         <v>560</v>
       </c>
       <c r="E163">
-        <v>8732662</v>
+        <v>8755338</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
@@ -6822,13 +6822,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>7845</v>
+        <v>7854</v>
       </c>
       <c r="D164">
         <v>1704</v>
       </c>
       <c r="E164">
-        <v>31738322</v>
+        <v>31820594</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6857,13 +6857,13 @@
         <v>12</v>
       </c>
       <c r="C165">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="D165">
         <v>562</v>
       </c>
       <c r="E165">
-        <v>15552905</v>
+        <v>15562905</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -6892,13 +6892,13 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D166">
         <v>193</v>
       </c>
       <c r="E166">
-        <v>6268817</v>
+        <v>6278817</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -6997,13 +6997,13 @@
         <v>12</v>
       </c>
       <c r="C169">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169">
-        <v>1063352</v>
+        <v>1119967</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -7032,13 +7032,13 @@
         <v>12</v>
       </c>
       <c r="C170">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="D170">
         <v>568</v>
       </c>
       <c r="E170">
-        <v>5407046</v>
+        <v>5413507</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7067,13 +7067,13 @@
         <v>12</v>
       </c>
       <c r="C171">
-        <v>6888</v>
+        <v>6896</v>
       </c>
       <c r="D171">
         <v>1266</v>
       </c>
       <c r="E171">
-        <v>26594346</v>
+        <v>26640047</v>
       </c>
       <c r="F171" t="s">
         <v>15</v>
@@ -7102,13 +7102,13 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>15489</v>
+        <v>15504</v>
       </c>
       <c r="D172">
         <v>3128</v>
       </c>
       <c r="E172">
-        <v>67646469</v>
+        <v>67750704</v>
       </c>
       <c r="F172" t="s">
         <v>15</v>
@@ -7137,13 +7137,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>5129</v>
+        <v>5130</v>
       </c>
       <c r="D173">
         <v>1047</v>
       </c>
       <c r="E173">
-        <v>30428605</v>
+        <v>30438605</v>
       </c>
       <c r="F173" t="s">
         <v>15</v>
@@ -7172,13 +7172,13 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D174">
         <v>349</v>
       </c>
       <c r="E174">
-        <v>12149628</v>
+        <v>12159628</v>
       </c>
       <c r="F174" t="s">
         <v>15</v>
@@ -7207,13 +7207,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D175">
         <v>115</v>
       </c>
       <c r="E175">
-        <v>10096961</v>
+        <v>10123052</v>
       </c>
       <c r="F175" t="s">
         <v>15</v>
@@ -7312,13 +7312,13 @@
         <v>12</v>
       </c>
       <c r="C178">
-        <v>5082</v>
+        <v>5088</v>
       </c>
       <c r="D178">
         <v>1188</v>
       </c>
       <c r="E178">
-        <v>10059392</v>
+        <v>10072103</v>
       </c>
       <c r="F178" t="s">
         <v>15</v>
@@ -7347,13 +7347,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>8978</v>
+        <v>8994</v>
       </c>
       <c r="D179">
         <v>1749</v>
       </c>
       <c r="E179">
-        <v>33416872</v>
+        <v>33522069</v>
       </c>
       <c r="F179" t="s">
         <v>15</v>
@@ -7382,13 +7382,13 @@
         <v>12</v>
       </c>
       <c r="C180">
-        <v>21493</v>
+        <v>21509</v>
       </c>
       <c r="D180">
         <v>4275</v>
       </c>
       <c r="E180">
-        <v>96113514</v>
+        <v>96238115</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -7417,13 +7417,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>8860</v>
+        <v>8867</v>
       </c>
       <c r="D181">
         <v>1772</v>
       </c>
       <c r="E181">
-        <v>53552349</v>
+        <v>53626113</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -7452,13 +7452,13 @@
         <v>12</v>
       </c>
       <c r="C182">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="D182">
         <v>557</v>
       </c>
       <c r="E182">
-        <v>24622523</v>
+        <v>24686538</v>
       </c>
       <c r="F182" t="s">
         <v>15</v>
@@ -7487,13 +7487,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D183">
         <v>258</v>
       </c>
       <c r="E183">
-        <v>18470459</v>
+        <v>18490459</v>
       </c>
       <c r="F183" t="s">
         <v>15</v>
@@ -7627,13 +7627,13 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>6501</v>
+        <v>6505</v>
       </c>
       <c r="D187">
         <v>1525</v>
       </c>
       <c r="E187">
-        <v>12973336</v>
+        <v>12981625</v>
       </c>
       <c r="F187" t="s">
         <v>15</v>
@@ -7662,13 +7662,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>8526</v>
+        <v>8538</v>
       </c>
       <c r="D188">
         <v>1662</v>
       </c>
       <c r="E188">
-        <v>29632481</v>
+        <v>29698633</v>
       </c>
       <c r="F188" t="s">
         <v>15</v>
@@ -7697,13 +7697,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>24100</v>
+        <v>24122</v>
       </c>
       <c r="D189">
         <v>4882</v>
       </c>
       <c r="E189">
-        <v>105817247</v>
+        <v>105987510</v>
       </c>
       <c r="F189" t="s">
         <v>15</v>
@@ -7732,13 +7732,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>10050</v>
+        <v>10055</v>
       </c>
       <c r="D190">
         <v>2046</v>
       </c>
       <c r="E190">
-        <v>61628622</v>
+        <v>61671971</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -7767,13 +7767,13 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>4051</v>
+        <v>4056</v>
       </c>
       <c r="D191">
         <v>785</v>
       </c>
       <c r="E191">
-        <v>35364888</v>
+        <v>35427558</v>
       </c>
       <c r="F191" t="s">
         <v>15</v>
@@ -7802,13 +7802,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D192">
         <v>407</v>
       </c>
       <c r="E192">
-        <v>32474496</v>
+        <v>32484496</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7977,13 +7977,13 @@
         <v>12</v>
       </c>
       <c r="C197">
-        <v>6578</v>
+        <v>6590</v>
       </c>
       <c r="D197">
         <v>1484</v>
       </c>
       <c r="E197">
-        <v>13997412</v>
+        <v>14015336</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
@@ -8012,13 +8012,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>9859</v>
+        <v>9866</v>
       </c>
       <c r="D198">
         <v>1803</v>
       </c>
       <c r="E198">
-        <v>38868378</v>
+        <v>38909235</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8047,13 +8047,13 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>20411</v>
+        <v>20436</v>
       </c>
       <c r="D199">
         <v>4151</v>
       </c>
       <c r="E199">
-        <v>91749900</v>
+        <v>91904948</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
@@ -8082,13 +8082,13 @@
         <v>12</v>
       </c>
       <c r="C200">
-        <v>7900</v>
+        <v>7915</v>
       </c>
       <c r="D200">
         <v>1607</v>
       </c>
       <c r="E200">
-        <v>47176658</v>
+        <v>47307221</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -8117,13 +8117,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D201">
         <v>542</v>
       </c>
       <c r="E201">
-        <v>22684472</v>
+        <v>22704472</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -8152,13 +8152,13 @@
         <v>12</v>
       </c>
       <c r="C202">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D202">
         <v>203</v>
       </c>
       <c r="E202">
-        <v>16194177</v>
+        <v>16224522</v>
       </c>
       <c r="F202" t="s">
         <v>15</v>
@@ -8257,13 +8257,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>6262</v>
+        <v>6267</v>
       </c>
       <c r="D205">
         <v>1403</v>
       </c>
       <c r="E205">
-        <v>13158081</v>
+        <v>13177990</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8292,13 +8292,13 @@
         <v>12</v>
       </c>
       <c r="C206">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D206">
         <v>417</v>
       </c>
       <c r="E206">
-        <v>7139146</v>
+        <v>7142045</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -8327,13 +8327,13 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>6093</v>
+        <v>6097</v>
       </c>
       <c r="D207">
         <v>1323</v>
       </c>
       <c r="E207">
-        <v>24428959</v>
+        <v>24451732</v>
       </c>
       <c r="F207" t="s">
         <v>16</v>
@@ -8362,13 +8362,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="D208">
         <v>508</v>
       </c>
       <c r="E208">
-        <v>13448214</v>
+        <v>13468214</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -8397,13 +8397,13 @@
         <v>12</v>
       </c>
       <c r="C209">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D209">
         <v>171</v>
       </c>
       <c r="E209">
-        <v>5458390</v>
+        <v>5468390</v>
       </c>
       <c r="F209" t="s">
         <v>16</v>
@@ -8502,13 +8502,13 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="D212">
         <v>585</v>
       </c>
       <c r="E212">
-        <v>4734275</v>
+        <v>4739628</v>
       </c>
       <c r="F212" t="s">
         <v>16</v>
@@ -8537,13 +8537,13 @@
         <v>12</v>
       </c>
       <c r="C213">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="D213">
         <v>566</v>
       </c>
       <c r="E213">
-        <v>7406193</v>
+        <v>7427580</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
@@ -8572,13 +8572,13 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>8037</v>
+        <v>8056</v>
       </c>
       <c r="D214">
         <v>1791</v>
       </c>
       <c r="E214">
-        <v>29830737</v>
+        <v>29933122</v>
       </c>
       <c r="F214" t="s">
         <v>16</v>
@@ -8607,13 +8607,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D215">
         <v>692</v>
       </c>
       <c r="E215">
-        <v>15993721</v>
+        <v>16003721</v>
       </c>
       <c r="F215" t="s">
         <v>16</v>
@@ -8642,13 +8642,13 @@
         <v>12</v>
       </c>
       <c r="C216">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D216">
         <v>216</v>
       </c>
       <c r="E216">
-        <v>7896003</v>
+        <v>7914556</v>
       </c>
       <c r="F216" t="s">
         <v>16</v>
@@ -8677,13 +8677,13 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D217">
         <v>60</v>
       </c>
       <c r="E217">
-        <v>5565218</v>
+        <v>5593936</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
@@ -8712,13 +8712,13 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D218">
         <v>27</v>
       </c>
       <c r="E218">
-        <v>4019413</v>
+        <v>4047744</v>
       </c>
       <c r="F218" t="s">
         <v>16</v>
@@ -8782,13 +8782,13 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="D220">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E220">
-        <v>4450160</v>
+        <v>4459511</v>
       </c>
       <c r="F220" t="s">
         <v>16</v>
@@ -8817,13 +8817,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D221">
         <v>285</v>
       </c>
       <c r="E221">
-        <v>4657434</v>
+        <v>4666766</v>
       </c>
       <c r="F221" t="s">
         <v>16</v>
@@ -8852,13 +8852,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>4636</v>
+        <v>4638</v>
       </c>
       <c r="D222">
         <v>973</v>
       </c>
       <c r="E222">
-        <v>17464948</v>
+        <v>17476448</v>
       </c>
       <c r="F222" t="s">
         <v>16</v>
@@ -8922,13 +8922,13 @@
         <v>12</v>
       </c>
       <c r="C224">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D224">
         <v>123</v>
       </c>
       <c r="E224">
-        <v>3120640</v>
+        <v>3146142</v>
       </c>
       <c r="F224" t="s">
         <v>16</v>
@@ -9062,13 +9062,13 @@
         <v>12</v>
       </c>
       <c r="C228">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="D228">
         <v>405</v>
       </c>
       <c r="E228">
-        <v>3557307</v>
+        <v>3559984</v>
       </c>
       <c r="F228" t="s">
         <v>16</v>
@@ -9097,13 +9097,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>5523</v>
+        <v>5529</v>
       </c>
       <c r="D229">
         <v>1073</v>
       </c>
       <c r="E229">
-        <v>18773200</v>
+        <v>18802499</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -9132,13 +9132,13 @@
         <v>12</v>
       </c>
       <c r="C230">
-        <v>14395</v>
+        <v>14416</v>
       </c>
       <c r="D230">
         <v>3031</v>
       </c>
       <c r="E230">
-        <v>60831005</v>
+        <v>60965089</v>
       </c>
       <c r="F230" t="s">
         <v>16</v>
@@ -9167,13 +9167,13 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>5963</v>
+        <v>5966</v>
       </c>
       <c r="D231">
         <v>1184</v>
       </c>
       <c r="E231">
-        <v>34232257</v>
+        <v>34262257</v>
       </c>
       <c r="F231" t="s">
         <v>16</v>
@@ -9272,13 +9272,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D234">
         <v>63</v>
       </c>
       <c r="E234">
-        <v>8686376</v>
+        <v>8717315</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9342,13 +9342,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>4549</v>
+        <v>4559</v>
       </c>
       <c r="D236">
         <v>1007</v>
       </c>
       <c r="E236">
-        <v>9835615</v>
+        <v>9848574</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9377,13 +9377,13 @@
         <v>12</v>
       </c>
       <c r="C237">
-        <v>4214</v>
+        <v>4221</v>
       </c>
       <c r="D237">
         <v>926</v>
       </c>
       <c r="E237">
-        <v>12917248</v>
+        <v>12962398</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
@@ -9412,13 +9412,13 @@
         <v>12</v>
       </c>
       <c r="C238">
-        <v>13099</v>
+        <v>13109</v>
       </c>
       <c r="D238">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="E238">
-        <v>50264056</v>
+        <v>50299329</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
@@ -9447,13 +9447,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>5740</v>
+        <v>5747</v>
       </c>
       <c r="D239">
         <v>1217</v>
       </c>
       <c r="E239">
-        <v>32742552</v>
+        <v>32804052</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9482,13 +9482,13 @@
         <v>12</v>
       </c>
       <c r="C240">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D240">
         <v>352</v>
       </c>
       <c r="E240">
-        <v>13620804</v>
+        <v>13630804</v>
       </c>
       <c r="F240" t="s">
         <v>16</v>
@@ -9587,13 +9587,13 @@
         <v>12</v>
       </c>
       <c r="C243">
-        <v>3971</v>
+        <v>3978</v>
       </c>
       <c r="D243">
         <v>891</v>
       </c>
       <c r="E243">
-        <v>7819988</v>
+        <v>7827846</v>
       </c>
       <c r="F243" t="s">
         <v>16</v>
@@ -9622,13 +9622,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="D244">
         <v>510</v>
       </c>
       <c r="E244">
-        <v>8893797</v>
+        <v>8903324</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9657,13 +9657,13 @@
         <v>12</v>
       </c>
       <c r="C245">
-        <v>7749</v>
+        <v>7762</v>
       </c>
       <c r="D245">
         <v>1678</v>
       </c>
       <c r="E245">
-        <v>31651211</v>
+        <v>31728742</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -9727,13 +9727,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D247">
         <v>172</v>
       </c>
       <c r="E247">
-        <v>4912305</v>
+        <v>4933963</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9867,13 +9867,13 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="D251">
         <v>541</v>
       </c>
       <c r="E251">
-        <v>4855440</v>
+        <v>4877210</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
@@ -9902,13 +9902,13 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>2963</v>
+        <v>2969</v>
       </c>
       <c r="D252">
         <v>484</v>
       </c>
       <c r="E252">
-        <v>10225618</v>
+        <v>10258752</v>
       </c>
       <c r="F252" t="s">
         <v>17</v>
@@ -9937,13 +9937,13 @@
         <v>12</v>
       </c>
       <c r="C253">
-        <v>11166</v>
+        <v>11179</v>
       </c>
       <c r="D253">
         <v>1886</v>
       </c>
       <c r="E253">
-        <v>47353523</v>
+        <v>47439372</v>
       </c>
       <c r="F253" t="s">
         <v>17</v>
@@ -9972,13 +9972,13 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>6612</v>
+        <v>6626</v>
       </c>
       <c r="D254">
         <v>1049</v>
       </c>
       <c r="E254">
-        <v>40742326</v>
+        <v>40872551</v>
       </c>
       <c r="F254" t="s">
         <v>17</v>
@@ -10007,13 +10007,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="D255">
         <v>377</v>
       </c>
       <c r="E255">
-        <v>19557698</v>
+        <v>19599789</v>
       </c>
       <c r="F255" t="s">
         <v>17</v>
@@ -10147,13 +10147,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="D259">
         <v>527</v>
       </c>
       <c r="E259">
-        <v>4502760</v>
+        <v>4507922</v>
       </c>
       <c r="F259" t="s">
         <v>17</v>
@@ -10182,13 +10182,13 @@
         <v>12</v>
       </c>
       <c r="C260">
-        <v>7186</v>
+        <v>7195</v>
       </c>
       <c r="D260">
         <v>1048</v>
       </c>
       <c r="E260">
-        <v>31072857</v>
+        <v>31109957</v>
       </c>
       <c r="F260" t="s">
         <v>17</v>
@@ -10217,13 +10217,13 @@
         <v>12</v>
       </c>
       <c r="C261">
-        <v>11302</v>
+        <v>11316</v>
       </c>
       <c r="D261">
         <v>1961</v>
       </c>
       <c r="E261">
-        <v>48645369</v>
+        <v>48732184</v>
       </c>
       <c r="F261" t="s">
         <v>17</v>
@@ -10252,13 +10252,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>3830</v>
+        <v>3834</v>
       </c>
       <c r="D262">
         <v>721</v>
       </c>
       <c r="E262">
-        <v>22909445</v>
+        <v>22937488</v>
       </c>
       <c r="F262" t="s">
         <v>17</v>
@@ -10287,13 +10287,13 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D263">
         <v>224</v>
       </c>
       <c r="E263">
-        <v>10573720</v>
+        <v>10629180</v>
       </c>
       <c r="F263" t="s">
         <v>17</v>
@@ -10392,13 +10392,13 @@
         <v>12</v>
       </c>
       <c r="C266">
-        <v>3889</v>
+        <v>3892</v>
       </c>
       <c r="D266">
         <v>713</v>
       </c>
       <c r="E266">
-        <v>7319708</v>
+        <v>7324306</v>
       </c>
       <c r="F266" t="s">
         <v>17</v>
@@ -10427,13 +10427,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D267">
         <v>365</v>
       </c>
       <c r="E267">
-        <v>4926311</v>
+        <v>4931568</v>
       </c>
       <c r="F267" t="s">
         <v>18</v>
@@ -10462,13 +10462,13 @@
         <v>12</v>
       </c>
       <c r="C268">
-        <v>5470</v>
+        <v>5479</v>
       </c>
       <c r="D268">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E268">
-        <v>19689375</v>
+        <v>19753340</v>
       </c>
       <c r="F268" t="s">
         <v>18</v>
@@ -10497,13 +10497,13 @@
         <v>12</v>
       </c>
       <c r="C269">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="D269">
         <v>434</v>
       </c>
       <c r="E269">
-        <v>9603658</v>
+        <v>9623658</v>
       </c>
       <c r="F269" t="s">
         <v>18</v>
@@ -10532,13 +10532,13 @@
         <v>12</v>
       </c>
       <c r="C270">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D270">
         <v>148</v>
       </c>
       <c r="E270">
-        <v>3832365</v>
+        <v>3842365</v>
       </c>
       <c r="F270" t="s">
         <v>18</v>
@@ -10637,13 +10637,13 @@
         <v>12</v>
       </c>
       <c r="C273">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="D273">
         <v>465</v>
       </c>
       <c r="E273">
-        <v>4298391</v>
+        <v>4309839</v>
       </c>
       <c r="F273" t="s">
         <v>18</v>
@@ -10672,13 +10672,13 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="D274">
         <v>653</v>
       </c>
       <c r="E274">
-        <v>10221519</v>
+        <v>10233019</v>
       </c>
       <c r="F274" t="s">
         <v>18</v>
@@ -10707,13 +10707,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>8409</v>
+        <v>8420</v>
       </c>
       <c r="D275">
         <v>1815</v>
       </c>
       <c r="E275">
-        <v>41386073</v>
+        <v>41470661</v>
       </c>
       <c r="F275" t="s">
         <v>18</v>
@@ -10742,13 +10742,13 @@
         <v>12</v>
       </c>
       <c r="C276">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="D276">
         <v>659</v>
       </c>
       <c r="E276">
-        <v>20465514</v>
+        <v>20485514</v>
       </c>
       <c r="F276" t="s">
         <v>18</v>
@@ -10777,13 +10777,13 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D277">
         <v>204</v>
       </c>
       <c r="E277">
-        <v>7463215</v>
+        <v>7474096</v>
       </c>
       <c r="F277" t="s">
         <v>18</v>
@@ -10882,13 +10882,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="D280">
         <v>1030</v>
       </c>
       <c r="E280">
-        <v>15327077</v>
+        <v>15328577</v>
       </c>
       <c r="F280" t="s">
         <v>18</v>
@@ -10917,13 +10917,13 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>10691</v>
+        <v>10706</v>
       </c>
       <c r="D281">
         <v>2117</v>
       </c>
       <c r="E281">
-        <v>34746100</v>
+        <v>34796295</v>
       </c>
       <c r="F281" t="s">
         <v>18</v>
@@ -10952,13 +10952,13 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>31563</v>
+        <v>31589</v>
       </c>
       <c r="D282">
         <v>6746</v>
       </c>
       <c r="E282">
-        <v>122554163</v>
+        <v>122746597</v>
       </c>
       <c r="F282" t="s">
         <v>18</v>
@@ -10987,13 +10987,13 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>14046</v>
+        <v>14064</v>
       </c>
       <c r="D283">
         <v>2801</v>
       </c>
       <c r="E283">
-        <v>80056778</v>
+        <v>80208829</v>
       </c>
       <c r="F283" t="s">
         <v>18</v>
@@ -11022,13 +11022,13 @@
         <v>12</v>
       </c>
       <c r="C284">
-        <v>6122</v>
+        <v>6128</v>
       </c>
       <c r="D284">
         <v>1063</v>
       </c>
       <c r="E284">
-        <v>49684510</v>
+        <v>49746856</v>
       </c>
       <c r="F284" t="s">
         <v>18</v>
@@ -11057,13 +11057,13 @@
         <v>12</v>
       </c>
       <c r="C285">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="D285">
         <v>503</v>
       </c>
       <c r="E285">
-        <v>46913196</v>
+        <v>46985718</v>
       </c>
       <c r="F285" t="s">
         <v>18</v>
@@ -11092,13 +11092,13 @@
         <v>12</v>
       </c>
       <c r="C286">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D286">
         <v>181</v>
       </c>
       <c r="E286">
-        <v>38799159</v>
+        <v>38839658</v>
       </c>
       <c r="F286" t="s">
         <v>18</v>
@@ -11197,13 +11197,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>9407</v>
+        <v>9423</v>
       </c>
       <c r="D289">
         <v>1955</v>
       </c>
       <c r="E289">
-        <v>18890239</v>
+        <v>18912181</v>
       </c>
       <c r="F289" t="s">
         <v>18</v>
@@ -11232,13 +11232,13 @@
         <v>12</v>
       </c>
       <c r="C290">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D290">
         <v>255</v>
       </c>
       <c r="E290">
-        <v>3210532</v>
+        <v>3218217</v>
       </c>
       <c r="F290" t="s">
         <v>18</v>
@@ -11267,13 +11267,13 @@
         <v>12</v>
       </c>
       <c r="C291">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="D291">
         <v>709</v>
       </c>
       <c r="E291">
-        <v>11715613</v>
+        <v>11735613</v>
       </c>
       <c r="F291" t="s">
         <v>18</v>
@@ -11302,13 +11302,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D292">
         <v>260</v>
       </c>
       <c r="E292">
-        <v>6029793</v>
+        <v>6039793</v>
       </c>
       <c r="F292" t="s">
         <v>18</v>
@@ -11372,13 +11372,13 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D294">
         <v>47</v>
       </c>
       <c r="E294">
-        <v>3273293</v>
+        <v>3283293</v>
       </c>
       <c r="F294" t="s">
         <v>18</v>
@@ -11442,13 +11442,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D296">
         <v>296</v>
       </c>
       <c r="E296">
-        <v>2555302</v>
+        <v>2557103</v>
       </c>
       <c r="F296" t="s">
         <v>18</v>
@@ -11477,13 +11477,13 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>7065</v>
+        <v>7074</v>
       </c>
       <c r="D297">
         <v>1415</v>
       </c>
       <c r="E297">
-        <v>25946547</v>
+        <v>25990880</v>
       </c>
       <c r="F297" t="s">
         <v>18</v>
@@ -11512,13 +11512,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>19909</v>
+        <v>19924</v>
       </c>
       <c r="D298">
         <v>4156</v>
       </c>
       <c r="E298">
-        <v>84188723</v>
+        <v>84274213</v>
       </c>
       <c r="F298" t="s">
         <v>18</v>
@@ -11547,13 +11547,13 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>9387</v>
+        <v>9400</v>
       </c>
       <c r="D299">
         <v>1845</v>
       </c>
       <c r="E299">
-        <v>54026403</v>
+        <v>54141233</v>
       </c>
       <c r="F299" t="s">
         <v>18</v>
@@ -11582,13 +11582,13 @@
         <v>12</v>
       </c>
       <c r="C300">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="D300">
         <v>614</v>
       </c>
       <c r="E300">
-        <v>28449310</v>
+        <v>28482011</v>
       </c>
       <c r="F300" t="s">
         <v>18</v>
@@ -11617,13 +11617,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="D301">
         <v>315</v>
       </c>
       <c r="E301">
-        <v>30190590</v>
+        <v>30279502</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11757,13 +11757,13 @@
         <v>12</v>
       </c>
       <c r="C305">
-        <v>4816</v>
+        <v>4821</v>
       </c>
       <c r="D305">
         <v>1086</v>
       </c>
       <c r="E305">
-        <v>9568135</v>
+        <v>9577205</v>
       </c>
       <c r="F305" t="s">
         <v>18</v>
@@ -11792,13 +11792,13 @@
         <v>12</v>
       </c>
       <c r="C306">
-        <v>5960</v>
+        <v>5965</v>
       </c>
       <c r="D306">
         <v>1396</v>
       </c>
       <c r="E306">
-        <v>24967407</v>
+        <v>24993065</v>
       </c>
       <c r="F306" t="s">
         <v>18</v>
@@ -11827,13 +11827,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>18259</v>
+        <v>18275</v>
       </c>
       <c r="D307">
         <v>4213</v>
       </c>
       <c r="E307">
-        <v>98816696</v>
+        <v>98924838</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11862,13 +11862,13 @@
         <v>12</v>
       </c>
       <c r="C308">
-        <v>7052</v>
+        <v>7055</v>
       </c>
       <c r="D308">
         <v>1607</v>
       </c>
       <c r="E308">
-        <v>51584157</v>
+        <v>51598792</v>
       </c>
       <c r="F308" t="s">
         <v>18</v>
@@ -11897,13 +11897,13 @@
         <v>12</v>
       </c>
       <c r="C309">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="D309">
         <v>510</v>
       </c>
       <c r="E309">
-        <v>24557124</v>
+        <v>24576827</v>
       </c>
       <c r="F309" t="s">
         <v>18</v>
@@ -12037,13 +12037,13 @@
         <v>12</v>
       </c>
       <c r="C313">
-        <v>12398</v>
+        <v>12414</v>
       </c>
       <c r="D313">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E313">
-        <v>47909378</v>
+        <v>47988525</v>
       </c>
       <c r="F313" t="s">
         <v>18</v>
@@ -12072,13 +12072,13 @@
         <v>12</v>
       </c>
       <c r="C314">
-        <v>4214</v>
+        <v>4223</v>
       </c>
       <c r="D314">
         <v>909</v>
       </c>
       <c r="E314">
-        <v>12804999</v>
+        <v>12837375</v>
       </c>
       <c r="F314" t="s">
         <v>18</v>
@@ -12107,13 +12107,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>13254</v>
+        <v>13272</v>
       </c>
       <c r="D315">
         <v>2849</v>
       </c>
       <c r="E315">
-        <v>51752037</v>
+        <v>51860448</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12142,13 +12142,13 @@
         <v>12</v>
       </c>
       <c r="C316">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="D316">
         <v>1066</v>
       </c>
       <c r="E316">
-        <v>25253066</v>
+        <v>25293248</v>
       </c>
       <c r="F316" t="s">
         <v>18</v>
@@ -12177,13 +12177,13 @@
         <v>12</v>
       </c>
       <c r="C317">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D317">
         <v>392</v>
       </c>
       <c r="E317">
-        <v>14452775</v>
+        <v>14472775</v>
       </c>
       <c r="F317" t="s">
         <v>18</v>
@@ -12212,13 +12212,13 @@
         <v>12</v>
       </c>
       <c r="C318">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D318">
         <v>185</v>
       </c>
       <c r="E318">
-        <v>14971741</v>
+        <v>15011773</v>
       </c>
       <c r="F318" t="s">
         <v>18</v>
@@ -12317,13 +12317,13 @@
         <v>12</v>
       </c>
       <c r="C321">
-        <v>4773</v>
+        <v>4778</v>
       </c>
       <c r="D321">
         <v>1005</v>
       </c>
       <c r="E321">
-        <v>8946908</v>
+        <v>8955492</v>
       </c>
       <c r="F321" t="s">
         <v>18</v>
@@ -12352,13 +12352,13 @@
         <v>12</v>
       </c>
       <c r="C322">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D322">
         <v>252</v>
       </c>
       <c r="E322">
-        <v>3426649</v>
+        <v>3434074</v>
       </c>
       <c r="F322" t="s">
         <v>18</v>
@@ -12387,13 +12387,13 @@
         <v>12</v>
       </c>
       <c r="C323">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="D323">
         <v>709</v>
       </c>
       <c r="E323">
-        <v>12770926</v>
+        <v>12777216</v>
       </c>
       <c r="F323" t="s">
         <v>18</v>
@@ -12422,13 +12422,13 @@
         <v>12</v>
       </c>
       <c r="C324">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D324">
         <v>242</v>
       </c>
       <c r="E324">
-        <v>5993449</v>
+        <v>6003449</v>
       </c>
       <c r="F324" t="s">
         <v>18</v>
@@ -12562,13 +12562,13 @@
         <v>12</v>
       </c>
       <c r="C328">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D328">
         <v>298</v>
       </c>
       <c r="E328">
-        <v>2408642</v>
+        <v>2410142</v>
       </c>
       <c r="F328" t="s">
         <v>18</v>
@@ -12597,13 +12597,13 @@
         <v>12</v>
       </c>
       <c r="C329">
-        <v>5696</v>
+        <v>5701</v>
       </c>
       <c r="D329">
         <v>1278</v>
       </c>
       <c r="E329">
-        <v>16041592</v>
+        <v>16057770</v>
       </c>
       <c r="F329" t="s">
         <v>18</v>
@@ -12632,13 +12632,13 @@
         <v>12</v>
       </c>
       <c r="C330">
-        <v>19868</v>
+        <v>19888</v>
       </c>
       <c r="D330">
         <v>4301</v>
       </c>
       <c r="E330">
-        <v>72235131</v>
+        <v>72359745</v>
       </c>
       <c r="F330" t="s">
         <v>18</v>
@@ -12667,13 +12667,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>9502</v>
+        <v>9511</v>
       </c>
       <c r="D331">
         <v>1976</v>
       </c>
       <c r="E331">
-        <v>51189190</v>
+        <v>51279190</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12702,13 +12702,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="D332">
         <v>727</v>
       </c>
       <c r="E332">
-        <v>27099019</v>
+        <v>27130166</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12737,13 +12737,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D333">
         <v>258</v>
       </c>
       <c r="E333">
-        <v>22019321</v>
+        <v>22061061</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12877,13 +12877,13 @@
         <v>12</v>
       </c>
       <c r="C337">
-        <v>5086</v>
+        <v>5094</v>
       </c>
       <c r="D337">
         <v>1160</v>
       </c>
       <c r="E337">
-        <v>9968829</v>
+        <v>9991686</v>
       </c>
       <c r="F337" t="s">
         <v>18</v>
@@ -12912,13 +12912,13 @@
         <v>12</v>
       </c>
       <c r="C338">
-        <v>3779</v>
+        <v>3783</v>
       </c>
       <c r="D338">
         <v>758</v>
       </c>
       <c r="E338">
-        <v>11967002</v>
+        <v>11988654</v>
       </c>
       <c r="F338" t="s">
         <v>18</v>
@@ -12947,13 +12947,13 @@
         <v>12</v>
       </c>
       <c r="C339">
-        <v>9680</v>
+        <v>9685</v>
       </c>
       <c r="D339">
         <v>1996</v>
       </c>
       <c r="E339">
-        <v>40271929</v>
+        <v>40299781</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
@@ -12982,13 +12982,13 @@
         <v>12</v>
       </c>
       <c r="C340">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="D340">
         <v>728</v>
       </c>
       <c r="E340">
-        <v>18693613</v>
+        <v>18713613</v>
       </c>
       <c r="F340" t="s">
         <v>18</v>
@@ -13017,13 +13017,13 @@
         <v>12</v>
       </c>
       <c r="C341">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D341">
         <v>238</v>
       </c>
       <c r="E341">
-        <v>8303716</v>
+        <v>8307055</v>
       </c>
       <c r="F341" t="s">
         <v>18</v>
@@ -13157,13 +13157,13 @@
         <v>12</v>
       </c>
       <c r="C345">
-        <v>3478</v>
+        <v>3482</v>
       </c>
       <c r="D345">
         <v>775</v>
       </c>
       <c r="E345">
-        <v>6822050</v>
+        <v>6829006</v>
       </c>
       <c r="F345" t="s">
         <v>18</v>
@@ -13192,13 +13192,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>3629</v>
+        <v>3635</v>
       </c>
       <c r="D346">
         <v>781</v>
       </c>
       <c r="E346">
-        <v>7801040</v>
+        <v>7820605</v>
       </c>
       <c r="F346" t="s">
         <v>19</v>
@@ -13227,13 +13227,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>11976</v>
+        <v>12001</v>
       </c>
       <c r="D347">
         <v>2775</v>
       </c>
       <c r="E347">
-        <v>29283818</v>
+        <v>29366194</v>
       </c>
       <c r="F347" t="s">
         <v>19</v>
@@ -13262,13 +13262,13 @@
         <v>12</v>
       </c>
       <c r="C348">
-        <v>4112</v>
+        <v>4120</v>
       </c>
       <c r="D348">
         <v>1032</v>
       </c>
       <c r="E348">
-        <v>13971813</v>
+        <v>14052443</v>
       </c>
       <c r="F348" t="s">
         <v>19</v>
@@ -13472,13 +13472,13 @@
         <v>12</v>
       </c>
       <c r="C354">
-        <v>13391</v>
+        <v>13413</v>
       </c>
       <c r="D354">
         <v>2636</v>
       </c>
       <c r="E354">
-        <v>21536339</v>
+        <v>21576687</v>
       </c>
       <c r="F354" t="s">
         <v>19</v>
@@ -13507,13 +13507,13 @@
         <v>12</v>
       </c>
       <c r="C355">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D355">
         <v>372</v>
       </c>
       <c r="E355">
-        <v>5389915</v>
+        <v>5394633</v>
       </c>
       <c r="F355" t="s">
         <v>20</v>
@@ -13542,13 +13542,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>5551</v>
+        <v>5554</v>
       </c>
       <c r="D356">
         <v>950</v>
       </c>
       <c r="E356">
-        <v>13611248</v>
+        <v>13619158</v>
       </c>
       <c r="F356" t="s">
         <v>20</v>
@@ -13577,13 +13577,13 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="D357">
         <v>410</v>
       </c>
       <c r="E357">
-        <v>6193713</v>
+        <v>6198213</v>
       </c>
       <c r="F357" t="s">
         <v>20</v>
@@ -13717,13 +13717,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="D361">
         <v>554</v>
       </c>
       <c r="E361">
-        <v>7191145</v>
+        <v>7192645</v>
       </c>
       <c r="F361" t="s">
         <v>20</v>
@@ -13752,13 +13752,13 @@
         <v>12</v>
       </c>
       <c r="C362">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="D362">
         <v>631</v>
       </c>
       <c r="E362">
-        <v>9715112</v>
+        <v>9727457</v>
       </c>
       <c r="F362" t="s">
         <v>21</v>
@@ -13787,13 +13787,13 @@
         <v>12</v>
       </c>
       <c r="C363">
-        <v>9004</v>
+        <v>9013</v>
       </c>
       <c r="D363">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E363">
-        <v>36926227</v>
+        <v>36968228</v>
       </c>
       <c r="F363" t="s">
         <v>21</v>
@@ -13822,13 +13822,13 @@
         <v>12</v>
       </c>
       <c r="C364">
-        <v>3790</v>
+        <v>3792</v>
       </c>
       <c r="D364">
         <v>816</v>
       </c>
       <c r="E364">
-        <v>20780585</v>
+        <v>20800585</v>
       </c>
       <c r="F364" t="s">
         <v>21</v>
@@ -13857,13 +13857,13 @@
         <v>12</v>
       </c>
       <c r="C365">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D365">
         <v>254</v>
       </c>
       <c r="E365">
-        <v>6803819</v>
+        <v>6826636</v>
       </c>
       <c r="F365" t="s">
         <v>21</v>
@@ -13927,13 +13927,13 @@
         <v>12</v>
       </c>
       <c r="C367">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D367">
         <v>47</v>
       </c>
       <c r="E367">
-        <v>8109612</v>
+        <v>8128202</v>
       </c>
       <c r="F367" t="s">
         <v>21</v>
@@ -13962,13 +13962,13 @@
         <v>12</v>
       </c>
       <c r="C368">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D368">
         <v>4</v>
       </c>
       <c r="E368">
-        <v>822804</v>
+        <v>1022804</v>
       </c>
       <c r="F368" t="s">
         <v>21</v>
@@ -13997,13 +13997,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="D369">
         <v>825</v>
       </c>
       <c r="E369">
-        <v>9702922</v>
+        <v>9704791</v>
       </c>
       <c r="F369" t="s">
         <v>21</v>
@@ -14032,13 +14032,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>16892</v>
+        <v>16908</v>
       </c>
       <c r="D370">
         <v>3313</v>
       </c>
       <c r="E370">
-        <v>49372662</v>
+        <v>49448378</v>
       </c>
       <c r="F370" t="s">
         <v>21</v>
@@ -14067,13 +14067,13 @@
         <v>12</v>
       </c>
       <c r="C371">
-        <v>49554</v>
+        <v>49617</v>
       </c>
       <c r="D371">
         <v>9842</v>
       </c>
       <c r="E371">
-        <v>193587794</v>
+        <v>193973029</v>
       </c>
       <c r="F371" t="s">
         <v>21</v>
@@ -14102,13 +14102,13 @@
         <v>12</v>
       </c>
       <c r="C372">
-        <v>20868</v>
+        <v>20890</v>
       </c>
       <c r="D372">
         <v>3970</v>
       </c>
       <c r="E372">
-        <v>121854767</v>
+        <v>122047169</v>
       </c>
       <c r="F372" t="s">
         <v>21</v>
@@ -14137,13 +14137,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>7799</v>
+        <v>7803</v>
       </c>
       <c r="D373">
         <v>1479</v>
       </c>
       <c r="E373">
-        <v>60615587</v>
+        <v>60654883</v>
       </c>
       <c r="F373" t="s">
         <v>21</v>
@@ -14172,13 +14172,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>3676</v>
+        <v>3683</v>
       </c>
       <c r="D374">
         <v>657</v>
       </c>
       <c r="E374">
-        <v>52647946</v>
+        <v>52754303</v>
       </c>
       <c r="F374" t="s">
         <v>21</v>
@@ -14207,13 +14207,13 @@
         <v>12</v>
       </c>
       <c r="C375">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D375">
         <v>271</v>
       </c>
       <c r="E375">
-        <v>42176092</v>
+        <v>42260577</v>
       </c>
       <c r="F375" t="s">
         <v>21</v>
@@ -14452,13 +14452,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>13253</v>
+        <v>13276</v>
       </c>
       <c r="D382">
         <v>2861</v>
       </c>
       <c r="E382">
-        <v>25061784</v>
+        <v>25115127</v>
       </c>
       <c r="F382" t="s">
         <v>21</v>
@@ -14487,13 +14487,13 @@
         <v>12</v>
       </c>
       <c r="C383">
-        <v>4856</v>
+        <v>4858</v>
       </c>
       <c r="D383">
         <v>1045</v>
       </c>
       <c r="E383">
-        <v>14588423</v>
+        <v>14599127</v>
       </c>
       <c r="F383" t="s">
         <v>21</v>
@@ -14522,13 +14522,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>15151</v>
+        <v>15176</v>
       </c>
       <c r="D384">
         <v>3282</v>
       </c>
       <c r="E384">
-        <v>55482323</v>
+        <v>55610502</v>
       </c>
       <c r="F384" t="s">
         <v>21</v>
@@ -14557,13 +14557,13 @@
         <v>12</v>
       </c>
       <c r="C385">
-        <v>6082</v>
+        <v>6087</v>
       </c>
       <c r="D385">
         <v>1313</v>
       </c>
       <c r="E385">
-        <v>32973203</v>
+        <v>33005429</v>
       </c>
       <c r="F385" t="s">
         <v>21</v>
@@ -14592,13 +14592,13 @@
         <v>12</v>
       </c>
       <c r="C386">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="D386">
         <v>419</v>
       </c>
       <c r="E386">
-        <v>13383814</v>
+        <v>13428297</v>
       </c>
       <c r="F386" t="s">
         <v>21</v>
@@ -14627,13 +14627,13 @@
         <v>12</v>
       </c>
       <c r="C387">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D387">
         <v>172</v>
       </c>
       <c r="E387">
-        <v>12903660</v>
+        <v>12922282</v>
       </c>
       <c r="F387" t="s">
         <v>21</v>
@@ -14767,13 +14767,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>4165</v>
+        <v>4176</v>
       </c>
       <c r="D391">
         <v>976</v>
       </c>
       <c r="E391">
-        <v>8098546</v>
+        <v>8112828</v>
       </c>
       <c r="F391" t="s">
         <v>21</v>
@@ -14802,13 +14802,13 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>8520</v>
+        <v>8528</v>
       </c>
       <c r="D392">
         <v>1725</v>
       </c>
       <c r="E392">
-        <v>23970660</v>
+        <v>24003331</v>
       </c>
       <c r="F392" t="s">
         <v>21</v>
@@ -14837,13 +14837,13 @@
         <v>12</v>
       </c>
       <c r="C393">
-        <v>26209</v>
+        <v>26233</v>
       </c>
       <c r="D393">
         <v>5474</v>
       </c>
       <c r="E393">
-        <v>100411440</v>
+        <v>100563433</v>
       </c>
       <c r="F393" t="s">
         <v>21</v>
@@ -14872,13 +14872,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>9854</v>
+        <v>9863</v>
       </c>
       <c r="D394">
         <v>2043</v>
       </c>
       <c r="E394">
-        <v>54542123</v>
+        <v>54631203</v>
       </c>
       <c r="F394" t="s">
         <v>21</v>
@@ -14907,13 +14907,13 @@
         <v>12</v>
       </c>
       <c r="C395">
-        <v>3710</v>
+        <v>3715</v>
       </c>
       <c r="D395">
         <v>751</v>
       </c>
       <c r="E395">
-        <v>27940707</v>
+        <v>27992201</v>
       </c>
       <c r="F395" t="s">
         <v>21</v>
@@ -14942,13 +14942,13 @@
         <v>12</v>
       </c>
       <c r="C396">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D396">
         <v>326</v>
       </c>
       <c r="E396">
-        <v>25783721</v>
+        <v>25822820</v>
       </c>
       <c r="F396" t="s">
         <v>21</v>
@@ -15047,13 +15047,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>8294</v>
+        <v>8305</v>
       </c>
       <c r="D399">
         <v>1760</v>
       </c>
       <c r="E399">
-        <v>15409006</v>
+        <v>15429839</v>
       </c>
       <c r="F399" t="s">
         <v>21</v>
@@ -15082,13 +15082,13 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>3544</v>
+        <v>3549</v>
       </c>
       <c r="D400">
         <v>729</v>
       </c>
       <c r="E400">
-        <v>11508780</v>
+        <v>11545750</v>
       </c>
       <c r="F400" t="s">
         <v>21</v>
@@ -15117,13 +15117,13 @@
         <v>12</v>
       </c>
       <c r="C401">
-        <v>10325</v>
+        <v>10329</v>
       </c>
       <c r="D401">
         <v>2152</v>
       </c>
       <c r="E401">
-        <v>40760361</v>
+        <v>40783202</v>
       </c>
       <c r="F401" t="s">
         <v>21</v>
@@ -15152,13 +15152,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>4381</v>
+        <v>4385</v>
       </c>
       <c r="D402">
         <v>897</v>
       </c>
       <c r="E402">
-        <v>23564766</v>
+        <v>23604766</v>
       </c>
       <c r="F402" t="s">
         <v>21</v>
@@ -15187,13 +15187,13 @@
         <v>12</v>
       </c>
       <c r="C403">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D403">
         <v>297</v>
       </c>
       <c r="E403">
-        <v>12306870</v>
+        <v>12317137</v>
       </c>
       <c r="F403" t="s">
         <v>21</v>
@@ -15257,13 +15257,13 @@
         <v>12</v>
       </c>
       <c r="C405">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D405">
         <v>89</v>
       </c>
       <c r="E405">
-        <v>10785535</v>
+        <v>10836932</v>
       </c>
       <c r="F405" t="s">
         <v>21</v>
@@ -15327,13 +15327,13 @@
         <v>12</v>
       </c>
       <c r="C407">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="D407">
         <v>780</v>
       </c>
       <c r="E407">
-        <v>6824923</v>
+        <v>6834732</v>
       </c>
       <c r="F407" t="s">
         <v>21</v>
@@ -15362,13 +15362,13 @@
         <v>12</v>
       </c>
       <c r="C408">
-        <v>8911</v>
+        <v>8928</v>
       </c>
       <c r="D408">
         <v>1705</v>
       </c>
       <c r="E408">
-        <v>25040404</v>
+        <v>25083734</v>
       </c>
       <c r="F408" t="s">
         <v>22</v>
@@ -15397,13 +15397,13 @@
         <v>12</v>
       </c>
       <c r="C409">
-        <v>23840</v>
+        <v>23877</v>
       </c>
       <c r="D409">
         <v>5175</v>
       </c>
       <c r="E409">
-        <v>81940487</v>
+        <v>82100256</v>
       </c>
       <c r="F409" t="s">
         <v>22</v>
@@ -15432,13 +15432,13 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <v>10210</v>
+        <v>10222</v>
       </c>
       <c r="D410">
         <v>2273</v>
       </c>
       <c r="E410">
-        <v>54801860</v>
+        <v>54917693</v>
       </c>
       <c r="F410" t="s">
         <v>22</v>
@@ -15467,13 +15467,13 @@
         <v>12</v>
       </c>
       <c r="C411">
-        <v>3710</v>
+        <v>3720</v>
       </c>
       <c r="D411">
         <v>792</v>
       </c>
       <c r="E411">
-        <v>28670512</v>
+        <v>28772015</v>
       </c>
       <c r="F411" t="s">
         <v>22</v>
@@ -15502,13 +15502,13 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>1454</v>
+        <v>1461</v>
       </c>
       <c r="D412">
         <v>292</v>
       </c>
       <c r="E412">
-        <v>22231555</v>
+        <v>22359399</v>
       </c>
       <c r="F412" t="s">
         <v>22</v>
@@ -15537,13 +15537,13 @@
         <v>12</v>
       </c>
       <c r="C413">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D413">
         <v>119</v>
       </c>
       <c r="E413">
-        <v>22026707</v>
+        <v>22103356</v>
       </c>
       <c r="F413" t="s">
         <v>22</v>
@@ -15712,13 +15712,13 @@
         <v>12</v>
       </c>
       <c r="C418">
-        <v>7355</v>
+        <v>7368</v>
       </c>
       <c r="D418">
         <v>1561</v>
       </c>
       <c r="E418">
-        <v>15141657</v>
+        <v>15180436</v>
       </c>
       <c r="F418" t="s">
         <v>22</v>
@@ -15747,13 +15747,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>18095</v>
+        <v>18117</v>
       </c>
       <c r="D419">
         <v>3122</v>
       </c>
       <c r="E419">
-        <v>56973819</v>
+        <v>57061449</v>
       </c>
       <c r="F419" t="s">
         <v>22</v>
@@ -15782,13 +15782,13 @@
         <v>12</v>
       </c>
       <c r="C420">
-        <v>42215</v>
+        <v>42277</v>
       </c>
       <c r="D420">
-        <v>7669</v>
+        <v>7670</v>
       </c>
       <c r="E420">
-        <v>165915968</v>
+        <v>166274830</v>
       </c>
       <c r="F420" t="s">
         <v>22</v>
@@ -15817,13 +15817,13 @@
         <v>12</v>
       </c>
       <c r="C421">
-        <v>21552</v>
+        <v>21584</v>
       </c>
       <c r="D421">
         <v>3764</v>
       </c>
       <c r="E421">
-        <v>134099706</v>
+        <v>134359999</v>
       </c>
       <c r="F421" t="s">
         <v>22</v>
@@ -15852,13 +15852,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>8762</v>
+        <v>8781</v>
       </c>
       <c r="D422">
         <v>1484</v>
       </c>
       <c r="E422">
-        <v>80785454</v>
+        <v>80980513</v>
       </c>
       <c r="F422" t="s">
         <v>22</v>
@@ -15887,13 +15887,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>4038</v>
+        <v>4052</v>
       </c>
       <c r="D423">
         <v>698</v>
       </c>
       <c r="E423">
-        <v>71327884</v>
+        <v>71622462</v>
       </c>
       <c r="F423" t="s">
         <v>22</v>
@@ -15922,13 +15922,13 @@
         <v>12</v>
       </c>
       <c r="C424">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="D424">
         <v>269</v>
       </c>
       <c r="E424">
-        <v>53051871</v>
+        <v>53175249</v>
       </c>
       <c r="F424" t="s">
         <v>22</v>
@@ -15957,13 +15957,13 @@
         <v>12</v>
       </c>
       <c r="C425">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D425">
         <v>42</v>
       </c>
       <c r="E425">
-        <v>18222498</v>
+        <v>18541290</v>
       </c>
       <c r="F425" t="s">
         <v>22</v>
@@ -16202,13 +16202,13 @@
         <v>12</v>
       </c>
       <c r="C432">
-        <v>13831</v>
+        <v>13860</v>
       </c>
       <c r="D432">
         <v>2588</v>
       </c>
       <c r="E432">
-        <v>27101209</v>
+        <v>27173761</v>
       </c>
       <c r="F432" t="s">
         <v>22</v>
@@ -16237,13 +16237,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>55737</v>
+        <v>55822</v>
       </c>
       <c r="D433">
         <v>9557</v>
       </c>
       <c r="E433">
-        <v>196539489</v>
+        <v>196955176</v>
       </c>
       <c r="F433" t="s">
         <v>22</v>
@@ -16272,13 +16272,13 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <v>147898</v>
+        <v>148161</v>
       </c>
       <c r="D434">
-        <v>25340</v>
+        <v>25341</v>
       </c>
       <c r="E434">
-        <v>623618069</v>
+        <v>625068812</v>
       </c>
       <c r="F434" t="s">
         <v>22</v>
@@ -16307,13 +16307,13 @@
         <v>12</v>
       </c>
       <c r="C435">
-        <v>83146</v>
+        <v>83278</v>
       </c>
       <c r="D435">
         <v>12781</v>
       </c>
       <c r="E435">
-        <v>547331984</v>
+        <v>548520362</v>
       </c>
       <c r="F435" t="s">
         <v>22</v>
@@ -16342,13 +16342,13 @@
         <v>12</v>
       </c>
       <c r="C436">
-        <v>42700</v>
+        <v>42772</v>
       </c>
       <c r="D436">
         <v>6134</v>
       </c>
       <c r="E436">
-        <v>426970077</v>
+        <v>427884915</v>
       </c>
       <c r="F436" t="s">
         <v>22</v>
@@ -16377,13 +16377,13 @@
         <v>12</v>
       </c>
       <c r="C437">
-        <v>25097</v>
+        <v>25140</v>
       </c>
       <c r="D437">
         <v>3794</v>
       </c>
       <c r="E437">
-        <v>454140949</v>
+        <v>455081395</v>
       </c>
       <c r="F437" t="s">
         <v>22</v>
@@ -16412,13 +16412,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>7625</v>
+        <v>7632</v>
       </c>
       <c r="D438">
         <v>1362</v>
       </c>
       <c r="E438">
-        <v>337005264</v>
+        <v>337545987</v>
       </c>
       <c r="F438" t="s">
         <v>22</v>
@@ -16692,13 +16692,13 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <v>49027</v>
+        <v>49131</v>
       </c>
       <c r="D446">
-        <v>8681</v>
+        <v>8682</v>
       </c>
       <c r="E446">
-        <v>108408256</v>
+        <v>108663889</v>
       </c>
       <c r="F446" t="s">
         <v>22</v>
@@ -16727,13 +16727,13 @@
         <v>12</v>
       </c>
       <c r="C447">
-        <v>10937</v>
+        <v>10954</v>
       </c>
       <c r="D447">
         <v>2079</v>
       </c>
       <c r="E447">
-        <v>32148992</v>
+        <v>32220211</v>
       </c>
       <c r="F447" t="s">
         <v>22</v>
@@ -16762,13 +16762,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>29085</v>
+        <v>29121</v>
       </c>
       <c r="D448">
         <v>6201</v>
       </c>
       <c r="E448">
-        <v>104332682</v>
+        <v>104517401</v>
       </c>
       <c r="F448" t="s">
         <v>22</v>
@@ -16797,13 +16797,13 @@
         <v>12</v>
       </c>
       <c r="C449">
-        <v>12092</v>
+        <v>12109</v>
       </c>
       <c r="D449">
         <v>2656</v>
       </c>
       <c r="E449">
-        <v>66802441</v>
+        <v>66972302</v>
       </c>
       <c r="F449" t="s">
         <v>22</v>
@@ -16832,13 +16832,13 @@
         <v>12</v>
       </c>
       <c r="C450">
-        <v>4749</v>
+        <v>4757</v>
       </c>
       <c r="D450">
         <v>946</v>
       </c>
       <c r="E450">
-        <v>36079437</v>
+        <v>36149832</v>
       </c>
       <c r="F450" t="s">
         <v>22</v>
@@ -16902,13 +16902,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D452">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E452">
-        <v>25713051</v>
+        <v>25716051</v>
       </c>
       <c r="F452" t="s">
         <v>22</v>
@@ -17007,13 +17007,13 @@
         <v>12</v>
       </c>
       <c r="C455">
-        <v>10551</v>
+        <v>10586</v>
       </c>
       <c r="D455">
         <v>1944</v>
       </c>
       <c r="E455">
-        <v>19653445</v>
+        <v>19732318</v>
       </c>
       <c r="F455" t="s">
         <v>22</v>
@@ -17042,13 +17042,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>14288</v>
+        <v>14319</v>
       </c>
       <c r="D456">
         <v>2351</v>
       </c>
       <c r="E456">
-        <v>38561516</v>
+        <v>38652816</v>
       </c>
       <c r="F456" t="s">
         <v>22</v>
@@ -17077,13 +17077,13 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>45523</v>
+        <v>45618</v>
       </c>
       <c r="D457">
-        <v>8556</v>
+        <v>8557</v>
       </c>
       <c r="E457">
-        <v>151438448</v>
+        <v>151866436</v>
       </c>
       <c r="F457" t="s">
         <v>22</v>
@@ -17112,13 +17112,13 @@
         <v>12</v>
       </c>
       <c r="C458">
-        <v>22079</v>
+        <v>22110</v>
       </c>
       <c r="D458">
         <v>4630</v>
       </c>
       <c r="E458">
-        <v>116411533</v>
+        <v>116655808</v>
       </c>
       <c r="F458" t="s">
         <v>22</v>
@@ -17147,13 +17147,13 @@
         <v>12</v>
       </c>
       <c r="C459">
-        <v>7012</v>
+        <v>7021</v>
       </c>
       <c r="D459">
         <v>1525</v>
       </c>
       <c r="E459">
-        <v>53285477</v>
+        <v>53348714</v>
       </c>
       <c r="F459" t="s">
         <v>22</v>
@@ -17182,13 +17182,13 @@
         <v>12</v>
       </c>
       <c r="C460">
-        <v>3048</v>
+        <v>3053</v>
       </c>
       <c r="D460">
         <v>595</v>
       </c>
       <c r="E460">
-        <v>40829931</v>
+        <v>40911665</v>
       </c>
       <c r="F460" t="s">
         <v>22</v>
@@ -17392,13 +17392,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>14630</v>
+        <v>14685</v>
       </c>
       <c r="D466">
         <v>2255</v>
       </c>
       <c r="E466">
-        <v>27010336</v>
+        <v>27174794</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17427,13 +17427,13 @@
         <v>12</v>
       </c>
       <c r="C467">
-        <v>12579</v>
+        <v>12593</v>
       </c>
       <c r="D467">
         <v>2224</v>
       </c>
       <c r="E467">
-        <v>37765212</v>
+        <v>37813093</v>
       </c>
       <c r="F467" t="s">
         <v>22</v>
@@ -17462,13 +17462,13 @@
         <v>12</v>
       </c>
       <c r="C468">
-        <v>34669</v>
+        <v>34742</v>
       </c>
       <c r="D468">
         <v>6630</v>
       </c>
       <c r="E468">
-        <v>121984062</v>
+        <v>122303098</v>
       </c>
       <c r="F468" t="s">
         <v>22</v>
@@ -17497,13 +17497,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>15170</v>
+        <v>15194</v>
       </c>
       <c r="D469">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="E469">
-        <v>80029796</v>
+        <v>80235796</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17532,13 +17532,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>5640</v>
+        <v>5646</v>
       </c>
       <c r="D470">
         <v>1074</v>
       </c>
       <c r="E470">
-        <v>47557558</v>
+        <v>47612529</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17567,13 +17567,13 @@
         <v>12</v>
       </c>
       <c r="C471">
-        <v>2306</v>
+        <v>2311</v>
       </c>
       <c r="D471">
         <v>432</v>
       </c>
       <c r="E471">
-        <v>36065941</v>
+        <v>36144024</v>
       </c>
       <c r="F471" t="s">
         <v>22</v>
@@ -17602,13 +17602,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D472">
         <v>182</v>
       </c>
       <c r="E472">
-        <v>39845699</v>
+        <v>39897383</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17812,13 +17812,13 @@
         <v>12</v>
       </c>
       <c r="C478">
-        <v>12717</v>
+        <v>12763</v>
       </c>
       <c r="D478">
         <v>2154</v>
       </c>
       <c r="E478">
-        <v>23632965</v>
+        <v>23711012</v>
       </c>
       <c r="F478" t="s">
         <v>22</v>
@@ -17847,13 +17847,13 @@
         <v>12</v>
       </c>
       <c r="C479">
-        <v>9149</v>
+        <v>9166</v>
       </c>
       <c r="D479">
         <v>1663</v>
       </c>
       <c r="E479">
-        <v>23821814</v>
+        <v>23875512</v>
       </c>
       <c r="F479" t="s">
         <v>22</v>
@@ -17882,13 +17882,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>26971</v>
+        <v>27018</v>
       </c>
       <c r="D480">
         <v>5507</v>
       </c>
       <c r="E480">
-        <v>88990521</v>
+        <v>89203107</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17917,13 +17917,13 @@
         <v>12</v>
       </c>
       <c r="C481">
-        <v>11706</v>
+        <v>11724</v>
       </c>
       <c r="D481">
         <v>2578</v>
       </c>
       <c r="E481">
-        <v>58149459</v>
+        <v>58270777</v>
       </c>
       <c r="F481" t="s">
         <v>22</v>
@@ -17952,13 +17952,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>4176</v>
+        <v>4181</v>
       </c>
       <c r="D482">
         <v>877</v>
       </c>
       <c r="E482">
-        <v>28121766</v>
+        <v>28180257</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -17987,13 +17987,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D483">
         <v>364</v>
       </c>
       <c r="E483">
-        <v>24402192</v>
+        <v>24421333</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18022,13 +18022,13 @@
         <v>12</v>
       </c>
       <c r="C484">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D484">
         <v>120</v>
       </c>
       <c r="E484">
-        <v>22287941</v>
+        <v>22384403</v>
       </c>
       <c r="F484" t="s">
         <v>22</v>
@@ -18127,13 +18127,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>8932</v>
+        <v>8953</v>
       </c>
       <c r="D487">
         <v>1633</v>
       </c>
       <c r="E487">
-        <v>16232499</v>
+        <v>16276453</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18162,13 +18162,13 @@
         <v>12</v>
       </c>
       <c r="C488">
-        <v>9830</v>
+        <v>9851</v>
       </c>
       <c r="D488">
         <v>2034</v>
       </c>
       <c r="E488">
-        <v>28477798</v>
+        <v>28562317</v>
       </c>
       <c r="F488" t="s">
         <v>22</v>
@@ -18197,13 +18197,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>26117</v>
+        <v>26151</v>
       </c>
       <c r="D489">
         <v>5728</v>
       </c>
       <c r="E489">
-        <v>98146104</v>
+        <v>98347052</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18232,13 +18232,13 @@
         <v>12</v>
       </c>
       <c r="C490">
-        <v>12138</v>
+        <v>12153</v>
       </c>
       <c r="D490">
         <v>2479</v>
       </c>
       <c r="E490">
-        <v>70434135</v>
+        <v>70575635</v>
       </c>
       <c r="F490" t="s">
         <v>22</v>
@@ -18267,13 +18267,13 @@
         <v>12</v>
       </c>
       <c r="C491">
-        <v>4833</v>
+        <v>4839</v>
       </c>
       <c r="D491">
         <v>914</v>
       </c>
       <c r="E491">
-        <v>38045470</v>
+        <v>38114421</v>
       </c>
       <c r="F491" t="s">
         <v>22</v>
@@ -18302,13 +18302,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="D492">
         <v>383</v>
       </c>
       <c r="E492">
-        <v>34561899</v>
+        <v>34601236</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18442,13 +18442,13 @@
         <v>12</v>
       </c>
       <c r="C496">
-        <v>8663</v>
+        <v>8680</v>
       </c>
       <c r="D496">
         <v>1931</v>
       </c>
       <c r="E496">
-        <v>16833970</v>
+        <v>16860983</v>
       </c>
       <c r="F496" t="s">
         <v>22</v>
@@ -18477,13 +18477,13 @@
         <v>12</v>
       </c>
       <c r="C497">
-        <v>7487</v>
+        <v>7500</v>
       </c>
       <c r="D497">
         <v>1903</v>
       </c>
       <c r="E497">
-        <v>15162796</v>
+        <v>15191929</v>
       </c>
       <c r="F497" t="s">
         <v>23</v>
@@ -18512,13 +18512,13 @@
         <v>12</v>
       </c>
       <c r="C498">
-        <v>16883</v>
+        <v>16901</v>
       </c>
       <c r="D498">
         <v>4974</v>
       </c>
       <c r="E498">
-        <v>37253170</v>
+        <v>37342763</v>
       </c>
       <c r="F498" t="s">
         <v>23</v>
@@ -18547,13 +18547,13 @@
         <v>12</v>
       </c>
       <c r="C499">
-        <v>5572</v>
+        <v>5575</v>
       </c>
       <c r="D499">
         <v>1883</v>
       </c>
       <c r="E499">
-        <v>17124785</v>
+        <v>17146285</v>
       </c>
       <c r="F499" t="s">
         <v>23</v>
@@ -18582,13 +18582,13 @@
         <v>12</v>
       </c>
       <c r="C500">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D500">
         <v>734</v>
       </c>
       <c r="E500">
-        <v>11441669</v>
+        <v>11453169</v>
       </c>
       <c r="F500" t="s">
         <v>23</v>
@@ -18757,13 +18757,13 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>8152</v>
+        <v>8159</v>
       </c>
       <c r="D505">
         <v>2079</v>
       </c>
       <c r="E505">
-        <v>11995881</v>
+        <v>12006440</v>
       </c>
       <c r="F505" t="s">
         <v>23</v>
@@ -18792,13 +18792,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="D506">
         <v>688</v>
       </c>
       <c r="E506">
-        <v>7699954</v>
+        <v>7708914</v>
       </c>
       <c r="F506" t="s">
         <v>24</v>
@@ -18827,13 +18827,13 @@
         <v>12</v>
       </c>
       <c r="C507">
-        <v>9638</v>
+        <v>9645</v>
       </c>
       <c r="D507">
         <v>2228</v>
       </c>
       <c r="E507">
-        <v>26816614</v>
+        <v>26862009</v>
       </c>
       <c r="F507" t="s">
         <v>24</v>
@@ -18862,13 +18862,13 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D508">
         <v>953</v>
       </c>
       <c r="E508">
-        <v>13744370</v>
+        <v>13762425</v>
       </c>
       <c r="F508" t="s">
         <v>24</v>
@@ -19037,13 +19037,13 @@
         <v>12</v>
       </c>
       <c r="C513">
-        <v>6764</v>
+        <v>6768</v>
       </c>
       <c r="D513">
         <v>1419</v>
       </c>
       <c r="E513">
-        <v>10625631</v>
+        <v>10629230</v>
       </c>
       <c r="F513" t="s">
         <v>24</v>
@@ -19072,13 +19072,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D514">
         <v>241</v>
       </c>
       <c r="E514">
-        <v>4210006</v>
+        <v>4213006</v>
       </c>
       <c r="F514" t="s">
         <v>25</v>
@@ -19282,13 +19282,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>7876</v>
+        <v>7885</v>
       </c>
       <c r="D520">
         <v>1483</v>
       </c>
       <c r="E520">
-        <v>28511535</v>
+        <v>28543053</v>
       </c>
       <c r="F520" t="s">
         <v>26</v>
@@ -19317,13 +19317,13 @@
         <v>12</v>
       </c>
       <c r="C521">
-        <v>18283</v>
+        <v>18294</v>
       </c>
       <c r="D521">
         <v>3812</v>
       </c>
       <c r="E521">
-        <v>77753012</v>
+        <v>77846184</v>
       </c>
       <c r="F521" t="s">
         <v>26</v>
@@ -19352,13 +19352,13 @@
         <v>12</v>
       </c>
       <c r="C522">
-        <v>7426</v>
+        <v>7437</v>
       </c>
       <c r="D522">
         <v>1448</v>
       </c>
       <c r="E522">
-        <v>45040169</v>
+        <v>45124028</v>
       </c>
       <c r="F522" t="s">
         <v>26</v>
@@ -19387,13 +19387,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>3017</v>
+        <v>3023</v>
       </c>
       <c r="D523">
         <v>545</v>
       </c>
       <c r="E523">
-        <v>27266179</v>
+        <v>27353792</v>
       </c>
       <c r="F523" t="s">
         <v>26</v>
@@ -19422,13 +19422,13 @@
         <v>12</v>
       </c>
       <c r="C524">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D524">
         <v>269</v>
       </c>
       <c r="E524">
-        <v>24612040</v>
+        <v>24646233</v>
       </c>
       <c r="F524" t="s">
         <v>26</v>
@@ -19457,13 +19457,13 @@
         <v>12</v>
       </c>
       <c r="C525">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D525">
         <v>96</v>
       </c>
       <c r="E525">
-        <v>18746896</v>
+        <v>18775752</v>
       </c>
       <c r="F525" t="s">
         <v>26</v>
@@ -19562,13 +19562,13 @@
         <v>12</v>
       </c>
       <c r="C528">
-        <v>4974</v>
+        <v>4980</v>
       </c>
       <c r="D528">
         <v>1123</v>
       </c>
       <c r="E528">
-        <v>10226572</v>
+        <v>10245592</v>
       </c>
       <c r="F528" t="s">
         <v>26</v>
@@ -19597,13 +19597,13 @@
         <v>12</v>
       </c>
       <c r="C529">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="D529">
         <v>851</v>
       </c>
       <c r="E529">
-        <v>12561530</v>
+        <v>12572080</v>
       </c>
       <c r="F529" t="s">
         <v>26</v>
@@ -19632,13 +19632,13 @@
         <v>12</v>
       </c>
       <c r="C530">
-        <v>11498</v>
+        <v>11515</v>
       </c>
       <c r="D530">
         <v>2537</v>
       </c>
       <c r="E530">
-        <v>43913293</v>
+        <v>44035214</v>
       </c>
       <c r="F530" t="s">
         <v>26</v>
@@ -19667,13 +19667,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>4304</v>
+        <v>4308</v>
       </c>
       <c r="D531">
         <v>943</v>
       </c>
       <c r="E531">
-        <v>22707337</v>
+        <v>22747337</v>
       </c>
       <c r="F531" t="s">
         <v>26</v>
@@ -19702,13 +19702,13 @@
         <v>12</v>
       </c>
       <c r="C532">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D532">
         <v>287</v>
       </c>
       <c r="E532">
-        <v>8886267</v>
+        <v>8905616</v>
       </c>
       <c r="F532" t="s">
         <v>26</v>
@@ -19737,13 +19737,13 @@
         <v>12</v>
       </c>
       <c r="C533">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D533">
         <v>96</v>
       </c>
       <c r="E533">
-        <v>7099203</v>
+        <v>7124832</v>
       </c>
       <c r="F533" t="s">
         <v>26</v>
@@ -19842,13 +19842,13 @@
         <v>12</v>
       </c>
       <c r="C536">
-        <v>3563</v>
+        <v>3569</v>
       </c>
       <c r="D536">
         <v>792</v>
       </c>
       <c r="E536">
-        <v>7200689</v>
+        <v>7213354</v>
       </c>
       <c r="F536" t="s">
         <v>26</v>
@@ -19877,13 +19877,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>4999</v>
+        <v>5008</v>
       </c>
       <c r="D537">
         <v>938</v>
       </c>
       <c r="E537">
-        <v>18118684</v>
+        <v>18152863</v>
       </c>
       <c r="F537" t="s">
         <v>26</v>
@@ -19912,13 +19912,13 @@
         <v>12</v>
       </c>
       <c r="C538">
-        <v>12119</v>
+        <v>12129</v>
       </c>
       <c r="D538">
         <v>2487</v>
       </c>
       <c r="E538">
-        <v>52441721</v>
+        <v>52525474</v>
       </c>
       <c r="F538" t="s">
         <v>26</v>
@@ -19947,13 +19947,13 @@
         <v>12</v>
       </c>
       <c r="C539">
-        <v>4473</v>
+        <v>4477</v>
       </c>
       <c r="D539">
         <v>938</v>
       </c>
       <c r="E539">
-        <v>25953831</v>
+        <v>25991897</v>
       </c>
       <c r="F539" t="s">
         <v>26</v>
@@ -19982,13 +19982,13 @@
         <v>12</v>
       </c>
       <c r="C540">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="D540">
         <v>337</v>
       </c>
       <c r="E540">
-        <v>13610146</v>
+        <v>13651051</v>
       </c>
       <c r="F540" t="s">
         <v>26</v>
@@ -20122,13 +20122,13 @@
         <v>12</v>
       </c>
       <c r="C544">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="D544">
         <v>783</v>
       </c>
       <c r="E544">
-        <v>6810987</v>
+        <v>6821113</v>
       </c>
       <c r="F544" t="s">
         <v>26</v>
@@ -20157,13 +20157,13 @@
         <v>12</v>
       </c>
       <c r="C545">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D545">
         <v>446</v>
       </c>
       <c r="E545">
-        <v>6760126</v>
+        <v>6770126</v>
       </c>
       <c r="F545" t="s">
         <v>26</v>
@@ -20192,13 +20192,13 @@
         <v>12</v>
       </c>
       <c r="C546">
-        <v>6326</v>
+        <v>6329</v>
       </c>
       <c r="D546">
         <v>1361</v>
       </c>
       <c r="E546">
-        <v>24860969</v>
+        <v>24885903</v>
       </c>
       <c r="F546" t="s">
         <v>26</v>
@@ -20227,13 +20227,13 @@
         <v>12</v>
       </c>
       <c r="C547">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D547">
         <v>438</v>
       </c>
       <c r="E547">
-        <v>10329764</v>
+        <v>10339764</v>
       </c>
       <c r="F547" t="s">
         <v>26</v>
@@ -20262,13 +20262,13 @@
         <v>12</v>
       </c>
       <c r="C548">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D548">
         <v>126</v>
       </c>
       <c r="E548">
-        <v>3319993</v>
+        <v>3329993</v>
       </c>
       <c r="F548" t="s">
         <v>26</v>
@@ -20367,13 +20367,13 @@
         <v>12</v>
       </c>
       <c r="C551">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="D551">
         <v>512</v>
       </c>
       <c r="E551">
-        <v>4654962</v>
+        <v>4656782</v>
       </c>
       <c r="F551" t="s">
         <v>26</v>
@@ -20402,13 +20402,13 @@
         <v>12</v>
       </c>
       <c r="C552">
-        <v>7554</v>
+        <v>7562</v>
       </c>
       <c r="D552">
         <v>1506</v>
       </c>
       <c r="E552">
-        <v>24109929</v>
+        <v>24159554</v>
       </c>
       <c r="F552" t="s">
         <v>26</v>
@@ -20437,13 +20437,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>23572</v>
+        <v>23605</v>
       </c>
       <c r="D553">
         <v>4893</v>
       </c>
       <c r="E553">
-        <v>96916046</v>
+        <v>97125292</v>
       </c>
       <c r="F553" t="s">
         <v>26</v>
@@ -20472,13 +20472,13 @@
         <v>12</v>
       </c>
       <c r="C554">
-        <v>10203</v>
+        <v>10209</v>
       </c>
       <c r="D554">
         <v>2010</v>
       </c>
       <c r="E554">
-        <v>59354800</v>
+        <v>59401972</v>
       </c>
       <c r="F554" t="s">
         <v>26</v>
@@ -20507,13 +20507,13 @@
         <v>12</v>
       </c>
       <c r="C555">
-        <v>3722</v>
+        <v>3727</v>
       </c>
       <c r="D555">
         <v>724</v>
       </c>
       <c r="E555">
-        <v>29698325</v>
+        <v>29744301</v>
       </c>
       <c r="F555" t="s">
         <v>26</v>
@@ -20542,13 +20542,13 @@
         <v>12</v>
       </c>
       <c r="C556">
-        <v>1901</v>
+        <v>1908</v>
       </c>
       <c r="D556">
         <v>332</v>
       </c>
       <c r="E556">
-        <v>26537469</v>
+        <v>26683332</v>
       </c>
       <c r="F556" t="s">
         <v>26</v>
@@ -20682,13 +20682,13 @@
         <v>12</v>
       </c>
       <c r="C560">
-        <v>6248</v>
+        <v>6256</v>
       </c>
       <c r="D560">
         <v>1419</v>
       </c>
       <c r="E560">
-        <v>12087709</v>
+        <v>12110654</v>
       </c>
       <c r="F560" t="s">
         <v>26</v>
@@ -20717,13 +20717,13 @@
         <v>12</v>
       </c>
       <c r="C561">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="D561">
         <v>570</v>
       </c>
       <c r="E561">
-        <v>8042362</v>
+        <v>8049509</v>
       </c>
       <c r="F561" t="s">
         <v>27</v>
@@ -20752,13 +20752,13 @@
         <v>12</v>
       </c>
       <c r="C562">
-        <v>7358</v>
+        <v>7367</v>
       </c>
       <c r="D562">
         <v>1668</v>
       </c>
       <c r="E562">
-        <v>28638530</v>
+        <v>28687907</v>
       </c>
       <c r="F562" t="s">
         <v>27</v>
@@ -20787,13 +20787,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="D563">
         <v>613</v>
       </c>
       <c r="E563">
-        <v>15055443</v>
+        <v>15074676</v>
       </c>
       <c r="F563" t="s">
         <v>27</v>
@@ -20822,13 +20822,13 @@
         <v>12</v>
       </c>
       <c r="C564">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D564">
         <v>218</v>
       </c>
       <c r="E564">
-        <v>7936729</v>
+        <v>7953419</v>
       </c>
       <c r="F564" t="s">
         <v>27</v>
@@ -20962,13 +20962,13 @@
         <v>12</v>
       </c>
       <c r="C568">
-        <v>2802</v>
+        <v>2807</v>
       </c>
       <c r="D568">
         <v>634</v>
       </c>
       <c r="E568">
-        <v>5023904</v>
+        <v>5029187</v>
       </c>
       <c r="F568" t="s">
         <v>27</v>
@@ -20997,13 +20997,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>11412</v>
+        <v>11436</v>
       </c>
       <c r="D569">
         <v>2154</v>
       </c>
       <c r="E569">
-        <v>43645903</v>
+        <v>43782249</v>
       </c>
       <c r="F569" t="s">
         <v>27</v>
@@ -21032,13 +21032,13 @@
         <v>12</v>
       </c>
       <c r="C570">
-        <v>19436</v>
+        <v>19453</v>
       </c>
       <c r="D570">
         <v>4350</v>
       </c>
       <c r="E570">
-        <v>82272086</v>
+        <v>82372448</v>
       </c>
       <c r="F570" t="s">
         <v>27</v>
@@ -21067,13 +21067,13 @@
         <v>12</v>
       </c>
       <c r="C571">
-        <v>7056</v>
+        <v>7061</v>
       </c>
       <c r="D571">
         <v>1531</v>
       </c>
       <c r="E571">
-        <v>44306628</v>
+        <v>44348552</v>
       </c>
       <c r="F571" t="s">
         <v>27</v>
@@ -21102,13 +21102,13 @@
         <v>12</v>
       </c>
       <c r="C572">
-        <v>2354</v>
+        <v>2360</v>
       </c>
       <c r="D572">
         <v>517</v>
       </c>
       <c r="E572">
-        <v>21902115</v>
+        <v>21993724</v>
       </c>
       <c r="F572" t="s">
         <v>27</v>
@@ -21137,13 +21137,13 @@
         <v>12</v>
       </c>
       <c r="C573">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D573">
         <v>210</v>
       </c>
       <c r="E573">
-        <v>18293723</v>
+        <v>18342849</v>
       </c>
       <c r="F573" t="s">
         <v>27</v>
@@ -21172,13 +21172,13 @@
         <v>12</v>
       </c>
       <c r="C574">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D574">
         <v>84</v>
       </c>
       <c r="E574">
-        <v>17119106</v>
+        <v>17139279</v>
       </c>
       <c r="F574" t="s">
         <v>27</v>
@@ -21277,13 +21277,13 @@
         <v>12</v>
       </c>
       <c r="C577">
-        <v>5479</v>
+        <v>5485</v>
       </c>
       <c r="D577">
         <v>1364</v>
       </c>
       <c r="E577">
-        <v>10964585</v>
+        <v>10980726</v>
       </c>
       <c r="F577" t="s">
         <v>27</v>
@@ -21312,13 +21312,13 @@
         <v>12</v>
       </c>
       <c r="C578">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="D578">
         <v>517</v>
       </c>
       <c r="E578">
-        <v>8792474</v>
+        <v>8823151</v>
       </c>
       <c r="F578" t="s">
         <v>27</v>
@@ -21347,13 +21347,13 @@
         <v>12</v>
       </c>
       <c r="C579">
-        <v>6362</v>
+        <v>6369</v>
       </c>
       <c r="D579">
         <v>1355</v>
       </c>
       <c r="E579">
-        <v>25617748</v>
+        <v>25685272</v>
       </c>
       <c r="F579" t="s">
         <v>27</v>
@@ -21382,13 +21382,13 @@
         <v>12</v>
       </c>
       <c r="C580">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="D580">
         <v>463</v>
       </c>
       <c r="E580">
-        <v>11255172</v>
+        <v>11265172</v>
       </c>
       <c r="F580" t="s">
         <v>27</v>
@@ -21417,13 +21417,13 @@
         <v>12</v>
       </c>
       <c r="C581">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D581">
         <v>166</v>
       </c>
       <c r="E581">
-        <v>5934509</v>
+        <v>5977540</v>
       </c>
       <c r="F581" t="s">
         <v>27</v>
@@ -21452,13 +21452,13 @@
         <v>12</v>
       </c>
       <c r="C582">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D582">
         <v>66</v>
       </c>
       <c r="E582">
-        <v>5025360</v>
+        <v>5049513</v>
       </c>
       <c r="F582" t="s">
         <v>27</v>
@@ -21522,13 +21522,13 @@
         <v>12</v>
       </c>
       <c r="C584">
-        <v>3125</v>
+        <v>3130</v>
       </c>
       <c r="D584">
         <v>795</v>
       </c>
       <c r="E584">
-        <v>5880727</v>
+        <v>5887979</v>
       </c>
       <c r="F584" t="s">
         <v>27</v>
@@ -21557,13 +21557,13 @@
         <v>12</v>
       </c>
       <c r="C585">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D585">
         <v>171</v>
       </c>
       <c r="E585">
-        <v>2848461</v>
+        <v>2849810</v>
       </c>
       <c r="F585" t="s">
         <v>27</v>
@@ -21592,13 +21592,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D586">
         <v>548</v>
       </c>
       <c r="E586">
-        <v>8723753</v>
+        <v>8725253</v>
       </c>
       <c r="F586" t="s">
         <v>27</v>
@@ -21627,13 +21627,13 @@
         <v>12</v>
       </c>
       <c r="C587">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D587">
         <v>182</v>
       </c>
       <c r="E587">
-        <v>4162796</v>
+        <v>4172796</v>
       </c>
       <c r="F587" t="s">
         <v>27</v>
@@ -21767,13 +21767,13 @@
         <v>12</v>
       </c>
       <c r="C591">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D591">
         <v>322</v>
       </c>
       <c r="E591">
-        <v>2252940</v>
+        <v>2257486</v>
       </c>
       <c r="F591" t="s">
         <v>27</v>
@@ -21802,13 +21802,13 @@
         <v>12</v>
       </c>
       <c r="C592">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D592">
         <v>445</v>
       </c>
       <c r="E592">
-        <v>6267623</v>
+        <v>6269315</v>
       </c>
       <c r="F592" t="s">
         <v>27</v>
@@ -21837,13 +21837,13 @@
         <v>12</v>
       </c>
       <c r="C593">
-        <v>6792</v>
+        <v>6796</v>
       </c>
       <c r="D593">
         <v>1520</v>
       </c>
       <c r="E593">
-        <v>26502702</v>
+        <v>26526945</v>
       </c>
       <c r="F593" t="s">
         <v>27</v>
@@ -21872,13 +21872,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D594">
         <v>572</v>
       </c>
       <c r="E594">
-        <v>13227022</v>
+        <v>13247022</v>
       </c>
       <c r="F594" t="s">
         <v>27</v>
@@ -21907,13 +21907,13 @@
         <v>12</v>
       </c>
       <c r="C595">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D595">
         <v>182</v>
       </c>
       <c r="E595">
-        <v>6455004</v>
+        <v>6465004</v>
       </c>
       <c r="F595" t="s">
         <v>27</v>
@@ -21942,13 +21942,13 @@
         <v>12</v>
       </c>
       <c r="C596">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D596">
         <v>77</v>
       </c>
       <c r="E596">
-        <v>6758935</v>
+        <v>6811133</v>
       </c>
       <c r="F596" t="s">
         <v>27</v>
@@ -22047,13 +22047,13 @@
         <v>12</v>
       </c>
       <c r="C599">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="D599">
         <v>480</v>
       </c>
       <c r="E599">
-        <v>3945560</v>
+        <v>3952087</v>
       </c>
       <c r="F599" t="s">
         <v>27</v>
@@ -22082,13 +22082,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>7620</v>
+        <v>7634</v>
       </c>
       <c r="D600">
         <v>1279</v>
       </c>
       <c r="E600">
-        <v>28412946</v>
+        <v>28507349</v>
       </c>
       <c r="F600" t="s">
         <v>27</v>
@@ -22117,13 +22117,13 @@
         <v>12</v>
       </c>
       <c r="C601">
-        <v>13180</v>
+        <v>13194</v>
       </c>
       <c r="D601">
         <v>2744</v>
       </c>
       <c r="E601">
-        <v>55234462</v>
+        <v>55304519</v>
       </c>
       <c r="F601" t="s">
         <v>27</v>
@@ -22152,13 +22152,13 @@
         <v>12</v>
       </c>
       <c r="C602">
-        <v>4155</v>
+        <v>4162</v>
       </c>
       <c r="D602">
         <v>891</v>
       </c>
       <c r="E602">
-        <v>23299613</v>
+        <v>23381157</v>
       </c>
       <c r="F602" t="s">
         <v>27</v>
@@ -22187,13 +22187,13 @@
         <v>12</v>
       </c>
       <c r="C603">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D603">
         <v>283</v>
       </c>
       <c r="E603">
-        <v>9606506</v>
+        <v>9641355</v>
       </c>
       <c r="F603" t="s">
         <v>27</v>
@@ -22257,13 +22257,13 @@
         <v>12</v>
       </c>
       <c r="C605">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D605">
         <v>32</v>
       </c>
       <c r="E605">
-        <v>5123183</v>
+        <v>5147642</v>
       </c>
       <c r="F605" t="s">
         <v>27</v>
@@ -22327,13 +22327,13 @@
         <v>12</v>
       </c>
       <c r="C607">
-        <v>4866</v>
+        <v>4875</v>
       </c>
       <c r="D607">
         <v>1167</v>
       </c>
       <c r="E607">
-        <v>9377602</v>
+        <v>9393617</v>
       </c>
       <c r="F607" t="s">
         <v>27</v>
@@ -22362,13 +22362,13 @@
         <v>12</v>
       </c>
       <c r="C608">
-        <v>21784</v>
+        <v>21819</v>
       </c>
       <c r="D608">
         <v>4546</v>
       </c>
       <c r="E608">
-        <v>75571296</v>
+        <v>75766994</v>
       </c>
       <c r="F608" t="s">
         <v>27</v>
@@ -22397,13 +22397,13 @@
         <v>12</v>
       </c>
       <c r="C609">
-        <v>45639</v>
+        <v>45694</v>
       </c>
       <c r="D609">
-        <v>10077</v>
+        <v>10078</v>
       </c>
       <c r="E609">
-        <v>189811305</v>
+        <v>190157904</v>
       </c>
       <c r="F609" t="s">
         <v>27</v>
@@ -22432,13 +22432,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>19101</v>
+        <v>19132</v>
       </c>
       <c r="D610">
         <v>3987</v>
       </c>
       <c r="E610">
-        <v>114929113</v>
+        <v>115225257</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22467,13 +22467,13 @@
         <v>12</v>
       </c>
       <c r="C611">
-        <v>7935</v>
+        <v>7944</v>
       </c>
       <c r="D611">
         <v>1517</v>
       </c>
       <c r="E611">
-        <v>65243070</v>
+        <v>65504123</v>
       </c>
       <c r="F611" t="s">
         <v>27</v>
@@ -22502,13 +22502,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>3794</v>
+        <v>3799</v>
       </c>
       <c r="D612">
         <v>694</v>
       </c>
       <c r="E612">
-        <v>60511883</v>
+        <v>60621471</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22677,13 +22677,13 @@
         <v>12</v>
       </c>
       <c r="C617">
-        <v>14974</v>
+        <v>14993</v>
       </c>
       <c r="D617">
         <v>3525</v>
       </c>
       <c r="E617">
-        <v>35102386</v>
+        <v>35158507</v>
       </c>
       <c r="F617" t="s">
         <v>27</v>
@@ -22712,13 +22712,13 @@
         <v>12</v>
       </c>
       <c r="C618">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="D618">
         <v>627</v>
       </c>
       <c r="E618">
-        <v>9489642</v>
+        <v>9499569</v>
       </c>
       <c r="F618" t="s">
         <v>27</v>
@@ -22747,13 +22747,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>7701</v>
+        <v>7704</v>
       </c>
       <c r="D619">
         <v>1635</v>
       </c>
       <c r="E619">
-        <v>29868819</v>
+        <v>29892201</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22782,13 +22782,13 @@
         <v>12</v>
       </c>
       <c r="C620">
-        <v>2985</v>
+        <v>2990</v>
       </c>
       <c r="D620">
         <v>644</v>
       </c>
       <c r="E620">
-        <v>16575126</v>
+        <v>16629106</v>
       </c>
       <c r="F620" t="s">
         <v>27</v>
@@ -22817,13 +22817,13 @@
         <v>12</v>
       </c>
       <c r="C621">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D621">
         <v>220</v>
       </c>
       <c r="E621">
-        <v>8086663</v>
+        <v>8096663</v>
       </c>
       <c r="F621" t="s">
         <v>27</v>
@@ -22887,13 +22887,13 @@
         <v>12</v>
       </c>
       <c r="C623">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D623">
         <v>42</v>
       </c>
       <c r="E623">
-        <v>8163736</v>
+        <v>8200931</v>
       </c>
       <c r="F623" t="s">
         <v>27</v>
@@ -22922,13 +22922,13 @@
         <v>12</v>
       </c>
       <c r="C624">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="D624">
         <v>746</v>
       </c>
       <c r="E624">
-        <v>6231867</v>
+        <v>6237398</v>
       </c>
       <c r="F624" t="s">
         <v>27</v>
@@ -22957,13 +22957,13 @@
         <v>12</v>
       </c>
       <c r="C625">
-        <v>7896</v>
+        <v>7911</v>
       </c>
       <c r="D625">
         <v>1430</v>
       </c>
       <c r="E625">
-        <v>30592447</v>
+        <v>30659036</v>
       </c>
       <c r="F625" t="s">
         <v>27</v>
@@ -22992,13 +22992,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>12053</v>
+        <v>12064</v>
       </c>
       <c r="D626">
         <v>2586</v>
       </c>
       <c r="E626">
-        <v>48875865</v>
+        <v>48962991</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23027,13 +23027,13 @@
         <v>12</v>
       </c>
       <c r="C627">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="D627">
         <v>896</v>
       </c>
       <c r="E627">
-        <v>22375752</v>
+        <v>22385752</v>
       </c>
       <c r="F627" t="s">
         <v>27</v>
@@ -23097,13 +23097,13 @@
         <v>12</v>
       </c>
       <c r="C629">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D629">
         <v>114</v>
       </c>
       <c r="E629">
-        <v>8144177</v>
+        <v>8177141</v>
       </c>
       <c r="F629" t="s">
         <v>27</v>
@@ -23132,13 +23132,13 @@
         <v>12</v>
       </c>
       <c r="C630">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D630">
         <v>65</v>
       </c>
       <c r="E630">
-        <v>12570712</v>
+        <v>12778001</v>
       </c>
       <c r="F630" t="s">
         <v>27</v>
@@ -23202,13 +23202,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>3563</v>
+        <v>3569</v>
       </c>
       <c r="D632">
         <v>823</v>
       </c>
       <c r="E632">
-        <v>6894843</v>
+        <v>6903837</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23237,13 +23237,13 @@
         <v>12</v>
       </c>
       <c r="C633">
-        <v>3817</v>
+        <v>3823</v>
       </c>
       <c r="D633">
         <v>774</v>
       </c>
       <c r="E633">
-        <v>12647761</v>
+        <v>12668867</v>
       </c>
       <c r="F633" t="s">
         <v>27</v>
@@ -23272,13 +23272,13 @@
         <v>12</v>
       </c>
       <c r="C634">
-        <v>8034</v>
+        <v>8038</v>
       </c>
       <c r="D634">
         <v>1821</v>
       </c>
       <c r="E634">
-        <v>29852303</v>
+        <v>29883197</v>
       </c>
       <c r="F634" t="s">
         <v>27</v>
@@ -23307,13 +23307,13 @@
         <v>12</v>
       </c>
       <c r="C635">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="D635">
         <v>688</v>
       </c>
       <c r="E635">
-        <v>15605454</v>
+        <v>15616460</v>
       </c>
       <c r="F635" t="s">
         <v>27</v>
@@ -23342,13 +23342,13 @@
         <v>12</v>
       </c>
       <c r="C636">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D636">
         <v>209</v>
       </c>
       <c r="E636">
-        <v>5165232</v>
+        <v>5175232</v>
       </c>
       <c r="F636" t="s">
         <v>27</v>
@@ -23447,13 +23447,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="D639">
         <v>751</v>
       </c>
       <c r="E639">
-        <v>5670878</v>
+        <v>5673878</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23482,13 +23482,13 @@
         <v>12</v>
       </c>
       <c r="C640">
-        <v>10106</v>
+        <v>10117</v>
       </c>
       <c r="D640">
         <v>1855</v>
       </c>
       <c r="E640">
-        <v>36003511</v>
+        <v>36059854</v>
       </c>
       <c r="F640" t="s">
         <v>27</v>
@@ -23517,13 +23517,13 @@
         <v>12</v>
       </c>
       <c r="C641">
-        <v>23029</v>
+        <v>23049</v>
       </c>
       <c r="D641">
         <v>4824</v>
       </c>
       <c r="E641">
-        <v>95442295</v>
+        <v>95559501</v>
       </c>
       <c r="F641" t="s">
         <v>27</v>
@@ -23552,13 +23552,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>9111</v>
+        <v>9119</v>
       </c>
       <c r="D642">
         <v>1826</v>
       </c>
       <c r="E642">
-        <v>53304739</v>
+        <v>53376794</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23587,13 +23587,13 @@
         <v>12</v>
       </c>
       <c r="C643">
-        <v>3387</v>
+        <v>3393</v>
       </c>
       <c r="D643">
         <v>671</v>
       </c>
       <c r="E643">
-        <v>27707149</v>
+        <v>27809275</v>
       </c>
       <c r="F643" t="s">
         <v>27</v>
@@ -23727,13 +23727,13 @@
         <v>12</v>
       </c>
       <c r="C647">
-        <v>7943</v>
+        <v>7959</v>
       </c>
       <c r="D647">
         <v>1906</v>
       </c>
       <c r="E647">
-        <v>15365627</v>
+        <v>15395752</v>
       </c>
       <c r="F647" t="s">
         <v>27</v>
@@ -23797,13 +23797,13 @@
         <v>12</v>
       </c>
       <c r="C649">
-        <v>8106</v>
+        <v>8116</v>
       </c>
       <c r="D649">
         <v>1779</v>
       </c>
       <c r="E649">
-        <v>30859256</v>
+        <v>30929171</v>
       </c>
       <c r="F649" t="s">
         <v>27</v>
@@ -23867,13 +23867,13 @@
         <v>12</v>
       </c>
       <c r="C651">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D651">
         <v>248</v>
       </c>
       <c r="E651">
-        <v>9091588</v>
+        <v>9124082</v>
       </c>
       <c r="F651" t="s">
         <v>27</v>
@@ -23902,13 +23902,13 @@
         <v>12</v>
       </c>
       <c r="C652">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D652">
         <v>107</v>
       </c>
       <c r="E652">
-        <v>9298045</v>
+        <v>9326930</v>
       </c>
       <c r="F652" t="s">
         <v>27</v>
@@ -24007,13 +24007,13 @@
         <v>12</v>
       </c>
       <c r="C655">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="D655">
         <v>591</v>
       </c>
       <c r="E655">
-        <v>5220132</v>
+        <v>5224613</v>
       </c>
       <c r="F655" t="s">
         <v>27</v>
@@ -24042,13 +24042,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D656">
         <v>249</v>
       </c>
       <c r="E656">
-        <v>3039983</v>
+        <v>3041455</v>
       </c>
       <c r="F656" t="s">
         <v>28</v>
@@ -24077,13 +24077,13 @@
         <v>12</v>
       </c>
       <c r="C657">
-        <v>4544</v>
+        <v>4552</v>
       </c>
       <c r="D657">
         <v>910</v>
       </c>
       <c r="E657">
-        <v>17772192</v>
+        <v>17823155</v>
       </c>
       <c r="F657" t="s">
         <v>28</v>
@@ -24112,13 +24112,13 @@
         <v>12</v>
       </c>
       <c r="C658">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="D658">
         <v>339</v>
       </c>
       <c r="E658">
-        <v>10722780</v>
+        <v>10762780</v>
       </c>
       <c r="F658" t="s">
         <v>28</v>
@@ -24147,13 +24147,13 @@
         <v>12</v>
       </c>
       <c r="C659">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D659">
         <v>103</v>
       </c>
       <c r="E659">
-        <v>3647844</v>
+        <v>3662125</v>
       </c>
       <c r="F659" t="s">
         <v>28</v>
@@ -24182,13 +24182,13 @@
         <v>12</v>
       </c>
       <c r="C660">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D660">
         <v>39</v>
       </c>
       <c r="E660">
-        <v>2362601</v>
+        <v>2386249</v>
       </c>
       <c r="F660" t="s">
         <v>28</v>
@@ -24252,13 +24252,13 @@
         <v>12</v>
       </c>
       <c r="C662">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="D662">
         <v>447</v>
       </c>
       <c r="E662">
-        <v>3182732</v>
+        <v>3189407</v>
       </c>
       <c r="F662" t="s">
         <v>28</v>
@@ -24287,13 +24287,13 @@
         <v>12</v>
       </c>
       <c r="C663">
-        <v>7629</v>
+        <v>7647</v>
       </c>
       <c r="D663">
         <v>1290</v>
       </c>
       <c r="E663">
-        <v>28149475</v>
+        <v>28240153</v>
       </c>
       <c r="F663" t="s">
         <v>28</v>
@@ -24322,13 +24322,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>12637</v>
+        <v>12654</v>
       </c>
       <c r="D664">
         <v>2491</v>
       </c>
       <c r="E664">
-        <v>52065379</v>
+        <v>52184164</v>
       </c>
       <c r="F664" t="s">
         <v>28</v>
@@ -24357,13 +24357,13 @@
         <v>12</v>
       </c>
       <c r="C665">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="D665">
         <v>864</v>
       </c>
       <c r="E665">
-        <v>23633972</v>
+        <v>23655472</v>
       </c>
       <c r="F665" t="s">
         <v>28</v>
@@ -24532,13 +24532,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>3950</v>
+        <v>3956</v>
       </c>
       <c r="D670">
         <v>853</v>
       </c>
       <c r="E670">
-        <v>7523660</v>
+        <v>7538758</v>
       </c>
       <c r="F670" t="s">
         <v>28</v>
@@ -24567,13 +24567,13 @@
         <v>12</v>
       </c>
       <c r="C671">
-        <v>4802</v>
+        <v>4809</v>
       </c>
       <c r="D671">
         <v>858</v>
       </c>
       <c r="E671">
-        <v>17139610</v>
+        <v>17181254</v>
       </c>
       <c r="F671" t="s">
         <v>28</v>
@@ -24602,13 +24602,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>9125</v>
+        <v>9137</v>
       </c>
       <c r="D672">
         <v>1922</v>
       </c>
       <c r="E672">
-        <v>35576574</v>
+        <v>35668252</v>
       </c>
       <c r="F672" t="s">
         <v>28</v>
@@ -24637,13 +24637,13 @@
         <v>12</v>
       </c>
       <c r="C673">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D673">
         <v>626</v>
       </c>
       <c r="E673">
-        <v>15840437</v>
+        <v>15850437</v>
       </c>
       <c r="F673" t="s">
         <v>28</v>
@@ -24742,13 +24742,13 @@
         <v>12</v>
       </c>
       <c r="C676">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D676">
         <v>36</v>
       </c>
       <c r="E676">
-        <v>5513671</v>
+        <v>5560850</v>
       </c>
       <c r="F676" t="s">
         <v>28</v>
@@ -24777,13 +24777,13 @@
         <v>12</v>
       </c>
       <c r="C677">
-        <v>4357</v>
+        <v>4365</v>
       </c>
       <c r="D677">
         <v>1077</v>
       </c>
       <c r="E677">
-        <v>7660747</v>
+        <v>7687373</v>
       </c>
       <c r="F677" t="s">
         <v>28</v>
@@ -24812,13 +24812,13 @@
         <v>12</v>
       </c>
       <c r="C678">
-        <v>11611</v>
+        <v>11624</v>
       </c>
       <c r="D678">
         <v>2142</v>
       </c>
       <c r="E678">
-        <v>38224793</v>
+        <v>38277054</v>
       </c>
       <c r="F678" t="s">
         <v>28</v>
@@ -24847,13 +24847,13 @@
         <v>12</v>
       </c>
       <c r="C679">
-        <v>26065</v>
+        <v>26096</v>
       </c>
       <c r="D679">
         <v>5254</v>
       </c>
       <c r="E679">
-        <v>100388692</v>
+        <v>100582778</v>
       </c>
       <c r="F679" t="s">
         <v>28</v>
@@ -24882,13 +24882,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>8243</v>
+        <v>8257</v>
       </c>
       <c r="D680">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E680">
-        <v>45929412</v>
+        <v>46033292</v>
       </c>
       <c r="F680" t="s">
         <v>28</v>
@@ -24917,13 +24917,13 @@
         <v>12</v>
       </c>
       <c r="C681">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D681">
         <v>520</v>
       </c>
       <c r="E681">
-        <v>19076726</v>
+        <v>19088187</v>
       </c>
       <c r="F681" t="s">
         <v>28</v>
@@ -24952,13 +24952,13 @@
         <v>12</v>
       </c>
       <c r="C682">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D682">
         <v>204</v>
       </c>
       <c r="E682">
-        <v>15082849</v>
+        <v>15112194</v>
       </c>
       <c r="F682" t="s">
         <v>28</v>
@@ -24987,13 +24987,13 @@
         <v>12</v>
       </c>
       <c r="C683">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D683">
         <v>59</v>
       </c>
       <c r="E683">
-        <v>12634561</v>
+        <v>12676735</v>
       </c>
       <c r="F683" t="s">
         <v>28</v>
@@ -25092,13 +25092,13 @@
         <v>12</v>
       </c>
       <c r="C686">
-        <v>8979</v>
+        <v>8993</v>
       </c>
       <c r="D686">
         <v>1921</v>
       </c>
       <c r="E686">
-        <v>17032842</v>
+        <v>17053839</v>
       </c>
       <c r="F686" t="s">
         <v>28</v>
@@ -25127,13 +25127,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="D687">
         <v>529</v>
       </c>
       <c r="E687">
-        <v>8840233</v>
+        <v>8867019</v>
       </c>
       <c r="F687" t="s">
         <v>28</v>
@@ -25162,13 +25162,13 @@
         <v>12</v>
       </c>
       <c r="C688">
-        <v>5714</v>
+        <v>5723</v>
       </c>
       <c r="D688">
         <v>1273</v>
       </c>
       <c r="E688">
-        <v>23489879</v>
+        <v>23562555</v>
       </c>
       <c r="F688" t="s">
         <v>28</v>
@@ -25197,13 +25197,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="D689">
         <v>424</v>
       </c>
       <c r="E689">
-        <v>9939066</v>
+        <v>9958078</v>
       </c>
       <c r="F689" t="s">
         <v>28</v>
@@ -25267,13 +25267,13 @@
         <v>12</v>
       </c>
       <c r="C691">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D691">
         <v>61</v>
       </c>
       <c r="E691">
-        <v>3901399</v>
+        <v>3916289</v>
       </c>
       <c r="F691" t="s">
         <v>28</v>
@@ -25337,13 +25337,13 @@
         <v>12</v>
       </c>
       <c r="C693">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="D693">
         <v>658</v>
       </c>
       <c r="E693">
-        <v>5545219</v>
+        <v>5550485</v>
       </c>
       <c r="F693" t="s">
         <v>28</v>
@@ -25372,13 +25372,13 @@
         <v>12</v>
       </c>
       <c r="C694">
-        <v>14656</v>
+        <v>14674</v>
       </c>
       <c r="D694">
         <v>3093</v>
       </c>
       <c r="E694">
-        <v>42054573</v>
+        <v>42118552</v>
       </c>
       <c r="F694" t="s">
         <v>28</v>
@@ -25407,13 +25407,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>36436</v>
+        <v>36471</v>
       </c>
       <c r="D695">
         <v>7686</v>
       </c>
       <c r="E695">
-        <v>136216448</v>
+        <v>136412489</v>
       </c>
       <c r="F695" t="s">
         <v>28</v>
@@ -25442,13 +25442,13 @@
         <v>12</v>
       </c>
       <c r="C696">
-        <v>15359</v>
+        <v>15371</v>
       </c>
       <c r="D696">
         <v>3087</v>
       </c>
       <c r="E696">
-        <v>88408434</v>
+        <v>88515024</v>
       </c>
       <c r="F696" t="s">
         <v>28</v>
@@ -25477,13 +25477,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>5954</v>
+        <v>5956</v>
       </c>
       <c r="D697">
         <v>1140</v>
       </c>
       <c r="E697">
-        <v>45994600</v>
+        <v>46014808</v>
       </c>
       <c r="F697" t="s">
         <v>28</v>
@@ -25512,13 +25512,13 @@
         <v>12</v>
       </c>
       <c r="C698">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="D698">
         <v>515</v>
       </c>
       <c r="E698">
-        <v>44090972</v>
+        <v>44153421</v>
       </c>
       <c r="F698" t="s">
         <v>28</v>
@@ -25722,13 +25722,13 @@
         <v>12</v>
       </c>
       <c r="C704">
-        <v>12315</v>
+        <v>12334</v>
       </c>
       <c r="D704">
         <v>2908</v>
       </c>
       <c r="E704">
-        <v>22253360</v>
+        <v>22287092</v>
       </c>
       <c r="F704" t="s">
         <v>28</v>
@@ -25757,13 +25757,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>4894</v>
+        <v>4900</v>
       </c>
       <c r="D705">
         <v>716</v>
       </c>
       <c r="E705">
-        <v>20930478</v>
+        <v>20979186</v>
       </c>
       <c r="F705" t="s">
         <v>28</v>
@@ -25792,13 +25792,13 @@
         <v>12</v>
       </c>
       <c r="C706">
-        <v>9037</v>
+        <v>9047</v>
       </c>
       <c r="D706">
         <v>1650</v>
       </c>
       <c r="E706">
-        <v>41341272</v>
+        <v>41385777</v>
       </c>
       <c r="F706" t="s">
         <v>28</v>
@@ -25827,13 +25827,13 @@
         <v>12</v>
       </c>
       <c r="C707">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="D707">
         <v>645</v>
       </c>
       <c r="E707">
-        <v>24042623</v>
+        <v>24062623</v>
       </c>
       <c r="F707" t="s">
         <v>28</v>
@@ -25862,13 +25862,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D708">
         <v>194</v>
       </c>
       <c r="E708">
-        <v>11962135</v>
+        <v>12008458</v>
       </c>
       <c r="F708" t="s">
         <v>28</v>
@@ -25897,13 +25897,13 @@
         <v>12</v>
       </c>
       <c r="C709">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D709">
         <v>99</v>
       </c>
       <c r="E709">
-        <v>10568331</v>
+        <v>10605803</v>
       </c>
       <c r="F709" t="s">
         <v>28</v>
@@ -26002,13 +26002,13 @@
         <v>12</v>
       </c>
       <c r="C712">
-        <v>4816</v>
+        <v>4827</v>
       </c>
       <c r="D712">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E712">
-        <v>10192502</v>
+        <v>10217066</v>
       </c>
       <c r="F712" t="s">
         <v>28</v>
@@ -26037,13 +26037,13 @@
         <v>12</v>
       </c>
       <c r="C713">
-        <v>24038</v>
+        <v>24065</v>
       </c>
       <c r="D713">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="E713">
-        <v>84938496</v>
+        <v>85087039</v>
       </c>
       <c r="F713" t="s">
         <v>28</v>
@@ -26072,13 +26072,13 @@
         <v>12</v>
       </c>
       <c r="C714">
-        <v>46602</v>
+        <v>46672</v>
       </c>
       <c r="D714">
         <v>9143</v>
       </c>
       <c r="E714">
-        <v>182167119</v>
+        <v>182536351</v>
       </c>
       <c r="F714" t="s">
         <v>28</v>
@@ -26107,13 +26107,13 @@
         <v>12</v>
       </c>
       <c r="C715">
-        <v>15758</v>
+        <v>15771</v>
       </c>
       <c r="D715">
         <v>3082</v>
       </c>
       <c r="E715">
-        <v>90684183</v>
+        <v>90800264</v>
       </c>
       <c r="F715" t="s">
         <v>28</v>
@@ -26142,13 +26142,13 @@
         <v>12</v>
       </c>
       <c r="C716">
-        <v>5536</v>
+        <v>5542</v>
       </c>
       <c r="D716">
         <v>1069</v>
       </c>
       <c r="E716">
-        <v>44890251</v>
+        <v>44956606</v>
       </c>
       <c r="F716" t="s">
         <v>28</v>
@@ -26177,13 +26177,13 @@
         <v>12</v>
       </c>
       <c r="C717">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="D717">
         <v>460</v>
       </c>
       <c r="E717">
-        <v>37421727</v>
+        <v>37478553</v>
       </c>
       <c r="F717" t="s">
         <v>28</v>
@@ -26352,13 +26352,13 @@
         <v>12</v>
       </c>
       <c r="C722">
-        <v>12982</v>
+        <v>13006</v>
       </c>
       <c r="D722">
         <v>2873</v>
       </c>
       <c r="E722">
-        <v>24944022</v>
+        <v>24996503</v>
       </c>
       <c r="F722" t="s">
         <v>28</v>
@@ -26387,13 +26387,13 @@
         <v>12</v>
       </c>
       <c r="C723">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="D723">
         <v>614</v>
       </c>
       <c r="E723">
-        <v>13371168</v>
+        <v>13385118</v>
       </c>
       <c r="F723" t="s">
         <v>28</v>
@@ -26422,13 +26422,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>5697</v>
+        <v>5704</v>
       </c>
       <c r="D724">
         <v>1154</v>
       </c>
       <c r="E724">
-        <v>23751660</v>
+        <v>23801204</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26457,13 +26457,13 @@
         <v>12</v>
       </c>
       <c r="C725">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D725">
         <v>390</v>
       </c>
       <c r="E725">
-        <v>10824701</v>
+        <v>10834701</v>
       </c>
       <c r="F725" t="s">
         <v>28</v>
@@ -26492,13 +26492,13 @@
         <v>12</v>
       </c>
       <c r="C726">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D726">
         <v>121</v>
       </c>
       <c r="E726">
-        <v>4235432</v>
+        <v>4245432</v>
       </c>
       <c r="F726" t="s">
         <v>28</v>
@@ -26597,13 +26597,13 @@
         <v>12</v>
       </c>
       <c r="C729">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="D729">
         <v>641</v>
       </c>
       <c r="E729">
-        <v>4364710</v>
+        <v>4369455</v>
       </c>
       <c r="F729" t="s">
         <v>28</v>
@@ -26632,13 +26632,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D730">
         <v>336</v>
       </c>
       <c r="E730">
-        <v>8521251</v>
+        <v>8535765</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26667,13 +26667,13 @@
         <v>12</v>
       </c>
       <c r="C731">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="D731">
         <v>567</v>
       </c>
       <c r="E731">
-        <v>11642175</v>
+        <v>11662175</v>
       </c>
       <c r="F731" t="s">
         <v>28</v>
@@ -26842,13 +26842,13 @@
         <v>12</v>
       </c>
       <c r="C736">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D736">
         <v>543</v>
       </c>
       <c r="E736">
-        <v>3845773</v>
+        <v>3848773</v>
       </c>
       <c r="F736" t="s">
         <v>28</v>
@@ -26877,13 +26877,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>11469</v>
+        <v>11486</v>
       </c>
       <c r="D737">
         <v>1909</v>
       </c>
       <c r="E737">
-        <v>42646202</v>
+        <v>42720093</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -26912,13 +26912,13 @@
         <v>12</v>
       </c>
       <c r="C738">
-        <v>17222</v>
+        <v>17235</v>
       </c>
       <c r="D738">
         <v>3479</v>
       </c>
       <c r="E738">
-        <v>68220161</v>
+        <v>68285324</v>
       </c>
       <c r="F738" t="s">
         <v>28</v>
@@ -26947,13 +26947,13 @@
         <v>12</v>
       </c>
       <c r="C739">
-        <v>6192</v>
+        <v>6194</v>
       </c>
       <c r="D739">
         <v>1240</v>
       </c>
       <c r="E739">
-        <v>36506371</v>
+        <v>36526371</v>
       </c>
       <c r="F739" t="s">
         <v>28</v>
@@ -26982,13 +26982,13 @@
         <v>12</v>
       </c>
       <c r="C740">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D740">
         <v>421</v>
       </c>
       <c r="E740">
-        <v>16740484</v>
+        <v>16760484</v>
       </c>
       <c r="F740" t="s">
         <v>28</v>
@@ -27122,13 +27122,13 @@
         <v>12</v>
       </c>
       <c r="C744">
-        <v>5710</v>
+        <v>5717</v>
       </c>
       <c r="D744">
         <v>1207</v>
       </c>
       <c r="E744">
-        <v>10785498</v>
+        <v>10793988</v>
       </c>
       <c r="F744" t="s">
         <v>28</v>
@@ -27157,13 +27157,13 @@
         <v>12</v>
       </c>
       <c r="C745">
-        <v>4070</v>
+        <v>4077</v>
       </c>
       <c r="D745">
         <v>844</v>
       </c>
       <c r="E745">
-        <v>11870857</v>
+        <v>11897043</v>
       </c>
       <c r="F745" t="s">
         <v>28</v>
@@ -27192,13 +27192,13 @@
         <v>12</v>
       </c>
       <c r="C746">
-        <v>9754</v>
+        <v>9761</v>
       </c>
       <c r="D746">
         <v>2203</v>
       </c>
       <c r="E746">
-        <v>36204810</v>
+        <v>36252346</v>
       </c>
       <c r="F746" t="s">
         <v>28</v>
@@ -27227,13 +27227,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="D747">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E747">
-        <v>17513279</v>
+        <v>17543637</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27332,13 +27332,13 @@
         <v>12</v>
       </c>
       <c r="C750">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D750">
         <v>31</v>
       </c>
       <c r="E750">
-        <v>4220552</v>
+        <v>4291208</v>
       </c>
       <c r="F750" t="s">
         <v>28</v>
@@ -27367,13 +27367,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>3699</v>
+        <v>3705</v>
       </c>
       <c r="D751">
         <v>872</v>
       </c>
       <c r="E751">
-        <v>6697468</v>
+        <v>6711452</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27402,13 +27402,13 @@
         <v>12</v>
       </c>
       <c r="C752">
-        <v>2609</v>
+        <v>2614</v>
       </c>
       <c r="D752">
         <v>546</v>
       </c>
       <c r="E752">
-        <v>7704495</v>
+        <v>7736938</v>
       </c>
       <c r="F752" t="s">
         <v>28</v>
@@ -27437,13 +27437,13 @@
         <v>12</v>
       </c>
       <c r="C753">
-        <v>6223</v>
+        <v>6227</v>
       </c>
       <c r="D753">
         <v>1404</v>
       </c>
       <c r="E753">
-        <v>24017003</v>
+        <v>24032592</v>
       </c>
       <c r="F753" t="s">
         <v>28</v>
@@ -27472,13 +27472,13 @@
         <v>12</v>
       </c>
       <c r="C754">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D754">
         <v>486</v>
       </c>
       <c r="E754">
-        <v>10974844</v>
+        <v>10984844</v>
       </c>
       <c r="F754" t="s">
         <v>28</v>
@@ -27507,13 +27507,13 @@
         <v>12</v>
       </c>
       <c r="C755">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D755">
         <v>159</v>
       </c>
       <c r="E755">
-        <v>4588314</v>
+        <v>4613238</v>
       </c>
       <c r="F755" t="s">
         <v>28</v>
@@ -27612,13 +27612,13 @@
         <v>12</v>
       </c>
       <c r="C758">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D758">
         <v>589</v>
       </c>
       <c r="E758">
-        <v>4114749</v>
+        <v>4115397</v>
       </c>
       <c r="F758" t="s">
         <v>28</v>
@@ -27647,13 +27647,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>12768</v>
+        <v>12790</v>
       </c>
       <c r="D759">
         <v>2550</v>
       </c>
       <c r="E759">
-        <v>42779432</v>
+        <v>42904077</v>
       </c>
       <c r="F759" t="s">
         <v>29</v>
@@ -27682,13 +27682,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>30214</v>
+        <v>30253</v>
       </c>
       <c r="D760">
         <v>6507</v>
       </c>
       <c r="E760">
-        <v>131323438</v>
+        <v>131562594</v>
       </c>
       <c r="F760" t="s">
         <v>29</v>
@@ -27717,13 +27717,13 @@
         <v>12</v>
       </c>
       <c r="C761">
-        <v>13787</v>
+        <v>13804</v>
       </c>
       <c r="D761">
         <v>2729</v>
       </c>
       <c r="E761">
-        <v>82151322</v>
+        <v>82307135</v>
       </c>
       <c r="F761" t="s">
         <v>29</v>
@@ -27752,13 +27752,13 @@
         <v>12</v>
       </c>
       <c r="C762">
-        <v>4834</v>
+        <v>4836</v>
       </c>
       <c r="D762">
         <v>969</v>
       </c>
       <c r="E762">
-        <v>41579079</v>
+        <v>41610485</v>
       </c>
       <c r="F762" t="s">
         <v>29</v>
@@ -27787,13 +27787,13 @@
         <v>12</v>
       </c>
       <c r="C763">
-        <v>2319</v>
+        <v>2324</v>
       </c>
       <c r="D763">
         <v>439</v>
       </c>
       <c r="E763">
-        <v>36293321</v>
+        <v>36400054</v>
       </c>
       <c r="F763" t="s">
         <v>29</v>
@@ -27927,13 +27927,13 @@
         <v>12</v>
       </c>
       <c r="C767">
-        <v>8244</v>
+        <v>8257</v>
       </c>
       <c r="D767">
         <v>1980</v>
       </c>
       <c r="E767">
-        <v>16520296</v>
+        <v>16554401</v>
       </c>
       <c r="F767" t="s">
         <v>29</v>
@@ -27962,13 +27962,13 @@
         <v>12</v>
       </c>
       <c r="C768">
-        <v>5553</v>
+        <v>5561</v>
       </c>
       <c r="D768">
         <v>1161</v>
       </c>
       <c r="E768">
-        <v>17730398</v>
+        <v>17758681</v>
       </c>
       <c r="F768" t="s">
         <v>29</v>
@@ -27997,13 +27997,13 @@
         <v>12</v>
       </c>
       <c r="C769">
-        <v>17409</v>
+        <v>17425</v>
       </c>
       <c r="D769">
         <v>3729</v>
       </c>
       <c r="E769">
-        <v>74057490</v>
+        <v>74150488</v>
       </c>
       <c r="F769" t="s">
         <v>29</v>
@@ -28032,13 +28032,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>6510</v>
+        <v>6519</v>
       </c>
       <c r="D770">
         <v>1453</v>
       </c>
       <c r="E770">
-        <v>37105564</v>
+        <v>37186529</v>
       </c>
       <c r="F770" t="s">
         <v>29</v>
@@ -28207,13 +28207,13 @@
         <v>12</v>
       </c>
       <c r="C775">
-        <v>4843</v>
+        <v>4846</v>
       </c>
       <c r="D775">
         <v>1141</v>
       </c>
       <c r="E775">
-        <v>10051251</v>
+        <v>10061466</v>
       </c>
       <c r="F775" t="s">
         <v>29</v>
@@ -28242,13 +28242,13 @@
         <v>12</v>
       </c>
       <c r="C776">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="D776">
         <v>451</v>
       </c>
       <c r="E776">
-        <v>6730664</v>
+        <v>6739773</v>
       </c>
       <c r="F776" t="s">
         <v>29</v>
@@ -28277,13 +28277,13 @@
         <v>12</v>
       </c>
       <c r="C777">
-        <v>5787</v>
+        <v>5793</v>
       </c>
       <c r="D777">
         <v>1313</v>
       </c>
       <c r="E777">
-        <v>22706017</v>
+        <v>22739396</v>
       </c>
       <c r="F777" t="s">
         <v>29</v>
@@ -28312,13 +28312,13 @@
         <v>12</v>
       </c>
       <c r="C778">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="D778">
         <v>505</v>
       </c>
       <c r="E778">
-        <v>11671983</v>
+        <v>11684229</v>
       </c>
       <c r="F778" t="s">
         <v>29</v>
@@ -28452,13 +28452,13 @@
         <v>12</v>
       </c>
       <c r="C782">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="D782">
         <v>401</v>
       </c>
       <c r="E782">
-        <v>3470539</v>
+        <v>3483313</v>
       </c>
       <c r="F782" t="s">
         <v>29</v>
@@ -28487,13 +28487,13 @@
         <v>12</v>
       </c>
       <c r="C783">
-        <v>3601</v>
+        <v>3606</v>
       </c>
       <c r="D783">
         <v>737</v>
       </c>
       <c r="E783">
-        <v>12752837</v>
+        <v>12775522</v>
       </c>
       <c r="F783" t="s">
         <v>29</v>
@@ -28522,13 +28522,13 @@
         <v>12</v>
       </c>
       <c r="C784">
-        <v>10138</v>
+        <v>10149</v>
       </c>
       <c r="D784">
         <v>2109</v>
       </c>
       <c r="E784">
-        <v>42142307</v>
+        <v>42222339</v>
       </c>
       <c r="F784" t="s">
         <v>29</v>
@@ -28557,13 +28557,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="D785">
         <v>846</v>
       </c>
       <c r="E785">
-        <v>21806016</v>
+        <v>21826016</v>
       </c>
       <c r="F785" t="s">
         <v>29</v>
@@ -28592,13 +28592,13 @@
         <v>12</v>
       </c>
       <c r="C786">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D786">
         <v>281</v>
       </c>
       <c r="E786">
-        <v>9349508</v>
+        <v>9373221</v>
       </c>
       <c r="F786" t="s">
         <v>29</v>
@@ -28627,13 +28627,13 @@
         <v>12</v>
       </c>
       <c r="C787">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D787">
         <v>148</v>
       </c>
       <c r="E787">
-        <v>12147098</v>
+        <v>12169660</v>
       </c>
       <c r="F787" t="s">
         <v>29</v>
@@ -28697,13 +28697,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D789">
         <v>663</v>
       </c>
       <c r="E789">
-        <v>5012632</v>
+        <v>5016428</v>
       </c>
       <c r="F789" t="s">
         <v>29</v>
@@ -28732,13 +28732,13 @@
         <v>12</v>
       </c>
       <c r="C790">
-        <v>8608</v>
+        <v>8624</v>
       </c>
       <c r="D790">
         <v>1584</v>
       </c>
       <c r="E790">
-        <v>33553108</v>
+        <v>33657121</v>
       </c>
       <c r="F790" t="s">
         <v>29</v>
@@ -28767,13 +28767,13 @@
         <v>12</v>
       </c>
       <c r="C791">
-        <v>15806</v>
+        <v>15822</v>
       </c>
       <c r="D791">
         <v>3420</v>
       </c>
       <c r="E791">
-        <v>68971193</v>
+        <v>69081011</v>
       </c>
       <c r="F791" t="s">
         <v>29</v>
@@ -28802,13 +28802,13 @@
         <v>12</v>
       </c>
       <c r="C792">
-        <v>7063</v>
+        <v>7076</v>
       </c>
       <c r="D792">
         <v>1523</v>
       </c>
       <c r="E792">
-        <v>43890445</v>
+        <v>44035525</v>
       </c>
       <c r="F792" t="s">
         <v>29</v>
@@ -28837,13 +28837,13 @@
         <v>12</v>
       </c>
       <c r="C793">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="D793">
         <v>477</v>
       </c>
       <c r="E793">
-        <v>19220120</v>
+        <v>19240164</v>
       </c>
       <c r="F793" t="s">
         <v>29</v>
@@ -28872,13 +28872,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D794">
         <v>179</v>
       </c>
       <c r="E794">
-        <v>17723439</v>
+        <v>17747796</v>
       </c>
       <c r="F794" t="s">
         <v>29</v>
@@ -29047,13 +29047,13 @@
         <v>12</v>
       </c>
       <c r="C799">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="D799">
         <v>730</v>
       </c>
       <c r="E799">
-        <v>15404397</v>
+        <v>15417432</v>
       </c>
       <c r="F799" t="s">
         <v>30</v>
@@ -29082,13 +29082,13 @@
         <v>12</v>
       </c>
       <c r="C800">
-        <v>7654</v>
+        <v>7660</v>
       </c>
       <c r="D800">
         <v>1416</v>
       </c>
       <c r="E800">
-        <v>32717617</v>
+        <v>32756880</v>
       </c>
       <c r="F800" t="s">
         <v>30</v>
@@ -29117,13 +29117,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="D801">
         <v>467</v>
       </c>
       <c r="E801">
-        <v>15589576</v>
+        <v>15628714</v>
       </c>
       <c r="F801" t="s">
         <v>30</v>
@@ -29152,13 +29152,13 @@
         <v>12</v>
       </c>
       <c r="C802">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D802">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E802">
-        <v>4460333</v>
+        <v>4461833</v>
       </c>
       <c r="F802" t="s">
         <v>30</v>
@@ -29292,13 +29292,13 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="D806">
         <v>561</v>
       </c>
       <c r="E806">
-        <v>5766112</v>
+        <v>5774512</v>
       </c>
       <c r="F806" t="s">
         <v>30</v>
@@ -29327,13 +29327,13 @@
         <v>12</v>
       </c>
       <c r="C807">
-        <v>23944</v>
+        <v>23975</v>
       </c>
       <c r="D807">
         <v>4080</v>
       </c>
       <c r="E807">
-        <v>81766794</v>
+        <v>81945323</v>
       </c>
       <c r="F807" t="s">
         <v>30</v>
@@ -29362,13 +29362,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>57003</v>
+        <v>57072</v>
       </c>
       <c r="D808">
         <v>10160</v>
       </c>
       <c r="E808">
-        <v>232340652</v>
+        <v>232700628</v>
       </c>
       <c r="F808" t="s">
         <v>30</v>
@@ -29397,13 +29397,13 @@
         <v>12</v>
       </c>
       <c r="C809">
-        <v>20478</v>
+        <v>20502</v>
       </c>
       <c r="D809">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E809">
-        <v>127805732</v>
+        <v>128022041</v>
       </c>
       <c r="F809" t="s">
         <v>30</v>
@@ -29432,13 +29432,13 @@
         <v>12</v>
       </c>
       <c r="C810">
-        <v>8064</v>
+        <v>8079</v>
       </c>
       <c r="D810">
         <v>1269</v>
       </c>
       <c r="E810">
-        <v>74640453</v>
+        <v>74855346</v>
       </c>
       <c r="F810" t="s">
         <v>30</v>
@@ -29467,13 +29467,13 @@
         <v>12</v>
       </c>
       <c r="C811">
-        <v>4356</v>
+        <v>4359</v>
       </c>
       <c r="D811">
         <v>698</v>
       </c>
       <c r="E811">
-        <v>79983482</v>
+        <v>80015314</v>
       </c>
       <c r="F811" t="s">
         <v>30</v>
@@ -29572,13 +29572,13 @@
         <v>12</v>
       </c>
       <c r="C814">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D814">
         <v>9</v>
       </c>
       <c r="E814">
-        <v>4261610</v>
+        <v>4461610</v>
       </c>
       <c r="F814" t="s">
         <v>30</v>
@@ -29677,13 +29677,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>17478</v>
+        <v>17515</v>
       </c>
       <c r="D817">
         <v>3464</v>
       </c>
       <c r="E817">
-        <v>34421102</v>
+        <v>34489293</v>
       </c>
       <c r="F817" t="s">
         <v>30</v>
@@ -29712,13 +29712,13 @@
         <v>12</v>
       </c>
       <c r="C818">
-        <v>26490</v>
+        <v>26531</v>
       </c>
       <c r="D818">
         <v>5045</v>
       </c>
       <c r="E818">
-        <v>83382061</v>
+        <v>83555196</v>
       </c>
       <c r="F818" t="s">
         <v>30</v>
@@ -29747,13 +29747,13 @@
         <v>12</v>
       </c>
       <c r="C819">
-        <v>72898</v>
+        <v>72986</v>
       </c>
       <c r="D819">
         <v>14053</v>
       </c>
       <c r="E819">
-        <v>278197676</v>
+        <v>278615095</v>
       </c>
       <c r="F819" t="s">
         <v>30</v>
@@ -29782,13 +29782,13 @@
         <v>12</v>
       </c>
       <c r="C820">
-        <v>26949</v>
+        <v>26974</v>
       </c>
       <c r="D820">
         <v>5045</v>
       </c>
       <c r="E820">
-        <v>153375233</v>
+        <v>153565812</v>
       </c>
       <c r="F820" t="s">
         <v>30</v>
@@ -29817,13 +29817,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>9310</v>
+        <v>9317</v>
       </c>
       <c r="D821">
         <v>1679</v>
       </c>
       <c r="E821">
-        <v>77452323</v>
+        <v>77550433</v>
       </c>
       <c r="F821" t="s">
         <v>30</v>
@@ -29852,13 +29852,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>4809</v>
+        <v>4815</v>
       </c>
       <c r="D822">
         <v>796</v>
       </c>
       <c r="E822">
-        <v>72247533</v>
+        <v>72359570</v>
       </c>
       <c r="F822" t="s">
         <v>30</v>
@@ -29887,13 +29887,13 @@
         <v>12</v>
       </c>
       <c r="C823">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D823">
         <v>280</v>
       </c>
       <c r="E823">
-        <v>54392848</v>
+        <v>54592848</v>
       </c>
       <c r="F823" t="s">
         <v>30</v>
@@ -30097,13 +30097,13 @@
         <v>12</v>
       </c>
       <c r="C829">
-        <v>20151</v>
+        <v>20183</v>
       </c>
       <c r="D829">
         <v>4313</v>
       </c>
       <c r="E829">
-        <v>36696456</v>
+        <v>36743875</v>
       </c>
       <c r="F829" t="s">
         <v>30</v>
@@ -30132,13 +30132,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>3979</v>
+        <v>3988</v>
       </c>
       <c r="D830">
         <v>677</v>
       </c>
       <c r="E830">
-        <v>15644221</v>
+        <v>15708950</v>
       </c>
       <c r="F830" t="s">
         <v>30</v>
@@ -30167,13 +30167,13 @@
         <v>12</v>
       </c>
       <c r="C831">
-        <v>8289</v>
+        <v>8296</v>
       </c>
       <c r="D831">
         <v>1458</v>
       </c>
       <c r="E831">
-        <v>40240638</v>
+        <v>40284157</v>
       </c>
       <c r="F831" t="s">
         <v>30</v>
@@ -30202,13 +30202,13 @@
         <v>12</v>
       </c>
       <c r="C832">
-        <v>3833</v>
+        <v>3843</v>
       </c>
       <c r="D832">
         <v>615</v>
       </c>
       <c r="E832">
-        <v>25774014</v>
+        <v>25898610</v>
       </c>
       <c r="F832" t="s">
         <v>30</v>
@@ -30237,13 +30237,13 @@
         <v>12</v>
       </c>
       <c r="C833">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D833">
         <v>248</v>
       </c>
       <c r="E833">
-        <v>15230264</v>
+        <v>15254288</v>
       </c>
       <c r="F833" t="s">
         <v>30</v>
@@ -30412,13 +30412,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>6440</v>
+        <v>6448</v>
       </c>
       <c r="D838">
         <v>1013</v>
       </c>
       <c r="E838">
-        <v>15438450</v>
+        <v>15461205</v>
       </c>
       <c r="F838" t="s">
         <v>30</v>
@@ -30447,13 +30447,13 @@
         <v>12</v>
       </c>
       <c r="C839">
-        <v>23948</v>
+        <v>23981</v>
       </c>
       <c r="D839">
         <v>4386</v>
       </c>
       <c r="E839">
-        <v>85489896</v>
+        <v>85601191</v>
       </c>
       <c r="F839" t="s">
         <v>30</v>
@@ -30482,13 +30482,13 @@
         <v>12</v>
       </c>
       <c r="C840">
-        <v>43451</v>
+        <v>43509</v>
       </c>
       <c r="D840">
         <v>8885</v>
       </c>
       <c r="E840">
-        <v>174697435</v>
+        <v>175106747</v>
       </c>
       <c r="F840" t="s">
         <v>30</v>
@@ -30517,13 +30517,13 @@
         <v>12</v>
       </c>
       <c r="C841">
-        <v>14255</v>
+        <v>14273</v>
       </c>
       <c r="D841">
         <v>2865</v>
       </c>
       <c r="E841">
-        <v>86079474</v>
+        <v>86222118</v>
       </c>
       <c r="F841" t="s">
         <v>30</v>
@@ -30552,13 +30552,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>4674</v>
+        <v>4683</v>
       </c>
       <c r="D842">
         <v>895</v>
       </c>
       <c r="E842">
-        <v>42754562</v>
+        <v>42924181</v>
       </c>
       <c r="F842" t="s">
         <v>30</v>
@@ -30587,13 +30587,13 @@
         <v>12</v>
       </c>
       <c r="C843">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="D843">
         <v>392</v>
       </c>
       <c r="E843">
-        <v>34754973</v>
+        <v>34801445</v>
       </c>
       <c r="F843" t="s">
         <v>30</v>
@@ -30622,13 +30622,13 @@
         <v>12</v>
       </c>
       <c r="C844">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D844">
         <v>150</v>
       </c>
       <c r="E844">
-        <v>32841912</v>
+        <v>32869984</v>
       </c>
       <c r="F844" t="s">
         <v>30</v>
@@ -30727,13 +30727,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>11832</v>
+        <v>11849</v>
       </c>
       <c r="D847">
         <v>2725</v>
       </c>
       <c r="E847">
-        <v>22509559</v>
+        <v>22545681</v>
       </c>
       <c r="F847" t="s">
         <v>30</v>
@@ -30762,13 +30762,13 @@
         <v>12</v>
       </c>
       <c r="C848">
-        <v>10213</v>
+        <v>10239</v>
       </c>
       <c r="D848">
         <v>1877</v>
       </c>
       <c r="E848">
-        <v>35205079</v>
+        <v>35354514</v>
       </c>
       <c r="F848" t="s">
         <v>30</v>
@@ -30797,13 +30797,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>25385</v>
+        <v>25424</v>
       </c>
       <c r="D849">
         <v>4888</v>
       </c>
       <c r="E849">
-        <v>102619643</v>
+        <v>102885729</v>
       </c>
       <c r="F849" t="s">
         <v>30</v>
@@ -30832,13 +30832,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>7838</v>
+        <v>7848</v>
       </c>
       <c r="D850">
         <v>1556</v>
       </c>
       <c r="E850">
-        <v>44408505</v>
+        <v>44496081</v>
       </c>
       <c r="F850" t="s">
         <v>30</v>
@@ -30867,13 +30867,13 @@
         <v>12</v>
       </c>
       <c r="C851">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="D851">
         <v>491</v>
       </c>
       <c r="E851">
-        <v>21489021</v>
+        <v>21509612</v>
       </c>
       <c r="F851" t="s">
         <v>30</v>
@@ -30902,13 +30902,13 @@
         <v>12</v>
       </c>
       <c r="C852">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="D852">
         <v>184</v>
       </c>
       <c r="E852">
-        <v>16147221</v>
+        <v>16384069</v>
       </c>
       <c r="F852" t="s">
         <v>30</v>
@@ -31007,13 +31007,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>7104</v>
+        <v>7114</v>
       </c>
       <c r="D855">
         <v>1592</v>
       </c>
       <c r="E855">
-        <v>14665913</v>
+        <v>14683725</v>
       </c>
       <c r="F855" t="s">
         <v>30</v>
